--- a/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.018746111881175</v>
+      </c>
+      <c r="D3">
+        <v>1.004865051590764</v>
+      </c>
+      <c r="E3">
+        <v>0.9598196448348922</v>
+      </c>
+      <c r="F3">
+        <v>0.9598196448348922</v>
+      </c>
+      <c r="G3">
+        <v>1.014476748024823</v>
+      </c>
+      <c r="H3">
+        <v>0.9828217629959164</v>
+      </c>
+      <c r="I3">
+        <v>1.001827111733222</v>
+      </c>
+      <c r="J3">
+        <v>1.007557045103773</v>
+      </c>
+      <c r="K3">
+        <v>0.9918172387108619</v>
+      </c>
+      <c r="L3">
         <v>1.018746111881399</v>
       </c>
-      <c r="D3">
-        <v>0.9598196448348922</v>
-      </c>
-      <c r="E3">
-        <v>1.004865051590764</v>
-      </c>
-      <c r="F3">
+      <c r="M3">
         <v>1.018746111881399</v>
-      </c>
-      <c r="G3">
-        <v>1.007557045103773</v>
-      </c>
-      <c r="H3">
-        <v>0.9918172387108619</v>
-      </c>
-      <c r="I3">
-        <v>1.018746111881175</v>
-      </c>
-      <c r="J3">
-        <v>0.9598196448348922</v>
-      </c>
-      <c r="K3">
-        <v>1.014476748024823</v>
-      </c>
-      <c r="L3">
-        <v>1.001827111733222</v>
-      </c>
-      <c r="M3">
-        <v>0.9828217629959165</v>
       </c>
       <c r="N3">
         <v>1.018746111881399</v>
@@ -761,10 +713,10 @@
         <v>1.001946793058446</v>
       </c>
       <c r="W3">
-        <v>0.9977413393594564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9977413393594563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.034071616102713</v>
+      </c>
+      <c r="D4">
+        <v>1.011321764240543</v>
+      </c>
+      <c r="E4">
+        <v>0.9232086702044641</v>
+      </c>
+      <c r="F4">
+        <v>0.9232086702044641</v>
+      </c>
+      <c r="G4">
+        <v>1.024760156894633</v>
+      </c>
+      <c r="H4">
+        <v>0.968816358790466</v>
+      </c>
+      <c r="I4">
+        <v>1.004603112162105</v>
+      </c>
+      <c r="J4">
+        <v>1.01344218566163</v>
+      </c>
+      <c r="K4">
+        <v>0.9853561562040171</v>
+      </c>
+      <c r="L4">
         <v>1.034071616103038</v>
       </c>
-      <c r="D4">
-        <v>0.9232086702044641</v>
-      </c>
-      <c r="E4">
-        <v>1.011321764240543</v>
-      </c>
-      <c r="F4">
+      <c r="M4">
         <v>1.034071616103038</v>
-      </c>
-      <c r="G4">
-        <v>1.01344218566163</v>
-      </c>
-      <c r="H4">
-        <v>0.9853561562040171</v>
-      </c>
-      <c r="I4">
-        <v>1.034071616102713</v>
-      </c>
-      <c r="J4">
-        <v>0.9232086702044641</v>
-      </c>
-      <c r="K4">
-        <v>1.024760156894633</v>
-      </c>
-      <c r="L4">
-        <v>1.004603112162105</v>
-      </c>
-      <c r="M4">
-        <v>0.968816358790466</v>
       </c>
       <c r="N4">
         <v>1.034071616103038</v>
@@ -835,7 +787,7 @@
         <v>0.995697502532612</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -846,34 +798,34 @@
         <v>1.070193683251086</v>
       </c>
       <c r="D5">
+        <v>1.025074806596975</v>
+      </c>
+      <c r="E5">
         <v>0.8556740070958752</v>
       </c>
-      <c r="E5">
-        <v>1.025074806596975</v>
-      </c>
       <c r="F5">
+        <v>0.8556740070958752</v>
+      </c>
+      <c r="G5">
+        <v>1.050533535190795</v>
+      </c>
+      <c r="H5">
+        <v>0.937230568887283</v>
+      </c>
+      <c r="I5">
+        <v>1.002432575891031</v>
+      </c>
+      <c r="J5">
+        <v>1.029813359109043</v>
+      </c>
+      <c r="K5">
+        <v>0.9655832265204631</v>
+      </c>
+      <c r="L5">
         <v>1.070193683251086</v>
       </c>
-      <c r="G5">
-        <v>1.029813359109043</v>
-      </c>
-      <c r="H5">
-        <v>0.965583226520463</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
         <v>1.070193683251086</v>
-      </c>
-      <c r="J5">
-        <v>0.8556740070958752</v>
-      </c>
-      <c r="K5">
-        <v>1.050533535190795</v>
-      </c>
-      <c r="L5">
-        <v>1.002432575891031</v>
-      </c>
-      <c r="M5">
-        <v>0.937230568887283</v>
       </c>
       <c r="N5">
         <v>1.070193683251086</v>
@@ -906,7 +858,7 @@
         <v>0.9920669703178189</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,43 +869,43 @@
         <v>1.22006653398229</v>
       </c>
       <c r="D6">
+        <v>0.9701233493060543</v>
+      </c>
+      <c r="E6">
         <v>0.867712971651421</v>
       </c>
-      <c r="E6">
-        <v>0.9701233493060542</v>
-      </c>
       <c r="F6">
+        <v>0.867712971651421</v>
+      </c>
+      <c r="G6">
+        <v>1.095967865505716</v>
+      </c>
+      <c r="H6">
+        <v>0.8933642957676792</v>
+      </c>
+      <c r="I6">
+        <v>0.964773113464783</v>
+      </c>
+      <c r="J6">
+        <v>1.076524289546068</v>
+      </c>
+      <c r="K6">
+        <v>0.9601116673485846</v>
+      </c>
+      <c r="L6">
         <v>1.22006653398229</v>
       </c>
-      <c r="G6">
-        <v>1.076524289546069</v>
-      </c>
-      <c r="H6">
-        <v>0.9601116673485844</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
         <v>1.22006653398229</v>
-      </c>
-      <c r="J6">
-        <v>0.867712971651421</v>
-      </c>
-      <c r="K6">
-        <v>1.095967865505716</v>
-      </c>
-      <c r="L6">
-        <v>0.964773113464783</v>
-      </c>
-      <c r="M6">
-        <v>0.8933642957676791</v>
       </c>
       <c r="N6">
         <v>1.22006653398229</v>
       </c>
       <c r="O6">
-        <v>0.9701233493060542</v>
+        <v>0.9701233493060543</v>
       </c>
       <c r="P6">
-        <v>0.9189181604787375</v>
+        <v>0.9189181604787376</v>
       </c>
       <c r="Q6">
         <v>1.023323819426061</v>
@@ -968,7 +920,7 @@
         <v>1.019300951646589</v>
       </c>
       <c r="U6">
-        <v>1.033606786121459</v>
+        <v>1.033606786121458</v>
       </c>
       <c r="V6">
         <v>1.070898735693625</v>
@@ -977,7 +929,7 @@
         <v>1.006080510821575</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +937,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00161584686331</v>
+        <v>1.001615846863072</v>
       </c>
       <c r="D7">
-        <v>0.9984499540376741</v>
+        <v>0.9990990815609528</v>
       </c>
       <c r="E7">
-        <v>0.9990990815609531</v>
+        <v>0.9984499540376738</v>
       </c>
       <c r="F7">
-        <v>1.00161584686331</v>
+        <v>0.9984499540376738</v>
       </c>
       <c r="G7">
-        <v>1.000779001599981</v>
+        <v>0.9989272378859053</v>
       </c>
       <c r="H7">
-        <v>0.9993375795916556</v>
+        <v>0.9991578221829701</v>
       </c>
       <c r="I7">
-        <v>1.001615846863071</v>
+        <v>1.002731779003442</v>
       </c>
       <c r="J7">
-        <v>0.9984499540376741</v>
+        <v>1.00077900159998</v>
       </c>
       <c r="K7">
-        <v>0.998927237885906</v>
+        <v>0.999337579591656</v>
       </c>
       <c r="L7">
-        <v>1.002731779003444</v>
+        <v>1.001615846863311</v>
       </c>
       <c r="M7">
-        <v>0.9991578221829701</v>
+        <v>1.001615846863311</v>
       </c>
       <c r="N7">
-        <v>1.00161584686331</v>
+        <v>1.001615846863311</v>
       </c>
       <c r="O7">
-        <v>0.9990990815609531</v>
+        <v>0.9990990815609528</v>
       </c>
       <c r="P7">
-        <v>0.9987745177993136</v>
+        <v>0.9987745177993133</v>
       </c>
       <c r="Q7">
-        <v>0.9999390415804669</v>
+        <v>0.9999390415804666</v>
       </c>
       <c r="R7">
         <v>0.9997216274873123</v>
       </c>
       <c r="S7">
-        <v>0.9994426790662025</v>
+        <v>0.9994426790662022</v>
       </c>
       <c r="T7">
-        <v>0.9997216274873123</v>
+        <v>0.9997216274873124</v>
       </c>
       <c r="U7">
-        <v>0.9999859710154794</v>
+        <v>0.9999859710154795</v>
       </c>
       <c r="V7">
-        <v>1.000311946185045</v>
+        <v>1.000311946185046</v>
       </c>
       <c r="W7">
-        <v>1.000012287840737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000012287840736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,58 +1008,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005383281912046</v>
+        <v>1.00538328191181</v>
       </c>
       <c r="D8">
-        <v>0.9972474492257464</v>
+        <v>0.9960516600821394</v>
       </c>
       <c r="E8">
-        <v>0.996051660082141</v>
+        <v>0.9972474492257466</v>
       </c>
       <c r="F8">
-        <v>1.005383281912046</v>
+        <v>0.9972474492257466</v>
       </c>
       <c r="G8">
-        <v>1.001201463465873</v>
+        <v>0.9972868400342876</v>
       </c>
       <c r="H8">
-        <v>0.9985490948797773</v>
+        <v>0.996881230324109</v>
       </c>
       <c r="I8">
-        <v>1.005383281911808</v>
+        <v>1.006874865916368</v>
       </c>
       <c r="J8">
-        <v>0.9972474492257464</v>
+        <v>1.001201463465872</v>
       </c>
       <c r="K8">
-        <v>0.9972868400342875</v>
+        <v>0.9985490948797783</v>
       </c>
       <c r="L8">
-        <v>1.006874865916368</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="M8">
-        <v>0.9968812303241094</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="N8">
-        <v>1.005383281912046</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="O8">
-        <v>0.996051660082141</v>
+        <v>0.9960516600821394</v>
       </c>
       <c r="P8">
-        <v>0.9966495546539437</v>
+        <v>0.996649554653943</v>
       </c>
       <c r="Q8">
-        <v>0.9986265617740069</v>
+        <v>0.9986265617740059</v>
       </c>
       <c r="R8">
-        <v>0.9995607970733111</v>
+        <v>0.9995607970733115</v>
       </c>
       <c r="S8">
-        <v>0.9981668575912535</v>
+        <v>0.9981668575912529</v>
       </c>
       <c r="T8">
-        <v>0.9995607970733112</v>
+        <v>0.9995607970733115</v>
       </c>
       <c r="U8">
         <v>0.9999709636714517</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999344857300436</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.01582444676864</v>
+      </c>
+      <c r="D9">
+        <v>0.9956501439574794</v>
+      </c>
+      <c r="E9">
+        <v>0.9943317692482712</v>
+      </c>
+      <c r="F9">
+        <v>0.9943317692482712</v>
+      </c>
+      <c r="G9">
+        <v>0.996130849421604</v>
+      </c>
+      <c r="H9">
+        <v>0.9964287247633207</v>
+      </c>
+      <c r="I9">
+        <v>1.006777883364087</v>
+      </c>
+      <c r="J9">
+        <v>1.000770367700854</v>
+      </c>
+      <c r="K9">
+        <v>0.9977912187553518</v>
+      </c>
+      <c r="L9">
         <v>1.015824446768859</v>
       </c>
-      <c r="D9">
-        <v>0.9943317692482712</v>
-      </c>
-      <c r="E9">
-        <v>0.9956501439574794</v>
-      </c>
-      <c r="F9">
+      <c r="M9">
         <v>1.015824446768859</v>
-      </c>
-      <c r="G9">
-        <v>1.000770367700854</v>
-      </c>
-      <c r="H9">
-        <v>0.9977912187553516</v>
-      </c>
-      <c r="I9">
-        <v>1.01582444676864</v>
-      </c>
-      <c r="J9">
-        <v>0.9943317692482712</v>
-      </c>
-      <c r="K9">
-        <v>0.9961308494216038</v>
-      </c>
-      <c r="L9">
-        <v>1.006777883364087</v>
-      </c>
-      <c r="M9">
-        <v>0.9964287247633207</v>
       </c>
       <c r="N9">
         <v>1.015824446768859</v>
@@ -1190,7 +1142,7 @@
         <v>1.000463175497478</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.026786979881778</v>
+      </c>
+      <c r="D10">
+        <v>0.9907405274273371</v>
+      </c>
+      <c r="E10">
+        <v>0.9877273549470849</v>
+      </c>
+      <c r="F10">
+        <v>0.9877273549470849</v>
+      </c>
+      <c r="G10">
+        <v>0.9926292182796956</v>
+      </c>
+      <c r="H10">
+        <v>0.9918045619822703</v>
+      </c>
+      <c r="I10">
+        <v>1.017004510398938</v>
+      </c>
+      <c r="J10">
+        <v>1.003266968302748</v>
+      </c>
+      <c r="K10">
+        <v>0.9948834509980317</v>
+      </c>
+      <c r="L10">
         <v>1.026786979881962</v>
       </c>
-      <c r="D10">
-        <v>0.9877273549470849</v>
-      </c>
-      <c r="E10">
-        <v>0.9907405274273371</v>
-      </c>
-      <c r="F10">
+      <c r="M10">
         <v>1.026786979881962</v>
-      </c>
-      <c r="G10">
-        <v>1.003266968302748</v>
-      </c>
-      <c r="H10">
-        <v>0.9948834509980317</v>
-      </c>
-      <c r="I10">
-        <v>1.026786979881778</v>
-      </c>
-      <c r="J10">
-        <v>0.9877273549470849</v>
-      </c>
-      <c r="K10">
-        <v>0.9926292182796956</v>
-      </c>
-      <c r="L10">
-        <v>1.017004510398938</v>
-      </c>
-      <c r="M10">
-        <v>0.9918045619822703</v>
       </c>
       <c r="N10">
         <v>1.026786979881962</v>
@@ -1240,7 +1192,7 @@
         <v>0.989233941187211</v>
       </c>
       <c r="Q10">
-        <v>0.9970037478650424</v>
+        <v>0.9970037478650425</v>
       </c>
       <c r="R10">
         <v>1.001751620752128</v>
@@ -1261,7 +1213,7 @@
         <v>1.000605446527258</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.058716161309101</v>
+      </c>
+      <c r="D11">
+        <v>0.9820465774453639</v>
+      </c>
+      <c r="E11">
+        <v>0.9850031520053769</v>
+      </c>
+      <c r="F11">
+        <v>0.9850031520053769</v>
+      </c>
+      <c r="G11">
+        <v>0.9874895910197368</v>
+      </c>
+      <c r="H11">
+        <v>0.986274253959848</v>
+      </c>
+      <c r="I11">
+        <v>1.025915044174778</v>
+      </c>
+      <c r="J11">
+        <v>1.003983989190003</v>
+      </c>
+      <c r="K11">
+        <v>0.9925609250314572</v>
+      </c>
+      <c r="L11">
         <v>1.05871616130922</v>
       </c>
-      <c r="D11">
-        <v>0.9850031520053771</v>
-      </c>
-      <c r="E11">
-        <v>0.9820465774453639</v>
-      </c>
-      <c r="F11">
+      <c r="M11">
         <v>1.05871616130922</v>
-      </c>
-      <c r="G11">
-        <v>1.003983989190003</v>
-      </c>
-      <c r="H11">
-        <v>0.992560925031457</v>
-      </c>
-      <c r="I11">
-        <v>1.058716161309101</v>
-      </c>
-      <c r="J11">
-        <v>0.9850031520053771</v>
-      </c>
-      <c r="K11">
-        <v>0.9874895910197365</v>
-      </c>
-      <c r="L11">
-        <v>1.025915044174778</v>
-      </c>
-      <c r="M11">
-        <v>0.9862742539598482</v>
       </c>
       <c r="N11">
         <v>1.05871616130922</v>
@@ -1332,7 +1284,7 @@
         <v>1.002748711766973</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,46 +1292,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4809138115336776</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="D12">
-        <v>0.5841414576466506</v>
+        <v>0.5984666815983429</v>
       </c>
       <c r="E12">
-        <v>0.5984666815983429</v>
+        <v>0.5841414576466507</v>
       </c>
       <c r="F12">
-        <v>0.4809138115336776</v>
+        <v>0.5841414576466507</v>
       </c>
       <c r="G12">
+        <v>1.205144409617158</v>
+      </c>
+      <c r="H12">
+        <v>1.205967270557466</v>
+      </c>
+      <c r="I12">
+        <v>1.209575990516276</v>
+      </c>
+      <c r="J12">
         <v>1.37400519149959</v>
       </c>
-      <c r="H12">
-        <v>0.727281509244649</v>
-      </c>
-      <c r="I12">
-        <v>0.4809138115336776</v>
-      </c>
-      <c r="J12">
-        <v>0.5841414576466506</v>
-      </c>
       <c r="K12">
-        <v>1.205144409617158</v>
+        <v>0.7272815092446488</v>
       </c>
       <c r="L12">
-        <v>1.209575990516276</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="M12">
-        <v>1.205967270557466</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="N12">
-        <v>0.4809138115336776</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="O12">
         <v>0.5984666815983429</v>
       </c>
       <c r="P12">
-        <v>0.5913040696224967</v>
+        <v>0.5913040696224968</v>
       </c>
       <c r="Q12">
         <v>0.9862359365489664</v>
@@ -1391,19 +1343,19 @@
         <v>0.8522044435815278</v>
       </c>
       <c r="T12">
-        <v>0.5545073169262237</v>
+        <v>0.5545073169262236</v>
       </c>
       <c r="U12">
-        <v>0.7593817855695653</v>
+        <v>0.759381785569565</v>
       </c>
       <c r="V12">
-        <v>0.7036881907623878</v>
+        <v>0.7036881907623875</v>
       </c>
       <c r="W12">
-        <v>0.9231870402767263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9231870402767264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,49 +1363,49 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.366192144313925</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="D13">
-        <v>1.824815341097076</v>
+        <v>1.3826465664652</v>
       </c>
       <c r="E13">
-        <v>1.3826465664652</v>
+        <v>1.824815341097077</v>
       </c>
       <c r="F13">
-        <v>1.366192144313925</v>
+        <v>1.824815341097077</v>
       </c>
       <c r="G13">
-        <v>0.6030343112616491</v>
+        <v>0.899365445964453</v>
       </c>
       <c r="H13">
-        <v>1.190636802103888</v>
+        <v>1.02187966757812</v>
       </c>
       <c r="I13">
-        <v>1.366192144313925</v>
+        <v>0.6130247411759462</v>
       </c>
       <c r="J13">
-        <v>1.824815341097076</v>
+        <v>0.603034311261649</v>
       </c>
       <c r="K13">
-        <v>0.8993654459644532</v>
+        <v>1.190636802103889</v>
       </c>
       <c r="L13">
-        <v>0.6130247411759463</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="M13">
-        <v>1.02187966757812</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="N13">
-        <v>1.366192144313925</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="O13">
         <v>1.3826465664652</v>
       </c>
       <c r="P13">
-        <v>1.603730953781138</v>
+        <v>1.603730953781139</v>
       </c>
       <c r="Q13">
-        <v>0.9928404388634247</v>
+        <v>0.9928404388634245</v>
       </c>
       <c r="R13">
         <v>1.5245513506254</v>
@@ -1462,7 +1414,7 @@
         <v>1.270165406274642</v>
       </c>
       <c r="T13">
-        <v>1.5245513506254</v>
+        <v>1.524551350625401</v>
       </c>
       <c r="U13">
         <v>1.294172090784463</v>
@@ -1474,7 +1426,7 @@
         <v>1.112699377495032</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1434,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1930077295682088</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="D14">
-        <v>0.0055980154112292</v>
+        <v>2.722406018208528</v>
       </c>
       <c r="E14">
-        <v>2.722406018208527</v>
+        <v>0.005598015411229197</v>
       </c>
       <c r="F14">
-        <v>0.1930077295682088</v>
+        <v>0.005598015411229197</v>
       </c>
       <c r="G14">
-        <v>0.2904348523509873</v>
+        <v>1.333328230713323</v>
       </c>
       <c r="H14">
+        <v>0.09815470382483896</v>
+      </c>
+      <c r="I14">
+        <v>0.4410749642003395</v>
+      </c>
+      <c r="J14">
+        <v>0.2904348523509871</v>
+      </c>
+      <c r="K14">
         <v>2.033625116496749</v>
       </c>
-      <c r="I14">
-        <v>0.1930077295682088</v>
-      </c>
-      <c r="J14">
-        <v>0.0055980154112292</v>
-      </c>
-      <c r="K14">
-        <v>1.333328230713323</v>
-      </c>
       <c r="L14">
-        <v>0.4410749642003396</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="M14">
-        <v>0.09815470382483901</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="N14">
-        <v>0.1930077295682088</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="O14">
-        <v>2.722406018208527</v>
+        <v>2.722406018208528</v>
       </c>
       <c r="P14">
-        <v>1.364002016809878</v>
+        <v>1.364002016809879</v>
       </c>
       <c r="Q14">
-        <v>1.506420435279757</v>
+        <v>1.506420435279758</v>
       </c>
       <c r="R14">
-        <v>0.9736705877293218</v>
+        <v>0.973670587729322</v>
       </c>
       <c r="S14">
-        <v>1.006146295323581</v>
+        <v>1.006146295323582</v>
       </c>
       <c r="T14">
-        <v>0.9736705877293218</v>
+        <v>0.973670587729322</v>
       </c>
       <c r="U14">
-        <v>0.8028616538847382</v>
+        <v>0.8028616538847383</v>
       </c>
       <c r="V14">
-        <v>0.6808908690214323</v>
+        <v>0.6808908690214324</v>
       </c>
       <c r="W14">
         <v>0.8897037038467754</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,34 +1508,34 @@
         <v>1.505699079239369</v>
       </c>
       <c r="D15">
-        <v>0.3228136666779425</v>
+        <v>0.1345123975683582</v>
       </c>
       <c r="E15">
-        <v>0.1345123975683582</v>
+        <v>0.3228136666779424</v>
       </c>
       <c r="F15">
+        <v>0.3228136666779424</v>
+      </c>
+      <c r="G15">
+        <v>0.8886739995503065</v>
+      </c>
+      <c r="H15">
+        <v>0.9784247722625458</v>
+      </c>
+      <c r="I15">
+        <v>1.617977040267833</v>
+      </c>
+      <c r="J15">
+        <v>1.452368782561316</v>
+      </c>
+      <c r="K15">
+        <v>0.6050376427084995</v>
+      </c>
+      <c r="L15">
         <v>1.505699079239369</v>
       </c>
-      <c r="G15">
-        <v>1.452368782561316</v>
-      </c>
-      <c r="H15">
-        <v>0.6050376427084995</v>
-      </c>
-      <c r="I15">
+      <c r="M15">
         <v>1.505699079239369</v>
-      </c>
-      <c r="J15">
-        <v>0.3228136666779425</v>
-      </c>
-      <c r="K15">
-        <v>0.8886739995503062</v>
-      </c>
-      <c r="L15">
-        <v>1.617977040267833</v>
-      </c>
-      <c r="M15">
-        <v>0.9784247722625459</v>
       </c>
       <c r="N15">
         <v>1.505699079239369</v>
@@ -1592,7 +1544,7 @@
         <v>0.1345123975683582</v>
       </c>
       <c r="P15">
-        <v>0.2286630321231504</v>
+        <v>0.2286630321231503</v>
       </c>
       <c r="Q15">
         <v>0.7934405900648369</v>
@@ -1613,10 +1565,10 @@
         <v>0.9842186010572707</v>
       </c>
       <c r="W15">
-        <v>0.9381884226045211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9381884226045212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9934823036578465</v>
+        <v>1.296075045584311</v>
       </c>
       <c r="D16">
-        <v>1.000599125147401</v>
+        <v>1.101083315861682</v>
       </c>
       <c r="E16">
-        <v>1.006394440907117</v>
+        <v>0.2602348492857315</v>
       </c>
       <c r="F16">
-        <v>0.9934823036578465</v>
+        <v>0.2602348492857315</v>
       </c>
       <c r="G16">
-        <v>0.9978682796863158</v>
+        <v>1.225749967475247</v>
       </c>
       <c r="H16">
-        <v>1.002176291671768</v>
+        <v>0.683348498282075</v>
       </c>
       <c r="I16">
-        <v>0.9934823036576024</v>
+        <v>1.045793807859287</v>
       </c>
       <c r="J16">
-        <v>1.000599125147401</v>
+        <v>1.112659030280382</v>
       </c>
       <c r="K16">
-        <v>1.000655877119928</v>
+        <v>0.888835586244119</v>
       </c>
       <c r="L16">
-        <v>0.9996197815072394</v>
+        <v>1.296075045584349</v>
       </c>
       <c r="M16">
-        <v>0.9986431041745535</v>
+        <v>1.296075045584349</v>
       </c>
       <c r="N16">
-        <v>0.9934823036578465</v>
+        <v>1.296075045584349</v>
       </c>
       <c r="O16">
-        <v>1.006394440907117</v>
+        <v>1.101083315861682</v>
       </c>
       <c r="P16">
-        <v>1.003496783027259</v>
+        <v>0.6806590825737066</v>
       </c>
       <c r="Q16">
-        <v>1.002131360296716</v>
+        <v>1.106871173071032</v>
       </c>
       <c r="R16">
-        <v>1.000158623237455</v>
+        <v>0.8857977369105874</v>
       </c>
       <c r="S16">
-        <v>1.001620615246944</v>
+        <v>0.8246590651425985</v>
       </c>
       <c r="T16">
-        <v>1.000158623237455</v>
+        <v>0.8857977369105874</v>
       </c>
       <c r="U16">
-        <v>0.99958603734967</v>
+        <v>0.9425130602530361</v>
       </c>
       <c r="V16">
-        <v>0.9983652906113052</v>
+        <v>1.013225457319299</v>
       </c>
       <c r="W16">
-        <v>0.999929900484021</v>
+        <v>0.9517225126091091</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00971451416345</v>
+        <v>1.225614663310377</v>
       </c>
       <c r="D17">
-        <v>0.9970034184423411</v>
+        <v>1.037093406630736</v>
       </c>
       <c r="E17">
-        <v>0.9899339252157848</v>
+        <v>0.4556967534735961</v>
       </c>
       <c r="F17">
-        <v>1.00971451416345</v>
+        <v>0.4556967534735961</v>
       </c>
       <c r="G17">
-        <v>1.006221858824056</v>
+        <v>1.122663701238661</v>
       </c>
       <c r="H17">
-        <v>0.9969214622182465</v>
+        <v>0.7582529194294733</v>
       </c>
       <c r="I17">
-        <v>1.009714514163193</v>
+        <v>1.098344499340992</v>
       </c>
       <c r="J17">
-        <v>0.9970034184423411</v>
+        <v>1.094587635408748</v>
       </c>
       <c r="K17">
-        <v>0.9956099120639599</v>
+        <v>0.919226481250798</v>
       </c>
       <c r="L17">
-        <v>1.005825577460021</v>
+        <v>1.225614663310454</v>
       </c>
       <c r="M17">
-        <v>1.002407582298643</v>
+        <v>1.225614663310454</v>
       </c>
       <c r="N17">
-        <v>1.00971451416345</v>
+        <v>1.225614663310454</v>
       </c>
       <c r="O17">
-        <v>0.9899339252157848</v>
+        <v>1.037093406630736</v>
       </c>
       <c r="P17">
-        <v>0.993468671829063</v>
+        <v>0.7463950800521658</v>
       </c>
       <c r="Q17">
-        <v>0.9980778920199203</v>
+        <v>1.065840521019742</v>
       </c>
       <c r="R17">
-        <v>0.998883952607192</v>
+        <v>0.9061349411382619</v>
       </c>
       <c r="S17">
-        <v>0.9977197341607272</v>
+        <v>0.8624592651710264</v>
       </c>
       <c r="T17">
-        <v>0.9988839526071919</v>
+        <v>0.9061349411382619</v>
       </c>
       <c r="U17">
-        <v>1.000718429161408</v>
+        <v>0.9532481147058833</v>
       </c>
       <c r="V17">
-        <v>1.002517646161816</v>
+        <v>1.007721424426797</v>
       </c>
       <c r="W17">
-        <v>1.000454781335813</v>
+        <v>0.9639350075104322</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9955364803276165</v>
+        <v>1.091494427061383</v>
       </c>
       <c r="D18">
-        <v>0.9894477719441589</v>
+        <v>0.9102373172986911</v>
       </c>
       <c r="E18">
-        <v>1.028107711932186</v>
+        <v>0.845885803256448</v>
       </c>
       <c r="F18">
-        <v>0.9955364803276165</v>
+        <v>0.845885803256448</v>
       </c>
       <c r="G18">
-        <v>1.001223911480721</v>
+        <v>0.9177429565563975</v>
       </c>
       <c r="H18">
-        <v>1.004592813153402</v>
+        <v>0.9078670810889005</v>
       </c>
       <c r="I18">
-        <v>0.9955364803275984</v>
+        <v>1.19932903775909</v>
       </c>
       <c r="J18">
-        <v>0.9894477719441589</v>
+        <v>1.056836087555258</v>
       </c>
       <c r="K18">
-        <v>1.005217482787198</v>
+        <v>0.9802266908425847</v>
       </c>
       <c r="L18">
-        <v>0.9988190473987688</v>
+        <v>1.091494427061383</v>
       </c>
       <c r="M18">
-        <v>0.9924240744928911</v>
+        <v>1.091494427061383</v>
       </c>
       <c r="N18">
-        <v>0.9955364803276165</v>
+        <v>1.091494427061383</v>
       </c>
       <c r="O18">
-        <v>1.028107711932186</v>
+        <v>0.9102373172986911</v>
       </c>
       <c r="P18">
-        <v>1.008777741938172</v>
+        <v>0.8780615602775695</v>
       </c>
       <c r="Q18">
-        <v>1.014665811706454</v>
+        <v>0.9835367024269747</v>
       </c>
       <c r="R18">
-        <v>1.004363988067987</v>
+        <v>0.9492058492055072</v>
       </c>
       <c r="S18">
-        <v>1.006259798452355</v>
+        <v>0.9376530693701325</v>
       </c>
       <c r="T18">
-        <v>1.004363988067987</v>
+        <v>0.9492058492055072</v>
       </c>
       <c r="U18">
-        <v>1.00357896892117</v>
+        <v>0.9761134087929449</v>
       </c>
       <c r="V18">
-        <v>1.00197047120246</v>
+        <v>0.9991896124466326</v>
       </c>
       <c r="W18">
-        <v>1.001921161689618</v>
+        <v>0.9887024251773441</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="D19">
+        <v>0.8460463169234751</v>
+      </c>
+      <c r="E19">
+        <v>0.7555083689554883</v>
+      </c>
+      <c r="F19">
+        <v>0.7555083689554883</v>
+      </c>
+      <c r="G19">
+        <v>0.9154069590270364</v>
+      </c>
+      <c r="H19">
+        <v>0.9031310844821503</v>
+      </c>
+      <c r="I19">
+        <v>1.295275645279172</v>
+      </c>
+      <c r="J19">
+        <v>1.119390113976808</v>
+      </c>
+      <c r="K19">
+        <v>0.9328000701164331</v>
+      </c>
+      <c r="L19">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="M19">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="N19">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="O19">
+        <v>0.8460463169234751</v>
+      </c>
+      <c r="P19">
+        <v>0.8007773429394818</v>
+      </c>
+      <c r="Q19">
+        <v>0.9827182154501415</v>
+      </c>
+      <c r="R19">
+        <v>0.885900616572378</v>
+      </c>
+      <c r="S19">
+        <v>0.9069815999519237</v>
+      </c>
+      <c r="T19">
+        <v>0.8859006165723778</v>
+      </c>
+      <c r="U19">
+        <v>0.9442729909234853</v>
+      </c>
+      <c r="V19">
+        <v>0.9666478255064224</v>
+      </c>
+      <c r="W19">
+        <v>0.9779632153248417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9934823036576022</v>
+      </c>
+      <c r="D20">
+        <v>1.006394440907117</v>
+      </c>
+      <c r="E20">
+        <v>1.0005991251474</v>
+      </c>
+      <c r="F20">
+        <v>1.0005991251474</v>
+      </c>
+      <c r="G20">
+        <v>1.000655877119927</v>
+      </c>
+      <c r="H20">
+        <v>0.9986431041745529</v>
+      </c>
+      <c r="I20">
+        <v>0.9996197815072374</v>
+      </c>
+      <c r="J20">
+        <v>0.9978682796863151</v>
+      </c>
+      <c r="K20">
+        <v>1.002176291671768</v>
+      </c>
+      <c r="L20">
+        <v>0.9934823036578463</v>
+      </c>
+      <c r="M20">
+        <v>0.9934823036578463</v>
+      </c>
+      <c r="N20">
+        <v>0.9934823036578463</v>
+      </c>
+      <c r="O20">
+        <v>1.006394440907117</v>
+      </c>
+      <c r="P20">
+        <v>1.003496783027259</v>
+      </c>
+      <c r="Q20">
+        <v>1.002131360296716</v>
+      </c>
+      <c r="R20">
+        <v>1.000158623237455</v>
+      </c>
+      <c r="S20">
+        <v>1.001620615246944</v>
+      </c>
+      <c r="T20">
+        <v>1.000158623237454</v>
+      </c>
+      <c r="U20">
+        <v>0.9995860373496696</v>
+      </c>
+      <c r="V20">
+        <v>0.9983652906113049</v>
+      </c>
+      <c r="W20">
+        <v>0.9999299004840205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.009714514163193</v>
+      </c>
+      <c r="D21">
+        <v>0.9899339252157845</v>
+      </c>
+      <c r="E21">
+        <v>0.997003418442341</v>
+      </c>
+      <c r="F21">
+        <v>0.997003418442341</v>
+      </c>
+      <c r="G21">
+        <v>0.9956099120639595</v>
+      </c>
+      <c r="H21">
+        <v>1.002407582298643</v>
+      </c>
+      <c r="I21">
+        <v>1.005825577460021</v>
+      </c>
+      <c r="J21">
+        <v>1.006221858824056</v>
+      </c>
+      <c r="K21">
+        <v>0.9969214622182465</v>
+      </c>
+      <c r="L21">
+        <v>1.00971451416345</v>
+      </c>
+      <c r="M21">
+        <v>1.00971451416345</v>
+      </c>
+      <c r="N21">
+        <v>1.00971451416345</v>
+      </c>
+      <c r="O21">
+        <v>0.9899339252157845</v>
+      </c>
+      <c r="P21">
+        <v>0.9934686718290627</v>
+      </c>
+      <c r="Q21">
+        <v>0.99807789201992</v>
+      </c>
+      <c r="R21">
+        <v>0.9988839526071919</v>
+      </c>
+      <c r="S21">
+        <v>0.997719734160727</v>
+      </c>
+      <c r="T21">
+        <v>0.998883952607192</v>
+      </c>
+      <c r="U21">
+        <v>1.000718429161408</v>
+      </c>
+      <c r="V21">
+        <v>1.002517646161816</v>
+      </c>
+      <c r="W21">
+        <v>1.000454781335813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.995536480327599</v>
+      </c>
+      <c r="D22">
+        <v>1.028107711932186</v>
+      </c>
+      <c r="E22">
+        <v>0.9894477719441588</v>
+      </c>
+      <c r="F22">
+        <v>0.9894477719441588</v>
+      </c>
+      <c r="G22">
+        <v>1.005217482787198</v>
+      </c>
+      <c r="H22">
+        <v>0.9924240744928906</v>
+      </c>
+      <c r="I22">
+        <v>0.998819047398769</v>
+      </c>
+      <c r="J22">
+        <v>1.001223911480721</v>
+      </c>
+      <c r="K22">
+        <v>1.004592813153403</v>
+      </c>
+      <c r="L22">
+        <v>0.9955364803276171</v>
+      </c>
+      <c r="M22">
+        <v>0.9955364803276171</v>
+      </c>
+      <c r="N22">
+        <v>0.9955364803276171</v>
+      </c>
+      <c r="O22">
+        <v>1.028107711932186</v>
+      </c>
+      <c r="P22">
+        <v>1.008777741938172</v>
+      </c>
+      <c r="Q22">
+        <v>1.014665811706453</v>
+      </c>
+      <c r="R22">
+        <v>1.004363988067987</v>
+      </c>
+      <c r="S22">
+        <v>1.006259798452355</v>
+      </c>
+      <c r="T22">
+        <v>1.004363988067987</v>
+      </c>
+      <c r="U22">
+        <v>1.00357896892117</v>
+      </c>
+      <c r="V22">
+        <v>1.00197047120246</v>
+      </c>
+      <c r="W22">
+        <v>1.001921161689618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9288150437933617</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.084011416408662</v>
+      </c>
+      <c r="E23">
         <v>0.9706932743520349</v>
       </c>
-      <c r="E19">
+      <c r="F23">
+        <v>0.9706932743520349</v>
+      </c>
+      <c r="G23">
+        <v>1.041652281704076</v>
+      </c>
+      <c r="H23">
+        <v>0.9662338011006723</v>
+      </c>
+      <c r="I23">
+        <v>0.977408672949814</v>
+      </c>
+      <c r="J23">
+        <v>0.9601114011895673</v>
+      </c>
+      <c r="K23">
+        <v>1.019268265569473</v>
+      </c>
+      <c r="L23">
+        <v>0.9288150437933617</v>
+      </c>
+      <c r="M23">
+        <v>0.9288150437933617</v>
+      </c>
+      <c r="N23">
+        <v>0.9288150437933617</v>
+      </c>
+      <c r="O23">
         <v>1.084011416408662</v>
       </c>
-      <c r="F19">
-        <v>0.9288150437933617</v>
-      </c>
-      <c r="G19">
-        <v>0.9601114011895673</v>
-      </c>
-      <c r="H19">
-        <v>1.019268265569473</v>
-      </c>
-      <c r="I19">
-        <v>0.9288150437933617</v>
-      </c>
-      <c r="J19">
-        <v>0.9706932743520349</v>
-      </c>
-      <c r="K19">
-        <v>1.041652281704076</v>
-      </c>
-      <c r="L19">
-        <v>0.977408672949814</v>
-      </c>
-      <c r="M19">
-        <v>0.966233801100672</v>
-      </c>
-      <c r="N19">
-        <v>0.9288150437933617</v>
-      </c>
-      <c r="O19">
-        <v>1.084011416408662</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.027352345380349</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.022061408799115</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9945065781846864</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.004938697316755</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9945065781846864</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9859077839359066</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9744892359073976</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9935242696334576</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 3]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.018746111881175</v>
+        <v>1.100403106194986</v>
       </c>
       <c r="D3">
-        <v>1.004865051590764</v>
+        <v>0.8939500269336467</v>
       </c>
       <c r="E3">
-        <v>0.9598196448348922</v>
+        <v>0.821402092617747</v>
       </c>
       <c r="F3">
-        <v>0.9598196448348922</v>
+        <v>0.821402092617747</v>
       </c>
       <c r="G3">
-        <v>1.014476748024823</v>
+        <v>0.8987080709672016</v>
       </c>
       <c r="H3">
-        <v>0.9828217629959164</v>
+        <v>0.8884439437599853</v>
       </c>
       <c r="I3">
-        <v>1.001827111733222</v>
+        <v>1.262267633234868</v>
       </c>
       <c r="J3">
-        <v>1.007557045103773</v>
+        <v>1.079727445010804</v>
       </c>
       <c r="K3">
-        <v>0.9918172387108619</v>
+        <v>0.9646945818659948</v>
       </c>
       <c r="L3">
-        <v>1.018746111881399</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="M3">
-        <v>1.018746111881399</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="N3">
-        <v>1.018746111881399</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="O3">
-        <v>1.004865051590764</v>
+        <v>0.8939500269336467</v>
       </c>
       <c r="P3">
-        <v>0.982342348212828</v>
+        <v>0.8576760597756968</v>
       </c>
       <c r="Q3">
-        <v>1.006211048347268</v>
+        <v>0.9868387359722255</v>
       </c>
       <c r="R3">
-        <v>0.9944769361023518</v>
+        <v>0.9385850752488412</v>
       </c>
       <c r="S3">
-        <v>0.9907472471764764</v>
+        <v>0.9316931881873994</v>
       </c>
       <c r="T3">
-        <v>0.9944769361023518</v>
+        <v>0.9385850752488412</v>
       </c>
       <c r="U3">
-        <v>0.9977469633527072</v>
+        <v>0.9738706676893319</v>
       </c>
       <c r="V3">
-        <v>1.001946793058446</v>
+        <v>0.9991771553904915</v>
       </c>
       <c r="W3">
-        <v>0.9977413393594563</v>
+        <v>0.9886996125731722</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.034071616102713</v>
+        <v>1.086999935460244</v>
       </c>
       <c r="D4">
-        <v>1.011321764240543</v>
+        <v>0.9028078582289141</v>
       </c>
       <c r="E4">
-        <v>0.9232086702044641</v>
+        <v>0.8368104316644861</v>
       </c>
       <c r="F4">
-        <v>0.9232086702044641</v>
+        <v>0.8368104316644861</v>
       </c>
       <c r="G4">
-        <v>1.024760156894633</v>
+        <v>0.9084037617704243</v>
       </c>
       <c r="H4">
-        <v>0.968816358790466</v>
+        <v>0.8999977876435609</v>
       </c>
       <c r="I4">
-        <v>1.004603112162105</v>
+        <v>1.230023768258677</v>
       </c>
       <c r="J4">
-        <v>1.01344218566163</v>
+        <v>1.068467459359483</v>
       </c>
       <c r="K4">
-        <v>0.9853561562040171</v>
+        <v>0.9735881997050011</v>
       </c>
       <c r="L4">
-        <v>1.034071616103038</v>
+        <v>1.086999935460394</v>
       </c>
       <c r="M4">
-        <v>1.034071616103038</v>
+        <v>1.086999935460394</v>
       </c>
       <c r="N4">
-        <v>1.034071616103038</v>
+        <v>1.086999935460394</v>
       </c>
       <c r="O4">
-        <v>1.011321764240543</v>
+        <v>0.9028078582289141</v>
       </c>
       <c r="P4">
-        <v>0.9672652172225036</v>
+        <v>0.8698091449467</v>
       </c>
       <c r="Q4">
-        <v>1.012381974951087</v>
+        <v>0.9856376587941985</v>
       </c>
       <c r="R4">
-        <v>0.9895340168493484</v>
+        <v>0.9422060751179312</v>
       </c>
       <c r="S4">
-        <v>0.9826575400355457</v>
+        <v>0.9360285830842944</v>
       </c>
       <c r="T4">
-        <v>0.9895340168493484</v>
+        <v>0.9422060751179314</v>
       </c>
       <c r="U4">
-        <v>0.9955110590524188</v>
+        <v>0.9737714211783193</v>
       </c>
       <c r="V4">
-        <v>1.003223170462543</v>
+        <v>0.996417124034734</v>
       </c>
       <c r="W4">
-        <v>0.995697502532612</v>
+        <v>0.9883874002613675</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.070193683251086</v>
+        <v>1.129462819206686</v>
       </c>
       <c r="D5">
-        <v>1.025074806596975</v>
+        <v>0.8761728265997304</v>
       </c>
       <c r="E5">
-        <v>0.8556740070958752</v>
+        <v>0.7918884701969828</v>
       </c>
       <c r="F5">
-        <v>0.8556740070958752</v>
+        <v>0.7918884701969828</v>
       </c>
       <c r="G5">
-        <v>1.050533535190795</v>
+        <v>0.8795639670444217</v>
       </c>
       <c r="H5">
-        <v>0.937230568887283</v>
+        <v>0.8661751606212945</v>
       </c>
       <c r="I5">
-        <v>1.002432575891031</v>
+        <v>1.324235888237195</v>
       </c>
       <c r="J5">
-        <v>1.029813359109043</v>
+        <v>1.100808741967655</v>
       </c>
       <c r="K5">
-        <v>0.9655832265204631</v>
+        <v>0.9474852644743933</v>
       </c>
       <c r="L5">
-        <v>1.070193683251086</v>
+        <v>1.129462819206686</v>
       </c>
       <c r="M5">
-        <v>1.070193683251086</v>
+        <v>1.129462819206686</v>
       </c>
       <c r="N5">
-        <v>1.070193683251086</v>
+        <v>1.129462819206686</v>
       </c>
       <c r="O5">
-        <v>1.025074806596975</v>
+        <v>0.8761728265997304</v>
       </c>
       <c r="P5">
-        <v>0.9403744068464253</v>
+        <v>0.8340306483983566</v>
       </c>
       <c r="Q5">
-        <v>1.027444082853009</v>
+        <v>0.9884907842836926</v>
       </c>
       <c r="R5">
-        <v>0.9836474989813123</v>
+        <v>0.9325080386677996</v>
       </c>
       <c r="S5">
-        <v>0.9701873909339644</v>
+        <v>0.9229566795881228</v>
       </c>
       <c r="T5">
-        <v>0.9836474989813123</v>
+        <v>0.9325080386677996</v>
       </c>
       <c r="U5">
-        <v>0.995188964013245</v>
+        <v>0.9745832144927635</v>
       </c>
       <c r="V5">
-        <v>1.010189907860813</v>
+        <v>1.005559135435548</v>
       </c>
       <c r="W5">
-        <v>0.9920669703178189</v>
+        <v>0.9894741422935449</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.22006653398229</v>
+        <v>1.163349671064774</v>
       </c>
       <c r="D6">
-        <v>0.9701233493060543</v>
+        <v>0.8604614701170453</v>
       </c>
       <c r="E6">
-        <v>0.867712971651421</v>
+        <v>0.762743008591932</v>
       </c>
       <c r="F6">
-        <v>0.867712971651421</v>
+        <v>0.762743008591932</v>
       </c>
       <c r="G6">
-        <v>1.095967865505716</v>
+        <v>0.8605911210856821</v>
       </c>
       <c r="H6">
-        <v>0.8933642957676792</v>
+        <v>0.8441603224806816</v>
       </c>
       <c r="I6">
-        <v>0.964773113464783</v>
+        <v>1.385005688659093</v>
       </c>
       <c r="J6">
-        <v>1.076524289546068</v>
+        <v>1.121428700488636</v>
       </c>
       <c r="K6">
-        <v>0.9601116673485846</v>
+        <v>0.9298479583522733</v>
       </c>
       <c r="L6">
-        <v>1.22006653398229</v>
+        <v>1.163349671064774</v>
       </c>
       <c r="M6">
-        <v>1.22006653398229</v>
+        <v>1.163349671064774</v>
       </c>
       <c r="N6">
-        <v>1.22006653398229</v>
+        <v>1.163349671064774</v>
       </c>
       <c r="O6">
-        <v>0.9701233493060543</v>
+        <v>0.8604614701170453</v>
       </c>
       <c r="P6">
-        <v>0.9189181604787376</v>
+        <v>0.8116022393544886</v>
       </c>
       <c r="Q6">
-        <v>1.023323819426061</v>
+        <v>0.9909450853028405</v>
       </c>
       <c r="R6">
-        <v>1.019300951646589</v>
+        <v>0.9288513832579169</v>
       </c>
       <c r="S6">
-        <v>0.9714535368345146</v>
+        <v>0.9148777263992044</v>
       </c>
       <c r="T6">
-        <v>1.019300951646589</v>
+        <v>0.9288513832579169</v>
       </c>
       <c r="U6">
-        <v>1.033606786121458</v>
+        <v>0.9769957125655967</v>
       </c>
       <c r="V6">
-        <v>1.070898735693625</v>
+        <v>1.014266504265432</v>
       </c>
       <c r="W6">
-        <v>1.006080510821575</v>
+        <v>0.9909484926050145</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001615846863072</v>
+        <v>2.822797141017435</v>
       </c>
       <c r="D7">
-        <v>0.9990990815609528</v>
+        <v>0.9597400173086172</v>
       </c>
       <c r="E7">
-        <v>0.9984499540376738</v>
+        <v>1.904844092682294</v>
       </c>
       <c r="F7">
-        <v>0.9984499540376738</v>
+        <v>1.904844092682294</v>
       </c>
       <c r="G7">
-        <v>0.9989272378859053</v>
+        <v>0.2641362201415983</v>
       </c>
       <c r="H7">
-        <v>0.9991578221829701</v>
+        <v>1.102408056323056</v>
       </c>
       <c r="I7">
-        <v>1.002731779003442</v>
+        <v>1.033484327822525</v>
       </c>
       <c r="J7">
-        <v>1.00077900159998</v>
+        <v>0.8786547766112424</v>
       </c>
       <c r="K7">
-        <v>0.999337579591656</v>
+        <v>1.091915224003817</v>
       </c>
       <c r="L7">
-        <v>1.001615846863311</v>
+        <v>2.822797141017435</v>
       </c>
       <c r="M7">
-        <v>1.001615846863311</v>
+        <v>2.822797141017435</v>
       </c>
       <c r="N7">
-        <v>1.001615846863311</v>
+        <v>2.822797141017435</v>
       </c>
       <c r="O7">
-        <v>0.9990990815609528</v>
+        <v>0.9597400173086172</v>
       </c>
       <c r="P7">
-        <v>0.9987745177993133</v>
+        <v>1.432292054995456</v>
       </c>
       <c r="Q7">
-        <v>0.9999390415804666</v>
+        <v>0.9191973969599299</v>
       </c>
       <c r="R7">
-        <v>0.9997216274873123</v>
+        <v>1.895793750336116</v>
       </c>
       <c r="S7">
-        <v>0.9994426790662022</v>
+        <v>1.247746295534051</v>
       </c>
       <c r="T7">
-        <v>0.9997216274873124</v>
+        <v>1.895793750336116</v>
       </c>
       <c r="U7">
-        <v>0.9999859710154795</v>
+        <v>1.641509006904897</v>
       </c>
       <c r="V7">
-        <v>1.000311946185046</v>
+        <v>1.877766633727405</v>
       </c>
       <c r="W7">
-        <v>1.000012287840736</v>
+        <v>1.257247481988823</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00538328191181</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="D8">
-        <v>0.9960516600821394</v>
+        <v>0.9549311586467293</v>
       </c>
       <c r="E8">
-        <v>0.9972474492257466</v>
+        <v>1.893381439646856</v>
       </c>
       <c r="F8">
-        <v>0.9972474492257466</v>
+        <v>1.893381439646856</v>
       </c>
       <c r="G8">
-        <v>0.9972868400342876</v>
+        <v>0.2631854167387073</v>
       </c>
       <c r="H8">
-        <v>0.996881230324109</v>
+        <v>1.096876578893782</v>
       </c>
       <c r="I8">
-        <v>1.006874865916368</v>
+        <v>1.043346781155085</v>
       </c>
       <c r="J8">
-        <v>1.001201463465872</v>
+        <v>0.8810825262641679</v>
       </c>
       <c r="K8">
-        <v>0.9985490948797783</v>
+        <v>1.08844351561893</v>
       </c>
       <c r="L8">
-        <v>1.005383281912048</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="M8">
-        <v>1.005383281912048</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="N8">
-        <v>1.005383281912048</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="O8">
-        <v>0.9960516600821394</v>
+        <v>0.9549311586467293</v>
       </c>
       <c r="P8">
-        <v>0.996649554653943</v>
+        <v>1.424156299146793</v>
       </c>
       <c r="Q8">
-        <v>0.9986265617740059</v>
+        <v>0.9180068424554486</v>
       </c>
       <c r="R8">
-        <v>0.9995607970733115</v>
+        <v>1.893097027634281</v>
       </c>
       <c r="S8">
-        <v>0.9981668575912529</v>
+        <v>1.243131708185918</v>
       </c>
       <c r="T8">
-        <v>0.9995607970733115</v>
+        <v>1.893097027634282</v>
       </c>
       <c r="U8">
-        <v>0.9999709636714517</v>
+        <v>1.640093402291753</v>
       </c>
       <c r="V8">
-        <v>1.001053427319571</v>
+        <v>1.878270418755254</v>
       </c>
       <c r="W8">
-        <v>0.9999344857300436</v>
+        <v>1.25652823769669</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.01582444676864</v>
+        <v>2.822796206187372</v>
       </c>
       <c r="D9">
-        <v>0.9956501439574794</v>
+        <v>0.9522270054468862</v>
       </c>
       <c r="E9">
-        <v>0.9943317692482712</v>
+        <v>1.88407319389496</v>
       </c>
       <c r="F9">
-        <v>0.9943317692482712</v>
+        <v>1.88407319389496</v>
       </c>
       <c r="G9">
-        <v>0.996130849421604</v>
+        <v>0.2625081485784139</v>
       </c>
       <c r="H9">
-        <v>0.9964287247633207</v>
+        <v>1.091944743422251</v>
       </c>
       <c r="I9">
-        <v>1.006777883364087</v>
+        <v>1.055350532466876</v>
       </c>
       <c r="J9">
-        <v>1.000770367700854</v>
+        <v>0.8846323076887241</v>
       </c>
       <c r="K9">
-        <v>0.9977912187553518</v>
+        <v>1.086625413985627</v>
       </c>
       <c r="L9">
-        <v>1.015824446768859</v>
+        <v>2.822796206187372</v>
       </c>
       <c r="M9">
-        <v>1.015824446768859</v>
+        <v>2.822796206187372</v>
       </c>
       <c r="N9">
-        <v>1.015824446768859</v>
+        <v>2.822796206187372</v>
       </c>
       <c r="O9">
-        <v>0.9956501439574794</v>
+        <v>0.9522270054468862</v>
       </c>
       <c r="P9">
-        <v>0.9949909566028753</v>
+        <v>1.418150099670923</v>
       </c>
       <c r="Q9">
-        <v>0.9982102558291667</v>
+        <v>0.9184296565678052</v>
       </c>
       <c r="R9">
-        <v>1.00193545332487</v>
+        <v>1.88636546850974</v>
       </c>
       <c r="S9">
-        <v>0.9969174269688681</v>
+        <v>1.240310835676857</v>
       </c>
       <c r="T9">
-        <v>1.00193545332487</v>
+        <v>1.88636546850974</v>
       </c>
       <c r="U9">
-        <v>1.001644181918866</v>
+        <v>1.635932178304486</v>
       </c>
       <c r="V9">
-        <v>1.004480234888864</v>
+        <v>1.873304983881063</v>
       </c>
       <c r="W9">
-        <v>1.000463175497478</v>
+        <v>1.255019693958889</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.026786979881778</v>
+        <v>2.881022011076651</v>
       </c>
       <c r="D10">
-        <v>0.9907405274273371</v>
+        <v>0.9398689974705184</v>
       </c>
       <c r="E10">
-        <v>0.9877273549470849</v>
+        <v>1.853313129622169</v>
       </c>
       <c r="F10">
-        <v>0.9877273549470849</v>
+        <v>1.853313129622169</v>
       </c>
       <c r="G10">
-        <v>0.9926292182796956</v>
+        <v>0.2589020405651374</v>
       </c>
       <c r="H10">
-        <v>0.9918045619822703</v>
+        <v>1.073297703756015</v>
       </c>
       <c r="I10">
-        <v>1.017004510398938</v>
+        <v>1.075096986198931</v>
       </c>
       <c r="J10">
-        <v>1.003266968302748</v>
+        <v>0.8825431448569188</v>
       </c>
       <c r="K10">
-        <v>0.9948834509980317</v>
+        <v>1.078102220183573</v>
       </c>
       <c r="L10">
-        <v>1.026786979881962</v>
+        <v>2.881022011076651</v>
       </c>
       <c r="M10">
-        <v>1.026786979881962</v>
+        <v>2.881022011076651</v>
       </c>
       <c r="N10">
-        <v>1.026786979881962</v>
+        <v>2.881022011076651</v>
       </c>
       <c r="O10">
-        <v>0.9907405274273371</v>
+        <v>0.9398689974705184</v>
       </c>
       <c r="P10">
-        <v>0.989233941187211</v>
+        <v>1.396591063546344</v>
       </c>
       <c r="Q10">
-        <v>0.9970037478650425</v>
+        <v>0.9112060711637187</v>
       </c>
       <c r="R10">
-        <v>1.001751620752128</v>
+        <v>1.891401379389779</v>
       </c>
       <c r="S10">
-        <v>0.9939116168923899</v>
+        <v>1.225241757316536</v>
       </c>
       <c r="T10">
-        <v>1.001751620752128</v>
+        <v>1.891401379389779</v>
       </c>
       <c r="U10">
-        <v>1.002130457639783</v>
+        <v>1.639186820756564</v>
       </c>
       <c r="V10">
-        <v>1.007061762088219</v>
+        <v>1.887553858820582</v>
       </c>
       <c r="W10">
-        <v>1.000605446527258</v>
+        <v>1.25526827921624</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.058716161309101</v>
+        <v>1.032265120245493</v>
       </c>
       <c r="D11">
-        <v>0.9820465774453639</v>
+        <v>1.002874015056621</v>
       </c>
       <c r="E11">
-        <v>0.9850031520053769</v>
+        <v>0.9653143578316736</v>
       </c>
       <c r="F11">
-        <v>0.9850031520053769</v>
+        <v>0.9653143578316736</v>
       </c>
       <c r="G11">
-        <v>0.9874895910197368</v>
+        <v>1.009075893870181</v>
       </c>
       <c r="H11">
-        <v>0.986274253959848</v>
+        <v>0.9848607429437403</v>
       </c>
       <c r="I11">
-        <v>1.025915044174778</v>
+        <v>0.9994187638357754</v>
       </c>
       <c r="J11">
-        <v>1.003983989190003</v>
+        <v>1.004572322330252</v>
       </c>
       <c r="K11">
-        <v>0.9925609250314572</v>
+        <v>0.9937835523511591</v>
       </c>
       <c r="L11">
-        <v>1.05871616130922</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="M11">
-        <v>1.05871616130922</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="N11">
-        <v>1.05871616130922</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="O11">
-        <v>0.9820465774453639</v>
+        <v>1.002874015056621</v>
       </c>
       <c r="P11">
-        <v>0.9835248647253705</v>
+        <v>0.9840941864441474</v>
       </c>
       <c r="Q11">
-        <v>0.9930152833176836</v>
+        <v>1.003723168693436</v>
       </c>
       <c r="R11">
-        <v>1.00858863025332</v>
+        <v>1.000151164378005</v>
       </c>
       <c r="S11">
-        <v>0.9903445728802481</v>
+        <v>0.9909202317395155</v>
       </c>
       <c r="T11">
-        <v>1.00858863025332</v>
+        <v>1.000151164378005</v>
       </c>
       <c r="U11">
-        <v>1.007437469987491</v>
+        <v>1.001256453866067</v>
       </c>
       <c r="V11">
-        <v>1.017693208251837</v>
+        <v>1.007458187141997</v>
       </c>
       <c r="W11">
-        <v>1.002748711766973</v>
+        <v>0.9990205960581403</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4809138115336772</v>
+        <v>1.014714009768415</v>
       </c>
       <c r="D12">
-        <v>0.5984666815983429</v>
+        <v>1.003959774282766</v>
       </c>
       <c r="E12">
-        <v>0.5841414576466507</v>
+        <v>0.9825218723702667</v>
       </c>
       <c r="F12">
-        <v>0.5841414576466507</v>
+        <v>0.9825218723702667</v>
       </c>
       <c r="G12">
-        <v>1.205144409617158</v>
+        <v>1.003151616040081</v>
       </c>
       <c r="H12">
-        <v>1.205967270557466</v>
+        <v>0.9913251337677551</v>
       </c>
       <c r="I12">
-        <v>1.209575990516276</v>
+        <v>1.001727261591812</v>
       </c>
       <c r="J12">
-        <v>1.37400519149959</v>
+        <v>1.002934708743647</v>
       </c>
       <c r="K12">
-        <v>0.7272815092446488</v>
+        <v>0.9976407621956359</v>
       </c>
       <c r="L12">
-        <v>0.4809138115336772</v>
+        <v>1.014714009768648</v>
       </c>
       <c r="M12">
-        <v>0.4809138115336772</v>
+        <v>1.014714009768648</v>
       </c>
       <c r="N12">
-        <v>0.4809138115336772</v>
+        <v>1.014714009768648</v>
       </c>
       <c r="O12">
-        <v>0.5984666815983429</v>
+        <v>1.003959774282766</v>
       </c>
       <c r="P12">
-        <v>0.5913040696224968</v>
+        <v>0.9932408233265161</v>
       </c>
       <c r="Q12">
-        <v>0.9862359365489664</v>
+        <v>1.003447241513206</v>
       </c>
       <c r="R12">
-        <v>0.5545073169262237</v>
+        <v>1.00039855214056</v>
       </c>
       <c r="S12">
-        <v>0.8522044435815278</v>
+        <v>0.9964721184655597</v>
       </c>
       <c r="T12">
-        <v>0.5545073169262236</v>
+        <v>1.00039855214056</v>
       </c>
       <c r="U12">
-        <v>0.759381785569565</v>
+        <v>1.001032591291332</v>
       </c>
       <c r="V12">
-        <v>0.7036881907623875</v>
+        <v>1.003768874986795</v>
       </c>
       <c r="W12">
-        <v>0.9231870402767264</v>
+        <v>0.9997468923450765</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.366192144313924</v>
+        <v>1.044410943344246</v>
       </c>
       <c r="D13">
-        <v>1.3826465664652</v>
+        <v>1.016938562124752</v>
       </c>
       <c r="E13">
-        <v>1.824815341097077</v>
+        <v>0.9173779888165914</v>
       </c>
       <c r="F13">
-        <v>1.824815341097077</v>
+        <v>0.9173779888165914</v>
       </c>
       <c r="G13">
-        <v>0.899365445964453</v>
+        <v>1.013999980977353</v>
       </c>
       <c r="H13">
-        <v>1.02187966757812</v>
+        <v>0.9663510879684725</v>
       </c>
       <c r="I13">
-        <v>0.6130247411759462</v>
+        <v>1.008160800520769</v>
       </c>
       <c r="J13">
-        <v>0.603034311261649</v>
+        <v>1.009476775004692</v>
       </c>
       <c r="K13">
-        <v>1.190636802103889</v>
+        <v>0.9937648667206243</v>
       </c>
       <c r="L13">
-        <v>1.366192144313924</v>
+        <v>1.044410943344674</v>
       </c>
       <c r="M13">
-        <v>1.366192144313924</v>
+        <v>1.044410943344674</v>
       </c>
       <c r="N13">
-        <v>1.366192144313924</v>
+        <v>1.044410943344674</v>
       </c>
       <c r="O13">
-        <v>1.3826465664652</v>
+        <v>1.016938562124752</v>
       </c>
       <c r="P13">
-        <v>1.603730953781139</v>
+        <v>0.9671582754706718</v>
       </c>
       <c r="Q13">
-        <v>0.9928404388634245</v>
+        <v>1.013207668564722</v>
       </c>
       <c r="R13">
-        <v>1.5245513506254</v>
+        <v>0.9929091647620059</v>
       </c>
       <c r="S13">
-        <v>1.270165406274642</v>
+        <v>0.9812644419820117</v>
       </c>
       <c r="T13">
-        <v>1.524551350625401</v>
+        <v>0.9929091647620059</v>
       </c>
       <c r="U13">
-        <v>1.294172090784463</v>
+        <v>0.9970510673226773</v>
       </c>
       <c r="V13">
-        <v>1.308576101490355</v>
+        <v>1.006523042527077</v>
       </c>
       <c r="W13">
-        <v>1.112699377495032</v>
+        <v>0.9963101256847409</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1930077295682087</v>
+        <v>1.047384578567507</v>
       </c>
       <c r="D14">
-        <v>2.722406018208528</v>
+        <v>1.016857109584605</v>
       </c>
       <c r="E14">
-        <v>0.005598015411229197</v>
+        <v>0.8905870764025415</v>
       </c>
       <c r="F14">
-        <v>0.005598015411229197</v>
+        <v>0.8905870764025415</v>
       </c>
       <c r="G14">
-        <v>1.333328230713323</v>
+        <v>1.036892404008736</v>
       </c>
       <c r="H14">
-        <v>0.09815470382483896</v>
+        <v>0.95252929956609</v>
       </c>
       <c r="I14">
-        <v>0.4410749642003395</v>
+        <v>1.007296207768325</v>
       </c>
       <c r="J14">
-        <v>0.2904348523509871</v>
+        <v>1.021687158513589</v>
       </c>
       <c r="K14">
-        <v>2.033625116496749</v>
+        <v>0.9795395209057375</v>
       </c>
       <c r="L14">
-        <v>0.1930077295682087</v>
+        <v>1.047384578567507</v>
       </c>
       <c r="M14">
-        <v>0.1930077295682087</v>
+        <v>1.047384578567507</v>
       </c>
       <c r="N14">
-        <v>0.1930077295682087</v>
+        <v>1.047384578567507</v>
       </c>
       <c r="O14">
-        <v>2.722406018208528</v>
+        <v>1.016857109584605</v>
       </c>
       <c r="P14">
-        <v>1.364002016809879</v>
+        <v>0.9537220929935735</v>
       </c>
       <c r="Q14">
-        <v>1.506420435279758</v>
+        <v>1.019272134049097</v>
       </c>
       <c r="R14">
-        <v>0.973670587729322</v>
+        <v>0.9849429215182181</v>
       </c>
       <c r="S14">
-        <v>1.006146295323582</v>
+        <v>0.9763771148335788</v>
       </c>
       <c r="T14">
-        <v>0.973670587729322</v>
+        <v>0.9849429215182181</v>
       </c>
       <c r="U14">
-        <v>0.8028616538847383</v>
+        <v>0.9941289807670608</v>
       </c>
       <c r="V14">
-        <v>0.6808908690214324</v>
+        <v>1.00478010032715</v>
       </c>
       <c r="W14">
-        <v>0.8897037038467754</v>
+        <v>0.9940966694146414</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.505699079239369</v>
+        <v>1.018746111881175</v>
       </c>
       <c r="D15">
-        <v>0.1345123975683582</v>
+        <v>1.004865051590764</v>
       </c>
       <c r="E15">
-        <v>0.3228136666779424</v>
+        <v>0.9598196448348922</v>
       </c>
       <c r="F15">
-        <v>0.3228136666779424</v>
+        <v>0.9598196448348922</v>
       </c>
       <c r="G15">
-        <v>0.8886739995503065</v>
+        <v>1.014476748024823</v>
       </c>
       <c r="H15">
-        <v>0.9784247722625458</v>
+        <v>0.9828217629959164</v>
       </c>
       <c r="I15">
-        <v>1.617977040267833</v>
+        <v>1.001827111733222</v>
       </c>
       <c r="J15">
-        <v>1.452368782561316</v>
+        <v>1.007557045103773</v>
       </c>
       <c r="K15">
-        <v>0.6050376427084995</v>
+        <v>0.9918172387108619</v>
       </c>
       <c r="L15">
-        <v>1.505699079239369</v>
+        <v>1.018746111881399</v>
       </c>
       <c r="M15">
-        <v>1.505699079239369</v>
+        <v>1.018746111881399</v>
       </c>
       <c r="N15">
-        <v>1.505699079239369</v>
+        <v>1.018746111881399</v>
       </c>
       <c r="O15">
-        <v>0.1345123975683582</v>
+        <v>1.004865051590764</v>
       </c>
       <c r="P15">
-        <v>0.2286630321231503</v>
+        <v>0.982342348212828</v>
       </c>
       <c r="Q15">
-        <v>0.7934405900648369</v>
+        <v>1.006211048347268</v>
       </c>
       <c r="R15">
-        <v>0.6543417144952232</v>
+        <v>0.9944769361023518</v>
       </c>
       <c r="S15">
-        <v>0.6365649489358721</v>
+        <v>0.9907472471764764</v>
       </c>
       <c r="T15">
-        <v>0.6543417144952232</v>
+        <v>0.9944769361023518</v>
       </c>
       <c r="U15">
-        <v>0.8538484815117462</v>
+        <v>0.9977469633527072</v>
       </c>
       <c r="V15">
-        <v>0.9842186010572707</v>
+        <v>1.001946793058446</v>
       </c>
       <c r="W15">
-        <v>0.9381884226045212</v>
+        <v>0.9977413393594563</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.296075045584311</v>
+        <v>1.034071616102713</v>
       </c>
       <c r="D16">
-        <v>1.101083315861682</v>
+        <v>1.011321764240543</v>
       </c>
       <c r="E16">
-        <v>0.2602348492857315</v>
+        <v>0.9232086702044641</v>
       </c>
       <c r="F16">
-        <v>0.2602348492857315</v>
+        <v>0.9232086702044641</v>
       </c>
       <c r="G16">
-        <v>1.225749967475247</v>
+        <v>1.024760156894633</v>
       </c>
       <c r="H16">
-        <v>0.683348498282075</v>
+        <v>0.968816358790466</v>
       </c>
       <c r="I16">
-        <v>1.045793807859287</v>
+        <v>1.004603112162105</v>
       </c>
       <c r="J16">
-        <v>1.112659030280382</v>
+        <v>1.01344218566163</v>
       </c>
       <c r="K16">
-        <v>0.888835586244119</v>
+        <v>0.9853561562040171</v>
       </c>
       <c r="L16">
-        <v>1.296075045584349</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="M16">
-        <v>1.296075045584349</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="N16">
-        <v>1.296075045584349</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="O16">
-        <v>1.101083315861682</v>
+        <v>1.011321764240543</v>
       </c>
       <c r="P16">
-        <v>0.6806590825737066</v>
+        <v>0.9672652172225036</v>
       </c>
       <c r="Q16">
-        <v>1.106871173071032</v>
+        <v>1.012381974951087</v>
       </c>
       <c r="R16">
-        <v>0.8857977369105874</v>
+        <v>0.9895340168493484</v>
       </c>
       <c r="S16">
-        <v>0.8246590651425985</v>
+        <v>0.9826575400355457</v>
       </c>
       <c r="T16">
-        <v>0.8857977369105874</v>
+        <v>0.9895340168493484</v>
       </c>
       <c r="U16">
-        <v>0.9425130602530361</v>
+        <v>0.9955110590524188</v>
       </c>
       <c r="V16">
-        <v>1.013225457319299</v>
+        <v>1.003223170462543</v>
       </c>
       <c r="W16">
-        <v>0.9517225126091091</v>
+        <v>0.995697502532612</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.225614663310377</v>
+        <v>1.070193683251086</v>
       </c>
       <c r="D17">
-        <v>1.037093406630736</v>
+        <v>1.025074806596975</v>
       </c>
       <c r="E17">
-        <v>0.4556967534735961</v>
+        <v>0.8556740070958752</v>
       </c>
       <c r="F17">
-        <v>0.4556967534735961</v>
+        <v>0.8556740070958752</v>
       </c>
       <c r="G17">
-        <v>1.122663701238661</v>
+        <v>1.050533535190795</v>
       </c>
       <c r="H17">
-        <v>0.7582529194294733</v>
+        <v>0.937230568887283</v>
       </c>
       <c r="I17">
-        <v>1.098344499340992</v>
+        <v>1.002432575891031</v>
       </c>
       <c r="J17">
-        <v>1.094587635408748</v>
+        <v>1.029813359109043</v>
       </c>
       <c r="K17">
-        <v>0.919226481250798</v>
+        <v>0.9655832265204631</v>
       </c>
       <c r="L17">
-        <v>1.225614663310454</v>
+        <v>1.070193683251086</v>
       </c>
       <c r="M17">
-        <v>1.225614663310454</v>
+        <v>1.070193683251086</v>
       </c>
       <c r="N17">
-        <v>1.225614663310454</v>
+        <v>1.070193683251086</v>
       </c>
       <c r="O17">
-        <v>1.037093406630736</v>
+        <v>1.025074806596975</v>
       </c>
       <c r="P17">
-        <v>0.7463950800521658</v>
+        <v>0.9403744068464253</v>
       </c>
       <c r="Q17">
-        <v>1.065840521019742</v>
+        <v>1.027444082853009</v>
       </c>
       <c r="R17">
-        <v>0.9061349411382619</v>
+        <v>0.9836474989813123</v>
       </c>
       <c r="S17">
-        <v>0.8624592651710264</v>
+        <v>0.9701873909339644</v>
       </c>
       <c r="T17">
-        <v>0.9061349411382619</v>
+        <v>0.9836474989813123</v>
       </c>
       <c r="U17">
-        <v>0.9532481147058833</v>
+        <v>0.995188964013245</v>
       </c>
       <c r="V17">
-        <v>1.007721424426797</v>
+        <v>1.010189907860813</v>
       </c>
       <c r="W17">
-        <v>0.9639350075104322</v>
+        <v>0.9920669703178189</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.091494427061383</v>
+        <v>1.22006653398229</v>
       </c>
       <c r="D18">
-        <v>0.9102373172986911</v>
+        <v>0.9701233493060543</v>
       </c>
       <c r="E18">
-        <v>0.845885803256448</v>
+        <v>0.867712971651421</v>
       </c>
       <c r="F18">
-        <v>0.845885803256448</v>
+        <v>0.867712971651421</v>
       </c>
       <c r="G18">
-        <v>0.9177429565563975</v>
+        <v>1.095967865505716</v>
       </c>
       <c r="H18">
-        <v>0.9078670810889005</v>
+        <v>0.8933642957676792</v>
       </c>
       <c r="I18">
-        <v>1.19932903775909</v>
+        <v>0.964773113464783</v>
       </c>
       <c r="J18">
-        <v>1.056836087555258</v>
+        <v>1.076524289546068</v>
       </c>
       <c r="K18">
-        <v>0.9802266908425847</v>
+        <v>0.9601116673485846</v>
       </c>
       <c r="L18">
-        <v>1.091494427061383</v>
+        <v>1.22006653398229</v>
       </c>
       <c r="M18">
-        <v>1.091494427061383</v>
+        <v>1.22006653398229</v>
       </c>
       <c r="N18">
-        <v>1.091494427061383</v>
+        <v>1.22006653398229</v>
       </c>
       <c r="O18">
-        <v>0.9102373172986911</v>
+        <v>0.9701233493060543</v>
       </c>
       <c r="P18">
-        <v>0.8780615602775695</v>
+        <v>0.9189181604787376</v>
       </c>
       <c r="Q18">
-        <v>0.9835367024269747</v>
+        <v>1.023323819426061</v>
       </c>
       <c r="R18">
-        <v>0.9492058492055072</v>
+        <v>1.019300951646589</v>
       </c>
       <c r="S18">
-        <v>0.9376530693701325</v>
+        <v>0.9714535368345146</v>
       </c>
       <c r="T18">
-        <v>0.9492058492055072</v>
+        <v>1.019300951646589</v>
       </c>
       <c r="U18">
-        <v>0.9761134087929449</v>
+        <v>1.033606786121458</v>
       </c>
       <c r="V18">
-        <v>0.9991896124466326</v>
+        <v>1.070898735693625</v>
       </c>
       <c r="W18">
-        <v>0.9887024251773441</v>
+        <v>1.006080510821575</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.05614716383817</v>
+        <v>1.001615846863072</v>
       </c>
       <c r="D19">
-        <v>0.8460463169234751</v>
+        <v>0.9990990815609528</v>
       </c>
       <c r="E19">
-        <v>0.7555083689554883</v>
+        <v>0.9984499540376738</v>
       </c>
       <c r="F19">
-        <v>0.7555083689554883</v>
+        <v>0.9984499540376738</v>
       </c>
       <c r="G19">
-        <v>0.9154069590270364</v>
+        <v>0.9989272378859053</v>
       </c>
       <c r="H19">
-        <v>0.9031310844821503</v>
+        <v>0.9991578221829701</v>
       </c>
       <c r="I19">
-        <v>1.295275645279172</v>
+        <v>1.002731779003442</v>
       </c>
       <c r="J19">
-        <v>1.119390113976808</v>
+        <v>1.00077900159998</v>
       </c>
       <c r="K19">
-        <v>0.9328000701164331</v>
+        <v>0.999337579591656</v>
       </c>
       <c r="L19">
-        <v>1.05614716383817</v>
+        <v>1.001615846863311</v>
       </c>
       <c r="M19">
-        <v>1.05614716383817</v>
+        <v>1.001615846863311</v>
       </c>
       <c r="N19">
-        <v>1.05614716383817</v>
+        <v>1.001615846863311</v>
       </c>
       <c r="O19">
-        <v>0.8460463169234751</v>
+        <v>0.9990990815609528</v>
       </c>
       <c r="P19">
-        <v>0.8007773429394818</v>
+        <v>0.9987745177993133</v>
       </c>
       <c r="Q19">
-        <v>0.9827182154501415</v>
+        <v>0.9999390415804666</v>
       </c>
       <c r="R19">
-        <v>0.885900616572378</v>
+        <v>0.9997216274873123</v>
       </c>
       <c r="S19">
-        <v>0.9069815999519237</v>
+        <v>0.9994426790662022</v>
       </c>
       <c r="T19">
-        <v>0.8859006165723778</v>
+        <v>0.9997216274873124</v>
       </c>
       <c r="U19">
-        <v>0.9442729909234853</v>
+        <v>0.9999859710154795</v>
       </c>
       <c r="V19">
-        <v>0.9666478255064224</v>
+        <v>1.000311946185046</v>
       </c>
       <c r="W19">
-        <v>0.9779632153248417</v>
+        <v>1.000012287840736</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9934823036576022</v>
+        <v>1.00538328191181</v>
       </c>
       <c r="D20">
-        <v>1.006394440907117</v>
+        <v>0.9960516600821394</v>
       </c>
       <c r="E20">
-        <v>1.0005991251474</v>
+        <v>0.9972474492257466</v>
       </c>
       <c r="F20">
-        <v>1.0005991251474</v>
+        <v>0.9972474492257466</v>
       </c>
       <c r="G20">
-        <v>1.000655877119927</v>
+        <v>0.9972868400342876</v>
       </c>
       <c r="H20">
-        <v>0.9986431041745529</v>
+        <v>0.996881230324109</v>
       </c>
       <c r="I20">
-        <v>0.9996197815072374</v>
+        <v>1.006874865916368</v>
       </c>
       <c r="J20">
-        <v>0.9978682796863151</v>
+        <v>1.001201463465872</v>
       </c>
       <c r="K20">
-        <v>1.002176291671768</v>
+        <v>0.9985490948797783</v>
       </c>
       <c r="L20">
-        <v>0.9934823036578463</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="M20">
-        <v>0.9934823036578463</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="N20">
-        <v>0.9934823036578463</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="O20">
-        <v>1.006394440907117</v>
+        <v>0.9960516600821394</v>
       </c>
       <c r="P20">
-        <v>1.003496783027259</v>
+        <v>0.996649554653943</v>
       </c>
       <c r="Q20">
-        <v>1.002131360296716</v>
+        <v>0.9986265617740059</v>
       </c>
       <c r="R20">
-        <v>1.000158623237455</v>
+        <v>0.9995607970733115</v>
       </c>
       <c r="S20">
-        <v>1.001620615246944</v>
+        <v>0.9981668575912529</v>
       </c>
       <c r="T20">
-        <v>1.000158623237454</v>
+        <v>0.9995607970733115</v>
       </c>
       <c r="U20">
-        <v>0.9995860373496696</v>
+        <v>0.9999709636714517</v>
       </c>
       <c r="V20">
-        <v>0.9983652906113049</v>
+        <v>1.001053427319571</v>
       </c>
       <c r="W20">
-        <v>0.9999299004840205</v>
+        <v>0.9999344857300436</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.009714514163193</v>
+        <v>1.01582444676864</v>
       </c>
       <c r="D21">
-        <v>0.9899339252157845</v>
+        <v>0.9956501439574794</v>
       </c>
       <c r="E21">
-        <v>0.997003418442341</v>
+        <v>0.9943317692482712</v>
       </c>
       <c r="F21">
-        <v>0.997003418442341</v>
+        <v>0.9943317692482712</v>
       </c>
       <c r="G21">
-        <v>0.9956099120639595</v>
+        <v>0.996130849421604</v>
       </c>
       <c r="H21">
-        <v>1.002407582298643</v>
+        <v>0.9964287247633207</v>
       </c>
       <c r="I21">
-        <v>1.005825577460021</v>
+        <v>1.006777883364087</v>
       </c>
       <c r="J21">
-        <v>1.006221858824056</v>
+        <v>1.000770367700854</v>
       </c>
       <c r="K21">
-        <v>0.9969214622182465</v>
+        <v>0.9977912187553518</v>
       </c>
       <c r="L21">
-        <v>1.00971451416345</v>
+        <v>1.015824446768859</v>
       </c>
       <c r="M21">
-        <v>1.00971451416345</v>
+        <v>1.015824446768859</v>
       </c>
       <c r="N21">
-        <v>1.00971451416345</v>
+        <v>1.015824446768859</v>
       </c>
       <c r="O21">
-        <v>0.9899339252157845</v>
+        <v>0.9956501439574794</v>
       </c>
       <c r="P21">
-        <v>0.9934686718290627</v>
+        <v>0.9949909566028753</v>
       </c>
       <c r="Q21">
-        <v>0.99807789201992</v>
+        <v>0.9982102558291667</v>
       </c>
       <c r="R21">
-        <v>0.9988839526071919</v>
+        <v>1.00193545332487</v>
       </c>
       <c r="S21">
-        <v>0.997719734160727</v>
+        <v>0.9969174269688681</v>
       </c>
       <c r="T21">
-        <v>0.998883952607192</v>
+        <v>1.00193545332487</v>
       </c>
       <c r="U21">
-        <v>1.000718429161408</v>
+        <v>1.001644181918866</v>
       </c>
       <c r="V21">
-        <v>1.002517646161816</v>
+        <v>1.004480234888864</v>
       </c>
       <c r="W21">
-        <v>1.000454781335813</v>
+        <v>1.000463175497478</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.995536480327599</v>
+        <v>1.026786979881778</v>
       </c>
       <c r="D22">
-        <v>1.028107711932186</v>
+        <v>0.9907405274273371</v>
       </c>
       <c r="E22">
-        <v>0.9894477719441588</v>
+        <v>0.9877273549470849</v>
       </c>
       <c r="F22">
-        <v>0.9894477719441588</v>
+        <v>0.9877273549470849</v>
       </c>
       <c r="G22">
-        <v>1.005217482787198</v>
+        <v>0.9926292182796956</v>
       </c>
       <c r="H22">
-        <v>0.9924240744928906</v>
+        <v>0.9918045619822703</v>
       </c>
       <c r="I22">
-        <v>0.998819047398769</v>
+        <v>1.017004510398938</v>
       </c>
       <c r="J22">
-        <v>1.001223911480721</v>
+        <v>1.003266968302748</v>
       </c>
       <c r="K22">
-        <v>1.004592813153403</v>
+        <v>0.9948834509980317</v>
       </c>
       <c r="L22">
-        <v>0.9955364803276171</v>
+        <v>1.026786979881962</v>
       </c>
       <c r="M22">
-        <v>0.9955364803276171</v>
+        <v>1.026786979881962</v>
       </c>
       <c r="N22">
-        <v>0.9955364803276171</v>
+        <v>1.026786979881962</v>
       </c>
       <c r="O22">
-        <v>1.028107711932186</v>
+        <v>0.9907405274273371</v>
       </c>
       <c r="P22">
-        <v>1.008777741938172</v>
+        <v>0.989233941187211</v>
       </c>
       <c r="Q22">
-        <v>1.014665811706453</v>
+        <v>0.9970037478650425</v>
       </c>
       <c r="R22">
-        <v>1.004363988067987</v>
+        <v>1.001751620752128</v>
       </c>
       <c r="S22">
-        <v>1.006259798452355</v>
+        <v>0.9939116168923899</v>
       </c>
       <c r="T22">
-        <v>1.004363988067987</v>
+        <v>1.001751620752128</v>
       </c>
       <c r="U22">
-        <v>1.00357896892117</v>
+        <v>1.002130457639783</v>
       </c>
       <c r="V22">
-        <v>1.00197047120246</v>
+        <v>1.007061762088219</v>
       </c>
       <c r="W22">
-        <v>1.001921161689618</v>
+        <v>1.000605446527258</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.058716161309101</v>
+      </c>
+      <c r="D23">
+        <v>0.9820465774453639</v>
+      </c>
+      <c r="E23">
+        <v>0.9850031520053769</v>
+      </c>
+      <c r="F23">
+        <v>0.9850031520053769</v>
+      </c>
+      <c r="G23">
+        <v>0.9874895910197368</v>
+      </c>
+      <c r="H23">
+        <v>0.986274253959848</v>
+      </c>
+      <c r="I23">
+        <v>1.025915044174778</v>
+      </c>
+      <c r="J23">
+        <v>1.003983989190003</v>
+      </c>
+      <c r="K23">
+        <v>0.9925609250314572</v>
+      </c>
+      <c r="L23">
+        <v>1.05871616130922</v>
+      </c>
+      <c r="M23">
+        <v>1.05871616130922</v>
+      </c>
+      <c r="N23">
+        <v>1.05871616130922</v>
+      </c>
+      <c r="O23">
+        <v>0.9820465774453639</v>
+      </c>
+      <c r="P23">
+        <v>0.9835248647253705</v>
+      </c>
+      <c r="Q23">
+        <v>0.9930152833176836</v>
+      </c>
+      <c r="R23">
+        <v>1.00858863025332</v>
+      </c>
+      <c r="S23">
+        <v>0.9903445728802481</v>
+      </c>
+      <c r="T23">
+        <v>1.00858863025332</v>
+      </c>
+      <c r="U23">
+        <v>1.007437469987491</v>
+      </c>
+      <c r="V23">
+        <v>1.017693208251837</v>
+      </c>
+      <c r="W23">
+        <v>1.002748711766973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="D24">
+        <v>0.5984666815983429</v>
+      </c>
+      <c r="E24">
+        <v>0.5841414576466507</v>
+      </c>
+      <c r="F24">
+        <v>0.5841414576466507</v>
+      </c>
+      <c r="G24">
+        <v>1.205144409617158</v>
+      </c>
+      <c r="H24">
+        <v>1.205967270557466</v>
+      </c>
+      <c r="I24">
+        <v>1.209575990516276</v>
+      </c>
+      <c r="J24">
+        <v>1.37400519149959</v>
+      </c>
+      <c r="K24">
+        <v>0.7272815092446488</v>
+      </c>
+      <c r="L24">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="M24">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="N24">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="O24">
+        <v>0.5984666815983429</v>
+      </c>
+      <c r="P24">
+        <v>0.5913040696224968</v>
+      </c>
+      <c r="Q24">
+        <v>0.9862359365489664</v>
+      </c>
+      <c r="R24">
+        <v>0.5545073169262237</v>
+      </c>
+      <c r="S24">
+        <v>0.8522044435815278</v>
+      </c>
+      <c r="T24">
+        <v>0.5545073169262236</v>
+      </c>
+      <c r="U24">
+        <v>0.759381785569565</v>
+      </c>
+      <c r="V24">
+        <v>0.7036881907623875</v>
+      </c>
+      <c r="W24">
+        <v>0.9231870402767264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="D25">
+        <v>1.3826465664652</v>
+      </c>
+      <c r="E25">
+        <v>1.824815341097077</v>
+      </c>
+      <c r="F25">
+        <v>1.824815341097077</v>
+      </c>
+      <c r="G25">
+        <v>0.899365445964453</v>
+      </c>
+      <c r="H25">
+        <v>1.02187966757812</v>
+      </c>
+      <c r="I25">
+        <v>0.6130247411759462</v>
+      </c>
+      <c r="J25">
+        <v>0.603034311261649</v>
+      </c>
+      <c r="K25">
+        <v>1.190636802103889</v>
+      </c>
+      <c r="L25">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="M25">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="N25">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="O25">
+        <v>1.3826465664652</v>
+      </c>
+      <c r="P25">
+        <v>1.603730953781139</v>
+      </c>
+      <c r="Q25">
+        <v>0.9928404388634245</v>
+      </c>
+      <c r="R25">
+        <v>1.5245513506254</v>
+      </c>
+      <c r="S25">
+        <v>1.270165406274642</v>
+      </c>
+      <c r="T25">
+        <v>1.524551350625401</v>
+      </c>
+      <c r="U25">
+        <v>1.294172090784463</v>
+      </c>
+      <c r="V25">
+        <v>1.308576101490355</v>
+      </c>
+      <c r="W25">
+        <v>1.112699377495032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="D26">
+        <v>2.722406018208528</v>
+      </c>
+      <c r="E26">
+        <v>0.005598015411229197</v>
+      </c>
+      <c r="F26">
+        <v>0.005598015411229197</v>
+      </c>
+      <c r="G26">
+        <v>1.333328230713323</v>
+      </c>
+      <c r="H26">
+        <v>0.09815470382483896</v>
+      </c>
+      <c r="I26">
+        <v>0.4410749642003395</v>
+      </c>
+      <c r="J26">
+        <v>0.2904348523509871</v>
+      </c>
+      <c r="K26">
+        <v>2.033625116496749</v>
+      </c>
+      <c r="L26">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="M26">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="N26">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="O26">
+        <v>2.722406018208528</v>
+      </c>
+      <c r="P26">
+        <v>1.364002016809879</v>
+      </c>
+      <c r="Q26">
+        <v>1.506420435279758</v>
+      </c>
+      <c r="R26">
+        <v>0.973670587729322</v>
+      </c>
+      <c r="S26">
+        <v>1.006146295323582</v>
+      </c>
+      <c r="T26">
+        <v>0.973670587729322</v>
+      </c>
+      <c r="U26">
+        <v>0.8028616538847383</v>
+      </c>
+      <c r="V26">
+        <v>0.6808908690214324</v>
+      </c>
+      <c r="W26">
+        <v>0.8897037038467754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="D27">
+        <v>0.1345123975683582</v>
+      </c>
+      <c r="E27">
+        <v>0.3228136666779424</v>
+      </c>
+      <c r="F27">
+        <v>0.3228136666779424</v>
+      </c>
+      <c r="G27">
+        <v>0.8886739995503065</v>
+      </c>
+      <c r="H27">
+        <v>0.9784247722625458</v>
+      </c>
+      <c r="I27">
+        <v>1.617977040267833</v>
+      </c>
+      <c r="J27">
+        <v>1.452368782561316</v>
+      </c>
+      <c r="K27">
+        <v>0.6050376427084995</v>
+      </c>
+      <c r="L27">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="M27">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="N27">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="O27">
+        <v>0.1345123975683582</v>
+      </c>
+      <c r="P27">
+        <v>0.2286630321231503</v>
+      </c>
+      <c r="Q27">
+        <v>0.7934405900648369</v>
+      </c>
+      <c r="R27">
+        <v>0.6543417144952232</v>
+      </c>
+      <c r="S27">
+        <v>0.6365649489358721</v>
+      </c>
+      <c r="T27">
+        <v>0.6543417144952232</v>
+      </c>
+      <c r="U27">
+        <v>0.8538484815117462</v>
+      </c>
+      <c r="V27">
+        <v>0.9842186010572707</v>
+      </c>
+      <c r="W27">
+        <v>0.9381884226045212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.296075045584311</v>
+      </c>
+      <c r="D28">
+        <v>1.101083315861682</v>
+      </c>
+      <c r="E28">
+        <v>0.2602348492857315</v>
+      </c>
+      <c r="F28">
+        <v>0.2602348492857315</v>
+      </c>
+      <c r="G28">
+        <v>1.225749967475247</v>
+      </c>
+      <c r="H28">
+        <v>0.683348498282075</v>
+      </c>
+      <c r="I28">
+        <v>1.045793807859287</v>
+      </c>
+      <c r="J28">
+        <v>1.112659030280382</v>
+      </c>
+      <c r="K28">
+        <v>0.888835586244119</v>
+      </c>
+      <c r="L28">
+        <v>1.296075045584349</v>
+      </c>
+      <c r="M28">
+        <v>1.296075045584349</v>
+      </c>
+      <c r="N28">
+        <v>1.296075045584349</v>
+      </c>
+      <c r="O28">
+        <v>1.101083315861682</v>
+      </c>
+      <c r="P28">
+        <v>0.6806590825737066</v>
+      </c>
+      <c r="Q28">
+        <v>1.106871173071032</v>
+      </c>
+      <c r="R28">
+        <v>0.8857977369105874</v>
+      </c>
+      <c r="S28">
+        <v>0.8246590651425985</v>
+      </c>
+      <c r="T28">
+        <v>0.8857977369105874</v>
+      </c>
+      <c r="U28">
+        <v>0.9425130602530361</v>
+      </c>
+      <c r="V28">
+        <v>1.013225457319299</v>
+      </c>
+      <c r="W28">
+        <v>0.9517225126091091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.225614663310377</v>
+      </c>
+      <c r="D29">
+        <v>1.037093406630736</v>
+      </c>
+      <c r="E29">
+        <v>0.4556967534735961</v>
+      </c>
+      <c r="F29">
+        <v>0.4556967534735961</v>
+      </c>
+      <c r="G29">
+        <v>1.122663701238661</v>
+      </c>
+      <c r="H29">
+        <v>0.7582529194294733</v>
+      </c>
+      <c r="I29">
+        <v>1.098344499340992</v>
+      </c>
+      <c r="J29">
+        <v>1.094587635408748</v>
+      </c>
+      <c r="K29">
+        <v>0.919226481250798</v>
+      </c>
+      <c r="L29">
+        <v>1.225614663310454</v>
+      </c>
+      <c r="M29">
+        <v>1.225614663310454</v>
+      </c>
+      <c r="N29">
+        <v>1.225614663310454</v>
+      </c>
+      <c r="O29">
+        <v>1.037093406630736</v>
+      </c>
+      <c r="P29">
+        <v>0.7463950800521658</v>
+      </c>
+      <c r="Q29">
+        <v>1.065840521019742</v>
+      </c>
+      <c r="R29">
+        <v>0.9061349411382619</v>
+      </c>
+      <c r="S29">
+        <v>0.8624592651710264</v>
+      </c>
+      <c r="T29">
+        <v>0.9061349411382619</v>
+      </c>
+      <c r="U29">
+        <v>0.9532481147058833</v>
+      </c>
+      <c r="V29">
+        <v>1.007721424426797</v>
+      </c>
+      <c r="W29">
+        <v>0.9639350075104322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.091494427061383</v>
+      </c>
+      <c r="D30">
+        <v>0.9102373172986911</v>
+      </c>
+      <c r="E30">
+        <v>0.845885803256448</v>
+      </c>
+      <c r="F30">
+        <v>0.845885803256448</v>
+      </c>
+      <c r="G30">
+        <v>0.9177429565563975</v>
+      </c>
+      <c r="H30">
+        <v>0.9078670810889005</v>
+      </c>
+      <c r="I30">
+        <v>1.19932903775909</v>
+      </c>
+      <c r="J30">
+        <v>1.056836087555258</v>
+      </c>
+      <c r="K30">
+        <v>0.9802266908425847</v>
+      </c>
+      <c r="L30">
+        <v>1.091494427061383</v>
+      </c>
+      <c r="M30">
+        <v>1.091494427061383</v>
+      </c>
+      <c r="N30">
+        <v>1.091494427061383</v>
+      </c>
+      <c r="O30">
+        <v>0.9102373172986911</v>
+      </c>
+      <c r="P30">
+        <v>0.8780615602775695</v>
+      </c>
+      <c r="Q30">
+        <v>0.9835367024269747</v>
+      </c>
+      <c r="R30">
+        <v>0.9492058492055072</v>
+      </c>
+      <c r="S30">
+        <v>0.9376530693701325</v>
+      </c>
+      <c r="T30">
+        <v>0.9492058492055072</v>
+      </c>
+      <c r="U30">
+        <v>0.9761134087929449</v>
+      </c>
+      <c r="V30">
+        <v>0.9991896124466326</v>
+      </c>
+      <c r="W30">
+        <v>0.9887024251773441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="D31">
+        <v>0.8460463169234751</v>
+      </c>
+      <c r="E31">
+        <v>0.7555083689554883</v>
+      </c>
+      <c r="F31">
+        <v>0.7555083689554883</v>
+      </c>
+      <c r="G31">
+        <v>0.9154069590270364</v>
+      </c>
+      <c r="H31">
+        <v>0.9031310844821503</v>
+      </c>
+      <c r="I31">
+        <v>1.295275645279172</v>
+      </c>
+      <c r="J31">
+        <v>1.119390113976808</v>
+      </c>
+      <c r="K31">
+        <v>0.9328000701164331</v>
+      </c>
+      <c r="L31">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="M31">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="N31">
+        <v>1.05614716383817</v>
+      </c>
+      <c r="O31">
+        <v>0.8460463169234751</v>
+      </c>
+      <c r="P31">
+        <v>0.8007773429394818</v>
+      </c>
+      <c r="Q31">
+        <v>0.9827182154501415</v>
+      </c>
+      <c r="R31">
+        <v>0.885900616572378</v>
+      </c>
+      <c r="S31">
+        <v>0.9069815999519237</v>
+      </c>
+      <c r="T31">
+        <v>0.8859006165723778</v>
+      </c>
+      <c r="U31">
+        <v>0.9442729909234853</v>
+      </c>
+      <c r="V31">
+        <v>0.9666478255064224</v>
+      </c>
+      <c r="W31">
+        <v>0.9779632153248417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.506821752469589</v>
+      </c>
+      <c r="D32">
+        <v>1.148494104910959</v>
+      </c>
+      <c r="E32">
+        <v>0.06334499132054795</v>
+      </c>
+      <c r="F32">
+        <v>0.06334499132054795</v>
+      </c>
+      <c r="G32">
+        <v>1.309944543910684</v>
+      </c>
+      <c r="H32">
+        <v>0.5996014491084931</v>
+      </c>
+      <c r="I32">
+        <v>0.9924120086849314</v>
+      </c>
+      <c r="J32">
+        <v>1.115849392958904</v>
+      </c>
+      <c r="K32">
+        <v>0.8516913418904108</v>
+      </c>
+      <c r="L32">
+        <v>1.506821752469589</v>
+      </c>
+      <c r="M32">
+        <v>1.506821752469589</v>
+      </c>
+      <c r="N32">
+        <v>1.506821752469589</v>
+      </c>
+      <c r="O32">
+        <v>1.148494104910959</v>
+      </c>
+      <c r="P32">
+        <v>0.6059195481157535</v>
+      </c>
+      <c r="Q32">
+        <v>1.132171748934931</v>
+      </c>
+      <c r="R32">
+        <v>0.9062202829003653</v>
+      </c>
+      <c r="S32">
+        <v>0.7758961630634703</v>
+      </c>
+      <c r="T32">
+        <v>0.9062202829003653</v>
+      </c>
+      <c r="U32">
+        <v>0.958627560415</v>
+      </c>
+      <c r="V32">
+        <v>1.068266398825918</v>
+      </c>
+      <c r="W32">
+        <v>0.948519948156815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.3033398336736842</v>
+      </c>
+      <c r="D33">
+        <v>2.774020111842105</v>
+      </c>
+      <c r="E33">
+        <v>0.001367301762105263</v>
+      </c>
+      <c r="F33">
+        <v>0.001367301762105263</v>
+      </c>
+      <c r="G33">
+        <v>0.5705742894736843</v>
+      </c>
+      <c r="H33">
+        <v>0.1021013239473684</v>
+      </c>
+      <c r="I33">
+        <v>1.397825143</v>
+      </c>
+      <c r="J33">
+        <v>0.6969658337894739</v>
+      </c>
+      <c r="K33">
+        <v>1.796198174736842</v>
+      </c>
+      <c r="L33">
+        <v>0.3033398336736842</v>
+      </c>
+      <c r="M33">
+        <v>0.3033398336736842</v>
+      </c>
+      <c r="N33">
+        <v>0.3033398336736842</v>
+      </c>
+      <c r="O33">
+        <v>2.774020111842105</v>
+      </c>
+      <c r="P33">
+        <v>1.387693706802105</v>
+      </c>
+      <c r="Q33">
+        <v>1.73549297281579</v>
+      </c>
+      <c r="R33">
+        <v>1.026242415759298</v>
+      </c>
+      <c r="S33">
+        <v>1.157451082464561</v>
+      </c>
+      <c r="T33">
+        <v>1.026242415759298</v>
+      </c>
+      <c r="U33">
+        <v>0.9439232702668421</v>
+      </c>
+      <c r="V33">
+        <v>0.8158065829482105</v>
+      </c>
+      <c r="W33">
+        <v>0.9552990015281578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="D34">
+        <v>0.8652447347105263</v>
+      </c>
+      <c r="E34">
+        <v>1.715041252566842</v>
+      </c>
+      <c r="F34">
+        <v>1.715041252566842</v>
+      </c>
+      <c r="G34">
+        <v>0.2491400360926316</v>
+      </c>
+      <c r="H34">
+        <v>1.018595220346316</v>
+      </c>
+      <c r="I34">
+        <v>1.225597809473684</v>
+      </c>
+      <c r="J34">
+        <v>0.9390651488947371</v>
+      </c>
+      <c r="K34">
+        <v>1.022506102631579</v>
+      </c>
+      <c r="L34">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="M34">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="N34">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="O34">
+        <v>0.8652447347105263</v>
+      </c>
+      <c r="P34">
+        <v>1.290142993638684</v>
+      </c>
+      <c r="Q34">
+        <v>0.9021549418026318</v>
+      </c>
+      <c r="R34">
+        <v>1.825309191808246</v>
+      </c>
+      <c r="S34">
+        <v>1.173117045390702</v>
+      </c>
+      <c r="T34">
+        <v>1.825309191808245</v>
+      </c>
+      <c r="U34">
+        <v>1.603748181079868</v>
+      </c>
+      <c r="V34">
+        <v>1.862126862493368</v>
+      </c>
+      <c r="W34">
+        <v>1.24135398660796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9498192669914461</v>
+      </c>
+      <c r="D35">
+        <v>0.4691052799451085</v>
+      </c>
+      <c r="E35">
+        <v>0.4282775458844323</v>
+      </c>
+      <c r="F35">
+        <v>0.4282775458844323</v>
+      </c>
+      <c r="G35">
+        <v>0.5256123476722804</v>
+      </c>
+      <c r="H35">
+        <v>0.593445788644796</v>
+      </c>
+      <c r="I35">
+        <v>2.513650373065369</v>
+      </c>
+      <c r="J35">
+        <v>1.482794158629765</v>
+      </c>
+      <c r="K35">
+        <v>0.6958765786509712</v>
+      </c>
+      <c r="L35">
+        <v>0.9498192669914461</v>
+      </c>
+      <c r="M35">
+        <v>0.9498192669914461</v>
+      </c>
+      <c r="N35">
+        <v>0.9498192669914461</v>
+      </c>
+      <c r="O35">
+        <v>0.4691052799451085</v>
+      </c>
+      <c r="P35">
+        <v>0.4486914129147704</v>
+      </c>
+      <c r="Q35">
+        <v>0.9759497192874368</v>
+      </c>
+      <c r="R35">
+        <v>0.615734030940329</v>
+      </c>
+      <c r="S35">
+        <v>0.7933923281531019</v>
+      </c>
+      <c r="T35">
+        <v>0.615734030940329</v>
+      </c>
+      <c r="U35">
+        <v>0.832499062862688</v>
+      </c>
+      <c r="V35">
+        <v>0.8559631036884398</v>
+      </c>
+      <c r="W35">
+        <v>0.9573226674355211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9934823036576022</v>
+      </c>
+      <c r="D36">
+        <v>1.006394440907117</v>
+      </c>
+      <c r="E36">
+        <v>1.0005991251474</v>
+      </c>
+      <c r="F36">
+        <v>1.0005991251474</v>
+      </c>
+      <c r="G36">
+        <v>1.000655877119927</v>
+      </c>
+      <c r="H36">
+        <v>0.9986431041745529</v>
+      </c>
+      <c r="I36">
+        <v>0.9996197815072374</v>
+      </c>
+      <c r="J36">
+        <v>0.9978682796863151</v>
+      </c>
+      <c r="K36">
+        <v>1.002176291671768</v>
+      </c>
+      <c r="L36">
+        <v>0.9934823036578463</v>
+      </c>
+      <c r="M36">
+        <v>0.9934823036578463</v>
+      </c>
+      <c r="N36">
+        <v>0.9934823036578463</v>
+      </c>
+      <c r="O36">
+        <v>1.006394440907117</v>
+      </c>
+      <c r="P36">
+        <v>1.003496783027259</v>
+      </c>
+      <c r="Q36">
+        <v>1.002131360296716</v>
+      </c>
+      <c r="R36">
+        <v>1.000158623237455</v>
+      </c>
+      <c r="S36">
+        <v>1.001620615246944</v>
+      </c>
+      <c r="T36">
+        <v>1.000158623237454</v>
+      </c>
+      <c r="U36">
+        <v>0.9995860373496696</v>
+      </c>
+      <c r="V36">
+        <v>0.9983652906113049</v>
+      </c>
+      <c r="W36">
+        <v>0.9999299004840205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.009714514163193</v>
+      </c>
+      <c r="D37">
+        <v>0.9899339252157845</v>
+      </c>
+      <c r="E37">
+        <v>0.997003418442341</v>
+      </c>
+      <c r="F37">
+        <v>0.997003418442341</v>
+      </c>
+      <c r="G37">
+        <v>0.9956099120639595</v>
+      </c>
+      <c r="H37">
+        <v>1.002407582298643</v>
+      </c>
+      <c r="I37">
+        <v>1.005825577460021</v>
+      </c>
+      <c r="J37">
+        <v>1.006221858824056</v>
+      </c>
+      <c r="K37">
+        <v>0.9969214622182465</v>
+      </c>
+      <c r="L37">
+        <v>1.00971451416345</v>
+      </c>
+      <c r="M37">
+        <v>1.00971451416345</v>
+      </c>
+      <c r="N37">
+        <v>1.00971451416345</v>
+      </c>
+      <c r="O37">
+        <v>0.9899339252157845</v>
+      </c>
+      <c r="P37">
+        <v>0.9934686718290627</v>
+      </c>
+      <c r="Q37">
+        <v>0.99807789201992</v>
+      </c>
+      <c r="R37">
+        <v>0.9988839526071919</v>
+      </c>
+      <c r="S37">
+        <v>0.997719734160727</v>
+      </c>
+      <c r="T37">
+        <v>0.998883952607192</v>
+      </c>
+      <c r="U37">
+        <v>1.000718429161408</v>
+      </c>
+      <c r="V37">
+        <v>1.002517646161816</v>
+      </c>
+      <c r="W37">
+        <v>1.000454781335813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.995536480327599</v>
+      </c>
+      <c r="D38">
+        <v>1.028107711932186</v>
+      </c>
+      <c r="E38">
+        <v>0.9894477719441588</v>
+      </c>
+      <c r="F38">
+        <v>0.9894477719441588</v>
+      </c>
+      <c r="G38">
+        <v>1.005217482787198</v>
+      </c>
+      <c r="H38">
+        <v>0.9924240744928906</v>
+      </c>
+      <c r="I38">
+        <v>0.998819047398769</v>
+      </c>
+      <c r="J38">
+        <v>1.001223911480721</v>
+      </c>
+      <c r="K38">
+        <v>1.004592813153403</v>
+      </c>
+      <c r="L38">
+        <v>0.9955364803276171</v>
+      </c>
+      <c r="M38">
+        <v>0.9955364803276171</v>
+      </c>
+      <c r="N38">
+        <v>0.9955364803276171</v>
+      </c>
+      <c r="O38">
+        <v>1.028107711932186</v>
+      </c>
+      <c r="P38">
+        <v>1.008777741938172</v>
+      </c>
+      <c r="Q38">
+        <v>1.014665811706453</v>
+      </c>
+      <c r="R38">
+        <v>1.004363988067987</v>
+      </c>
+      <c r="S38">
+        <v>1.006259798452355</v>
+      </c>
+      <c r="T38">
+        <v>1.004363988067987</v>
+      </c>
+      <c r="U38">
+        <v>1.00357896892117</v>
+      </c>
+      <c r="V38">
+        <v>1.00197047120246</v>
+      </c>
+      <c r="W38">
+        <v>1.001921161689618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9288150437933617</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.084011416408662</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9706932743520349</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9706932743520349</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.041652281704076</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9662338011006723</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.977408672949814</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9601114011895673</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.019268265569473</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9288150437933617</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9288150437933617</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9288150437933617</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.084011416408662</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.027352345380349</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.022061408799115</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9945065781846864</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.004938697316755</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9945065781846864</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9859077839359066</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9744892359073976</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9935242696334576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8856867438975744</v>
+      </c>
+      <c r="D40">
+        <v>1.468066925044187</v>
+      </c>
+      <c r="E40">
+        <v>0.8092583338964644</v>
+      </c>
+      <c r="F40">
+        <v>0.8092583338964644</v>
+      </c>
+      <c r="G40">
+        <v>1.003977603595202</v>
+      </c>
+      <c r="H40">
+        <v>0.8416158708717054</v>
+      </c>
+      <c r="I40">
+        <v>0.9291914407880396</v>
+      </c>
+      <c r="J40">
+        <v>0.8913425766382645</v>
+      </c>
+      <c r="K40">
+        <v>1.173276968101789</v>
+      </c>
+      <c r="L40">
+        <v>0.8856867438977535</v>
+      </c>
+      <c r="M40">
+        <v>0.8856867438977535</v>
+      </c>
+      <c r="N40">
+        <v>0.8856867438977535</v>
+      </c>
+      <c r="O40">
+        <v>1.468066925044187</v>
+      </c>
+      <c r="P40">
+        <v>1.138662629470326</v>
+      </c>
+      <c r="Q40">
+        <v>1.179704750841226</v>
+      </c>
+      <c r="R40">
+        <v>1.054337334279468</v>
+      </c>
+      <c r="S40">
+        <v>1.056222611859639</v>
+      </c>
+      <c r="T40">
+        <v>1.054337334279468</v>
+      </c>
+      <c r="U40">
+        <v>1.013588644869167</v>
+      </c>
+      <c r="V40">
+        <v>0.9880082646748847</v>
+      </c>
+      <c r="W40">
+        <v>1.000302057854176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9266014404715981</v>
+      </c>
+      <c r="D41">
+        <v>0.8808590386084564</v>
+      </c>
+      <c r="E41">
+        <v>1.330239133164344</v>
+      </c>
+      <c r="F41">
+        <v>1.330239133164344</v>
+      </c>
+      <c r="G41">
+        <v>1.001784633343955</v>
+      </c>
+      <c r="H41">
+        <v>1.196135485434066</v>
+      </c>
+      <c r="I41">
+        <v>0.9553202000355554</v>
+      </c>
+      <c r="J41">
+        <v>1.059367490245564</v>
+      </c>
+      <c r="K41">
+        <v>0.8872880074895546</v>
+      </c>
+      <c r="L41">
+        <v>0.926601440471941</v>
+      </c>
+      <c r="M41">
+        <v>0.926601440471941</v>
+      </c>
+      <c r="N41">
+        <v>0.926601440471941</v>
+      </c>
+      <c r="O41">
+        <v>0.8808590386084564</v>
+      </c>
+      <c r="P41">
+        <v>1.1055490858864</v>
+      </c>
+      <c r="Q41">
+        <v>0.9701132644270103</v>
+      </c>
+      <c r="R41">
+        <v>1.045899870748247</v>
+      </c>
+      <c r="S41">
+        <v>1.090155220672788</v>
+      </c>
+      <c r="T41">
+        <v>1.045899870748247</v>
+      </c>
+      <c r="U41">
+        <v>1.049266775622576</v>
+      </c>
+      <c r="V41">
+        <v>1.024733708592449</v>
+      </c>
+      <c r="W41">
+        <v>1.029699428599179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.5941500969431499</v>
+      </c>
+      <c r="D42">
+        <v>1.560765795871604</v>
+      </c>
+      <c r="E42">
+        <v>0.7181822354269558</v>
+      </c>
+      <c r="F42">
+        <v>0.7181822354269558</v>
+      </c>
+      <c r="G42">
+        <v>1.093419954130862</v>
+      </c>
+      <c r="H42">
+        <v>0.8570525073333745</v>
+      </c>
+      <c r="I42">
+        <v>0.9264276326004436</v>
+      </c>
+      <c r="J42">
+        <v>0.9742720948782714</v>
+      </c>
+      <c r="K42">
+        <v>1.139403421840396</v>
+      </c>
+      <c r="L42">
+        <v>0.5941500969436596</v>
+      </c>
+      <c r="M42">
+        <v>0.5941500969436596</v>
+      </c>
+      <c r="N42">
+        <v>0.5941500969436596</v>
+      </c>
+      <c r="O42">
+        <v>1.560765795871604</v>
+      </c>
+      <c r="P42">
+        <v>1.13947401564928</v>
+      </c>
+      <c r="Q42">
+        <v>1.267518945374938</v>
+      </c>
+      <c r="R42">
+        <v>0.9576993760807399</v>
+      </c>
+      <c r="S42">
+        <v>1.08440670872561</v>
+      </c>
+      <c r="T42">
+        <v>0.9576993760807399</v>
+      </c>
+      <c r="U42">
+        <v>0.9618425557801228</v>
+      </c>
+      <c r="V42">
+        <v>0.8883040640128301</v>
+      </c>
+      <c r="W42">
+        <v>0.982959217378196</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.018746111881399</v>
+        <v>1.00538328191181</v>
       </c>
       <c r="D3">
-        <v>0.9598196448348922</v>
+        <v>0.9960516600821394</v>
       </c>
       <c r="E3">
-        <v>1.004865051590764</v>
+        <v>0.9972474492257466</v>
       </c>
       <c r="F3">
-        <v>1.018746111881399</v>
+        <v>0.9972474492257466</v>
       </c>
       <c r="G3">
-        <v>1.007557045103773</v>
+        <v>0.9972868400342876</v>
       </c>
       <c r="H3">
-        <v>0.9918172387108619</v>
+        <v>0.996881230324109</v>
       </c>
       <c r="I3">
-        <v>1.018746111881175</v>
+        <v>1.006874865916368</v>
       </c>
       <c r="J3">
-        <v>0.9598196448348922</v>
+        <v>1.001201463465872</v>
       </c>
       <c r="K3">
-        <v>1.014476748024823</v>
+        <v>0.9985490948797783</v>
       </c>
       <c r="L3">
-        <v>1.001827111733222</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="M3">
-        <v>0.9828217629959165</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="N3">
-        <v>1.018746111881399</v>
+        <v>1.005383281912048</v>
       </c>
       <c r="O3">
-        <v>1.004865051590764</v>
+        <v>0.9960516600821394</v>
       </c>
       <c r="P3">
-        <v>0.982342348212828</v>
+        <v>0.996649554653943</v>
       </c>
       <c r="Q3">
-        <v>1.006211048347268</v>
+        <v>0.9986265617740059</v>
       </c>
       <c r="R3">
-        <v>0.9944769361023518</v>
+        <v>0.9995607970733115</v>
       </c>
       <c r="S3">
-        <v>0.9907472471764764</v>
+        <v>0.9981668575912529</v>
       </c>
       <c r="T3">
-        <v>0.9944769361023518</v>
+        <v>0.9995607970733115</v>
       </c>
       <c r="U3">
-        <v>0.9977469633527072</v>
+        <v>0.9999709636714517</v>
       </c>
       <c r="V3">
-        <v>1.001946793058446</v>
+        <v>1.001053427319571</v>
       </c>
       <c r="W3">
-        <v>0.9977413393594564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999344857300436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.034071616103038</v>
+        <v>0.8856867438975744</v>
       </c>
       <c r="D4">
-        <v>0.9232086702044641</v>
+        <v>1.468066925044187</v>
       </c>
       <c r="E4">
-        <v>1.011321764240543</v>
+        <v>0.8092583338964644</v>
       </c>
       <c r="F4">
-        <v>1.034071616103038</v>
+        <v>0.8092583338964644</v>
       </c>
       <c r="G4">
-        <v>1.01344218566163</v>
+        <v>1.003977603595202</v>
       </c>
       <c r="H4">
-        <v>0.9853561562040171</v>
+        <v>0.8416158708717054</v>
       </c>
       <c r="I4">
-        <v>1.034071616102713</v>
+        <v>0.9291914407880396</v>
       </c>
       <c r="J4">
-        <v>0.9232086702044641</v>
+        <v>0.8913425766382645</v>
       </c>
       <c r="K4">
-        <v>1.024760156894633</v>
+        <v>1.173276968101789</v>
       </c>
       <c r="L4">
-        <v>1.004603112162105</v>
+        <v>0.8856867438977535</v>
       </c>
       <c r="M4">
-        <v>0.968816358790466</v>
+        <v>0.8856867438977535</v>
       </c>
       <c r="N4">
-        <v>1.034071616103038</v>
+        <v>0.8856867438977535</v>
       </c>
       <c r="O4">
-        <v>1.011321764240543</v>
+        <v>1.468066925044187</v>
       </c>
       <c r="P4">
-        <v>0.9672652172225036</v>
+        <v>1.138662629470326</v>
       </c>
       <c r="Q4">
-        <v>1.012381974951087</v>
+        <v>1.179704750841226</v>
       </c>
       <c r="R4">
-        <v>0.9895340168493484</v>
+        <v>1.054337334279468</v>
       </c>
       <c r="S4">
-        <v>0.9826575400355457</v>
+        <v>1.056222611859639</v>
       </c>
       <c r="T4">
-        <v>0.9895340168493484</v>
+        <v>1.054337334279468</v>
       </c>
       <c r="U4">
-        <v>0.9955110590524188</v>
+        <v>1.013588644869167</v>
       </c>
       <c r="V4">
-        <v>1.003223170462543</v>
+        <v>0.9880082646748847</v>
       </c>
       <c r="W4">
-        <v>0.995697502532612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.000302057854176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.070193683251086</v>
+        <v>1.100403106194986</v>
       </c>
       <c r="D5">
-        <v>0.8556740070958752</v>
+        <v>0.8939500269336467</v>
       </c>
       <c r="E5">
-        <v>1.025074806596975</v>
+        <v>0.821402092617747</v>
       </c>
       <c r="F5">
-        <v>1.070193683251086</v>
+        <v>0.821402092617747</v>
       </c>
       <c r="G5">
-        <v>1.029813359109043</v>
+        <v>0.8987080709672016</v>
       </c>
       <c r="H5">
-        <v>0.965583226520463</v>
+        <v>0.8884439437599853</v>
       </c>
       <c r="I5">
-        <v>1.070193683251086</v>
+        <v>1.262267633234868</v>
       </c>
       <c r="J5">
-        <v>0.8556740070958752</v>
+        <v>1.079727445010804</v>
       </c>
       <c r="K5">
-        <v>1.050533535190795</v>
+        <v>0.9646945818659948</v>
       </c>
       <c r="L5">
-        <v>1.002432575891031</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="M5">
-        <v>0.937230568887283</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="N5">
-        <v>1.070193683251086</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="O5">
-        <v>1.025074806596975</v>
+        <v>0.8939500269336467</v>
       </c>
       <c r="P5">
-        <v>0.9403744068464253</v>
+        <v>0.8576760597756968</v>
       </c>
       <c r="Q5">
-        <v>1.027444082853009</v>
+        <v>0.9868387359722255</v>
       </c>
       <c r="R5">
-        <v>0.9836474989813123</v>
+        <v>0.9385850752488412</v>
       </c>
       <c r="S5">
-        <v>0.9701873909339644</v>
+        <v>0.9316931881873994</v>
       </c>
       <c r="T5">
-        <v>0.9836474989813123</v>
+        <v>0.9385850752488412</v>
       </c>
       <c r="U5">
-        <v>0.995188964013245</v>
+        <v>0.9738706676893319</v>
       </c>
       <c r="V5">
-        <v>1.010189907860813</v>
+        <v>0.9991771553904915</v>
       </c>
       <c r="W5">
-        <v>0.9920669703178189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9886996125731722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.22006653398229</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="D6">
-        <v>0.867712971651421</v>
+        <v>0.4691052799451085</v>
       </c>
       <c r="E6">
-        <v>0.9701233493060542</v>
+        <v>0.4282775458844323</v>
       </c>
       <c r="F6">
-        <v>1.22006653398229</v>
+        <v>0.4282775458844323</v>
       </c>
       <c r="G6">
-        <v>1.076524289546069</v>
+        <v>0.5256123476722804</v>
       </c>
       <c r="H6">
-        <v>0.9601116673485844</v>
+        <v>0.593445788644796</v>
       </c>
       <c r="I6">
-        <v>1.22006653398229</v>
+        <v>2.513650373065369</v>
       </c>
       <c r="J6">
-        <v>0.867712971651421</v>
+        <v>1.482794158629765</v>
       </c>
       <c r="K6">
-        <v>1.095967865505716</v>
+        <v>0.6958765786509712</v>
       </c>
       <c r="L6">
-        <v>0.964773113464783</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="M6">
-        <v>0.8933642957676791</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="N6">
-        <v>1.22006653398229</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="O6">
-        <v>0.9701233493060542</v>
+        <v>0.4691052799451085</v>
       </c>
       <c r="P6">
-        <v>0.9189181604787375</v>
+        <v>0.4486914129147704</v>
       </c>
       <c r="Q6">
-        <v>1.023323819426061</v>
+        <v>0.9759497192874368</v>
       </c>
       <c r="R6">
-        <v>1.019300951646589</v>
+        <v>0.615734030940329</v>
       </c>
       <c r="S6">
-        <v>0.9714535368345146</v>
+        <v>0.7933923281531019</v>
       </c>
       <c r="T6">
-        <v>1.019300951646589</v>
+        <v>0.615734030940329</v>
       </c>
       <c r="U6">
-        <v>1.033606786121459</v>
+        <v>0.832499062862688</v>
       </c>
       <c r="V6">
-        <v>1.070898735693625</v>
+        <v>0.8559631036884398</v>
       </c>
       <c r="W6">
-        <v>1.006080510821575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9573226674355211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00161584686331</v>
+        <v>1.032265120245493</v>
       </c>
       <c r="D7">
-        <v>0.9984499540376741</v>
+        <v>1.002874015056621</v>
       </c>
       <c r="E7">
-        <v>0.9990990815609531</v>
+        <v>0.9653143578316736</v>
       </c>
       <c r="F7">
-        <v>1.00161584686331</v>
+        <v>0.9653143578316736</v>
       </c>
       <c r="G7">
-        <v>1.000779001599981</v>
+        <v>1.009075893870181</v>
       </c>
       <c r="H7">
-        <v>0.9993375795916556</v>
+        <v>0.9848607429437403</v>
       </c>
       <c r="I7">
-        <v>1.001615846863071</v>
+        <v>0.9994187638357754</v>
       </c>
       <c r="J7">
-        <v>0.9984499540376741</v>
+        <v>1.004572322330252</v>
       </c>
       <c r="K7">
-        <v>0.998927237885906</v>
+        <v>0.9937835523511591</v>
       </c>
       <c r="L7">
-        <v>1.002731779003444</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="M7">
-        <v>0.9991578221829701</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="N7">
-        <v>1.00161584686331</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="O7">
-        <v>0.9990990815609531</v>
+        <v>1.002874015056621</v>
       </c>
       <c r="P7">
-        <v>0.9987745177993136</v>
+        <v>0.9840941864441474</v>
       </c>
       <c r="Q7">
-        <v>0.9999390415804669</v>
+        <v>1.003723168693436</v>
       </c>
       <c r="R7">
-        <v>0.9997216274873123</v>
+        <v>1.000151164378005</v>
       </c>
       <c r="S7">
-        <v>0.9994426790662025</v>
+        <v>0.9909202317395155</v>
       </c>
       <c r="T7">
-        <v>0.9997216274873123</v>
+        <v>1.000151164378005</v>
       </c>
       <c r="U7">
-        <v>0.9999859710154794</v>
+        <v>1.001256453866067</v>
       </c>
       <c r="V7">
-        <v>1.000311946185045</v>
+        <v>1.007458187141997</v>
       </c>
       <c r="W7">
-        <v>1.000012287840737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9990205960581403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.005383281912046</v>
+        <v>1.009714514163193</v>
       </c>
       <c r="D8">
-        <v>0.9972474492257464</v>
+        <v>0.9899339252157845</v>
       </c>
       <c r="E8">
-        <v>0.996051660082141</v>
+        <v>0.997003418442341</v>
       </c>
       <c r="F8">
-        <v>1.005383281912046</v>
+        <v>0.997003418442341</v>
       </c>
       <c r="G8">
-        <v>1.001201463465873</v>
+        <v>0.9956099120639595</v>
       </c>
       <c r="H8">
-        <v>0.9985490948797773</v>
+        <v>1.002407582298643</v>
       </c>
       <c r="I8">
-        <v>1.005383281911808</v>
+        <v>1.005825577460021</v>
       </c>
       <c r="J8">
-        <v>0.9972474492257464</v>
+        <v>1.006221858824056</v>
       </c>
       <c r="K8">
-        <v>0.9972868400342875</v>
+        <v>0.9969214622182465</v>
       </c>
       <c r="L8">
-        <v>1.006874865916368</v>
+        <v>1.00971451416345</v>
       </c>
       <c r="M8">
-        <v>0.9968812303241094</v>
+        <v>1.00971451416345</v>
       </c>
       <c r="N8">
-        <v>1.005383281912046</v>
+        <v>1.00971451416345</v>
       </c>
       <c r="O8">
-        <v>0.996051660082141</v>
+        <v>0.9899339252157845</v>
       </c>
       <c r="P8">
-        <v>0.9966495546539437</v>
+        <v>0.9934686718290627</v>
       </c>
       <c r="Q8">
-        <v>0.9986265617740069</v>
+        <v>0.99807789201992</v>
       </c>
       <c r="R8">
-        <v>0.9995607970733111</v>
+        <v>0.9988839526071919</v>
       </c>
       <c r="S8">
-        <v>0.9981668575912535</v>
+        <v>0.997719734160727</v>
       </c>
       <c r="T8">
-        <v>0.9995607970733112</v>
+        <v>0.998883952607192</v>
       </c>
       <c r="U8">
-        <v>0.9999709636714517</v>
+        <v>1.000718429161408</v>
       </c>
       <c r="V8">
-        <v>1.001053427319571</v>
+        <v>1.002517646161816</v>
       </c>
       <c r="W8">
-        <v>0.9999344857300436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000454781335813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.015824446768859</v>
+        <v>1.034071616102713</v>
       </c>
       <c r="D9">
-        <v>0.9943317692482712</v>
+        <v>1.011321764240543</v>
       </c>
       <c r="E9">
-        <v>0.9956501439574794</v>
+        <v>0.9232086702044641</v>
       </c>
       <c r="F9">
-        <v>1.015824446768859</v>
+        <v>0.9232086702044641</v>
       </c>
       <c r="G9">
-        <v>1.000770367700854</v>
+        <v>1.024760156894633</v>
       </c>
       <c r="H9">
-        <v>0.9977912187553516</v>
+        <v>0.968816358790466</v>
       </c>
       <c r="I9">
-        <v>1.01582444676864</v>
+        <v>1.004603112162105</v>
       </c>
       <c r="J9">
-        <v>0.9943317692482712</v>
+        <v>1.01344218566163</v>
       </c>
       <c r="K9">
-        <v>0.9961308494216038</v>
+        <v>0.9853561562040171</v>
       </c>
       <c r="L9">
-        <v>1.006777883364087</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="M9">
-        <v>0.9964287247633207</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="N9">
-        <v>1.015824446768859</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="O9">
-        <v>0.9956501439574794</v>
+        <v>1.011321764240543</v>
       </c>
       <c r="P9">
-        <v>0.9949909566028753</v>
+        <v>0.9672652172225036</v>
       </c>
       <c r="Q9">
-        <v>0.9982102558291667</v>
+        <v>1.012381974951087</v>
       </c>
       <c r="R9">
-        <v>1.00193545332487</v>
+        <v>0.9895340168493484</v>
       </c>
       <c r="S9">
-        <v>0.9969174269688681</v>
+        <v>0.9826575400355457</v>
       </c>
       <c r="T9">
-        <v>1.00193545332487</v>
+        <v>0.9895340168493484</v>
       </c>
       <c r="U9">
-        <v>1.001644181918866</v>
+        <v>0.9955110590524188</v>
       </c>
       <c r="V9">
-        <v>1.004480234888864</v>
+        <v>1.003223170462543</v>
       </c>
       <c r="W9">
-        <v>1.000463175497478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.995697502532612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.026786979881962</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="D10">
-        <v>0.9877273549470849</v>
+        <v>0.4344113033973787</v>
       </c>
       <c r="E10">
-        <v>0.9907405274273371</v>
+        <v>0.3800424385966872</v>
       </c>
       <c r="F10">
-        <v>1.026786979881962</v>
+        <v>0.3800424385966872</v>
       </c>
       <c r="G10">
-        <v>1.003266968302748</v>
+        <v>0.5256733266137986</v>
       </c>
       <c r="H10">
-        <v>0.9948834509980317</v>
+        <v>0.5891376223632401</v>
       </c>
       <c r="I10">
-        <v>1.026786979881778</v>
+        <v>2.559915479075807</v>
       </c>
       <c r="J10">
-        <v>0.9877273549470849</v>
+        <v>1.511622698144154</v>
       </c>
       <c r="K10">
-        <v>0.9926292182796956</v>
+        <v>0.6716064185653082</v>
       </c>
       <c r="L10">
-        <v>1.017004510398938</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="M10">
-        <v>0.9918045619822703</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="N10">
-        <v>1.026786979881962</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="O10">
-        <v>0.9907405274273371</v>
+        <v>0.4344113033973787</v>
       </c>
       <c r="P10">
-        <v>0.989233941187211</v>
+        <v>0.4072268709970329</v>
       </c>
       <c r="Q10">
-        <v>0.9970037478650424</v>
+        <v>0.9730170007707664</v>
       </c>
       <c r="R10">
-        <v>1.001751620752128</v>
+        <v>0.5853439110400531</v>
       </c>
       <c r="S10">
-        <v>0.9939116168923899</v>
+        <v>0.7753588133794066</v>
       </c>
       <c r="T10">
-        <v>1.001751620752128</v>
+        <v>0.5853439110400531</v>
       </c>
       <c r="U10">
-        <v>1.002130457639783</v>
+        <v>0.8169136078160784</v>
       </c>
       <c r="V10">
-        <v>1.007061762088219</v>
+        <v>0.8418464844780814</v>
       </c>
       <c r="W10">
-        <v>1.000605446527258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9517484097353084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05871616130922</v>
+        <v>0.8440856785227635</v>
       </c>
       <c r="D11">
-        <v>0.9850031520053771</v>
+        <v>1.350032148649656</v>
       </c>
       <c r="E11">
-        <v>0.9820465774453639</v>
+        <v>1.118867580675543</v>
       </c>
       <c r="F11">
-        <v>1.05871616130922</v>
+        <v>1.118867580675543</v>
       </c>
       <c r="G11">
-        <v>1.003983989190003</v>
+        <v>1.045775986589547</v>
       </c>
       <c r="H11">
-        <v>0.992560925031457</v>
+        <v>1.036844145332639</v>
       </c>
       <c r="I11">
-        <v>1.058716161309101</v>
+        <v>0.8531517070707448</v>
       </c>
       <c r="J11">
-        <v>0.9850031520053771</v>
+        <v>0.9341128474212939</v>
       </c>
       <c r="K11">
-        <v>0.9874895910197365</v>
+        <v>1.045849150130362</v>
       </c>
       <c r="L11">
-        <v>1.025915044174778</v>
+        <v>0.8440856785230288</v>
       </c>
       <c r="M11">
-        <v>0.9862742539598482</v>
+        <v>0.8440856785230288</v>
       </c>
       <c r="N11">
-        <v>1.05871616130922</v>
+        <v>0.8440856785230288</v>
       </c>
       <c r="O11">
-        <v>0.9820465774453639</v>
+        <v>1.350032148649656</v>
       </c>
       <c r="P11">
-        <v>0.9835248647253705</v>
+        <v>1.234449864662599</v>
       </c>
       <c r="Q11">
-        <v>0.9930152833176836</v>
+        <v>1.142072498035475</v>
       </c>
       <c r="R11">
-        <v>1.00858863025332</v>
+        <v>1.104328469282742</v>
       </c>
       <c r="S11">
-        <v>0.9903445728802481</v>
+        <v>1.134337525582164</v>
       </c>
       <c r="T11">
-        <v>1.00858863025332</v>
+        <v>1.104328469282742</v>
       </c>
       <c r="U11">
-        <v>1.007437469987491</v>
+        <v>1.06177456381738</v>
       </c>
       <c r="V11">
-        <v>1.017693208251837</v>
+        <v>1.01823678675851</v>
       </c>
       <c r="W11">
-        <v>1.002748711766973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.028589905549102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4809138115336776</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="D12">
-        <v>0.5841414576466506</v>
+        <v>0.8091582213806329</v>
       </c>
       <c r="E12">
-        <v>0.5984666815983429</v>
+        <v>0.7830892047569346</v>
       </c>
       <c r="F12">
-        <v>0.4809138115336776</v>
+        <v>0.7830892047569346</v>
       </c>
       <c r="G12">
-        <v>1.37400519149959</v>
+        <v>0.886728920762105</v>
       </c>
       <c r="H12">
-        <v>0.727281509244649</v>
+        <v>0.8979420056602101</v>
       </c>
       <c r="I12">
-        <v>0.4809138115336776</v>
+        <v>1.370872819153684</v>
       </c>
       <c r="J12">
-        <v>0.5841414576466506</v>
+        <v>1.141218766166312</v>
       </c>
       <c r="K12">
-        <v>1.205144409617158</v>
+        <v>0.9023068011494731</v>
       </c>
       <c r="L12">
-        <v>1.209575990516276</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="M12">
-        <v>1.205967270557466</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="N12">
-        <v>0.4809138115336776</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="O12">
-        <v>0.5984666815983429</v>
+        <v>0.8091582213806329</v>
       </c>
       <c r="P12">
-        <v>0.5913040696224967</v>
+        <v>0.7961237130687837</v>
       </c>
       <c r="Q12">
-        <v>0.9862359365489664</v>
+        <v>0.9751884937734727</v>
       </c>
       <c r="R12">
-        <v>0.5545073169262237</v>
+        <v>0.8901307419414485</v>
       </c>
       <c r="S12">
-        <v>0.8522044435815278</v>
+        <v>0.9111553974346266</v>
       </c>
       <c r="T12">
-        <v>0.5545073169262237</v>
+        <v>0.8901307419414485</v>
       </c>
       <c r="U12">
-        <v>0.7593817855695653</v>
+        <v>0.9529027479976645</v>
       </c>
       <c r="V12">
-        <v>0.7036881907623878</v>
+        <v>0.9779511583354872</v>
       </c>
       <c r="W12">
-        <v>0.9231870402767263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9836826923395163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.366192144313925</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="D13">
-        <v>1.824815341097076</v>
+        <v>0.9422840820936513</v>
       </c>
       <c r="E13">
-        <v>1.3826465664652</v>
+        <v>0.9562544717069484</v>
       </c>
       <c r="F13">
-        <v>1.366192144313925</v>
+        <v>0.9562544717069484</v>
       </c>
       <c r="G13">
-        <v>0.6030343112616491</v>
+        <v>1.087928462833365</v>
       </c>
       <c r="H13">
-        <v>1.190636802103888</v>
+        <v>1.071531669560735</v>
       </c>
       <c r="I13">
-        <v>1.366192144313925</v>
+        <v>0.9971924502519747</v>
       </c>
       <c r="J13">
-        <v>1.824815341097076</v>
+        <v>1.06147121508587</v>
       </c>
       <c r="K13">
-        <v>0.8993654459644532</v>
+        <v>0.9138465081896685</v>
       </c>
       <c r="L13">
-        <v>0.6130247411759463</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="M13">
-        <v>1.02187966757812</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="N13">
-        <v>1.366192144313925</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="O13">
-        <v>1.3826465664652</v>
+        <v>0.9422840820936513</v>
       </c>
       <c r="P13">
-        <v>1.603730953781138</v>
+        <v>0.9492692769002999</v>
       </c>
       <c r="Q13">
-        <v>0.9928404388634247</v>
+        <v>1.00187764858976</v>
       </c>
       <c r="R13">
-        <v>1.5245513506254</v>
+        <v>0.9244470684696968</v>
       </c>
       <c r="S13">
-        <v>1.270165406274642</v>
+        <v>0.9866699229621565</v>
       </c>
       <c r="T13">
-        <v>1.5245513506254</v>
+        <v>0.9244470684696968</v>
       </c>
       <c r="U13">
-        <v>1.294172090784463</v>
+        <v>0.95870310512374</v>
       </c>
       <c r="V13">
-        <v>1.308576101490355</v>
+        <v>0.9419230144206902</v>
       </c>
       <c r="W13">
-        <v>1.112699377495032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9881639389163379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1930077295682088</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="D14">
-        <v>0.0055980154112292</v>
+        <v>0.02686030899999997</v>
       </c>
       <c r="E14">
-        <v>2.722406018208527</v>
+        <v>0.0040034715</v>
       </c>
       <c r="F14">
-        <v>0.1930077295682088</v>
+        <v>0.0040034715</v>
       </c>
       <c r="G14">
-        <v>0.2904348523509873</v>
+        <v>0.13297696</v>
       </c>
       <c r="H14">
-        <v>2.033625116496749</v>
+        <v>0.2751524299999999</v>
       </c>
       <c r="I14">
-        <v>0.1930077295682088</v>
+        <v>3.830413399999999</v>
       </c>
       <c r="J14">
-        <v>0.0055980154112292</v>
+        <v>1.908888700000003</v>
       </c>
       <c r="K14">
-        <v>1.333328230713323</v>
+        <v>0.4089960599999998</v>
       </c>
       <c r="L14">
-        <v>0.4410749642003396</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="M14">
-        <v>0.09815470382483901</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="N14">
-        <v>0.1930077295682088</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="O14">
-        <v>2.722406018208527</v>
+        <v>0.02686030899999997</v>
       </c>
       <c r="P14">
-        <v>1.364002016809878</v>
+        <v>0.01543189024999998</v>
       </c>
       <c r="Q14">
-        <v>1.506420435279757</v>
+        <v>0.9678745045000012</v>
       </c>
       <c r="R14">
-        <v>0.9736705877293218</v>
+        <v>0.2853561834999998</v>
       </c>
       <c r="S14">
-        <v>1.006146295323581</v>
+        <v>0.6465841601666675</v>
       </c>
       <c r="T14">
-        <v>0.9736705877293218</v>
+        <v>0.2853561834999998</v>
       </c>
       <c r="U14">
-        <v>0.8028616538847382</v>
+        <v>0.6912393126250005</v>
       </c>
       <c r="V14">
-        <v>0.6808908690214323</v>
+        <v>0.7180324041000004</v>
       </c>
       <c r="W14">
-        <v>0.8897037038467754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9265620125625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.505699079239369</v>
+        <v>11.477873</v>
       </c>
       <c r="D15">
-        <v>0.3228136666779425</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E15">
-        <v>0.1345123975683582</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="F15">
-        <v>1.505699079239369</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="G15">
-        <v>1.452368782561316</v>
+        <v>0.00081841436</v>
       </c>
       <c r="H15">
-        <v>0.6050376427084995</v>
+        <v>-0.002229274</v>
       </c>
       <c r="I15">
-        <v>1.505699079239369</v>
+        <v>0.8252917</v>
       </c>
       <c r="J15">
-        <v>0.3228136666779425</v>
+        <v>0.024380834</v>
       </c>
       <c r="K15">
-        <v>0.8886739995503062</v>
+        <v>0.39572697</v>
       </c>
       <c r="L15">
-        <v>1.617977040267833</v>
+        <v>11.477873</v>
       </c>
       <c r="M15">
-        <v>0.9784247722625459</v>
+        <v>11.477873</v>
       </c>
       <c r="N15">
-        <v>1.505699079239369</v>
+        <v>11.477873</v>
       </c>
       <c r="O15">
-        <v>0.1345123975683582</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="P15">
-        <v>0.2286630321231504</v>
+        <v>0.002112787850000001</v>
       </c>
       <c r="Q15">
-        <v>0.7934405900648369</v>
+        <v>0.01593104475</v>
       </c>
       <c r="R15">
-        <v>0.6543417144952232</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="S15">
-        <v>0.6365649489358721</v>
+        <v>0.009535469900000001</v>
       </c>
       <c r="T15">
-        <v>0.6543417144952232</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="U15">
-        <v>0.8538484815117462</v>
+        <v>2.876619852425</v>
       </c>
       <c r="V15">
-        <v>0.9842186010572707</v>
+        <v>4.59687048194</v>
       </c>
       <c r="W15">
-        <v>0.9381884226045211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.5907609025075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9934823036578465</v>
+        <v>0.0074812554</v>
       </c>
       <c r="D16">
-        <v>1.000599125147401</v>
+        <v>7.6546011</v>
       </c>
       <c r="E16">
-        <v>1.006394440907117</v>
+        <v>0.00064866866</v>
       </c>
       <c r="F16">
-        <v>0.9934823036578465</v>
+        <v>0.00064866866</v>
       </c>
       <c r="G16">
-        <v>0.9978682796863158</v>
+        <v>0.72114177</v>
       </c>
       <c r="H16">
-        <v>1.002176291671768</v>
+        <v>0.0039768969</v>
       </c>
       <c r="I16">
-        <v>0.9934823036576024</v>
+        <v>0.026860481</v>
       </c>
       <c r="J16">
-        <v>1.000599125147401</v>
+        <v>0.01572381</v>
       </c>
       <c r="K16">
-        <v>1.000655877119928</v>
+        <v>2.2598751</v>
       </c>
       <c r="L16">
-        <v>0.9996197815072394</v>
+        <v>0.0074812554</v>
       </c>
       <c r="M16">
-        <v>0.9986431041745535</v>
+        <v>0.0074812554</v>
       </c>
       <c r="N16">
-        <v>0.9934823036578465</v>
+        <v>0.0074812554</v>
       </c>
       <c r="O16">
-        <v>1.006394440907117</v>
+        <v>7.6546011</v>
       </c>
       <c r="P16">
-        <v>1.003496783027259</v>
+        <v>3.82762488433</v>
       </c>
       <c r="Q16">
-        <v>1.002131360296716</v>
+        <v>3.835162455</v>
       </c>
       <c r="R16">
-        <v>1.000158623237455</v>
+        <v>2.554243674686667</v>
       </c>
       <c r="S16">
-        <v>1.001620615246944</v>
+        <v>2.556991192886667</v>
       </c>
       <c r="T16">
-        <v>1.000158623237455</v>
+        <v>2.554243674686667</v>
       </c>
       <c r="U16">
-        <v>0.99958603734967</v>
+        <v>1.919613708515</v>
       </c>
       <c r="V16">
-        <v>0.9983652906113052</v>
+        <v>1.537187217892</v>
       </c>
       <c r="W16">
-        <v>0.999929900484021</v>
+        <v>1.336288635245</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00971451416345</v>
+        <v>0.82533516</v>
       </c>
       <c r="D17">
-        <v>0.9970034184423411</v>
+        <v>0.026860566</v>
       </c>
       <c r="E17">
-        <v>0.9899339252157848</v>
+        <v>0.0040030202</v>
       </c>
       <c r="F17">
-        <v>1.00971451416345</v>
+        <v>0.0040030202</v>
       </c>
       <c r="G17">
-        <v>1.006221858824056</v>
+        <v>0.13296005</v>
       </c>
       <c r="H17">
-        <v>0.9969214622182465</v>
+        <v>0.2751087</v>
       </c>
       <c r="I17">
-        <v>1.009714514163193</v>
+        <v>3.8304141</v>
       </c>
       <c r="J17">
-        <v>0.9970034184423411</v>
+        <v>1.9087333</v>
       </c>
       <c r="K17">
-        <v>0.9956099120639599</v>
+        <v>0.40902183</v>
       </c>
       <c r="L17">
-        <v>1.005825577460021</v>
+        <v>0.82533516</v>
       </c>
       <c r="M17">
-        <v>1.002407582298643</v>
+        <v>0.82533516</v>
       </c>
       <c r="N17">
-        <v>1.00971451416345</v>
+        <v>0.82533516</v>
       </c>
       <c r="O17">
-        <v>0.9899339252157848</v>
+        <v>0.026860566</v>
       </c>
       <c r="P17">
-        <v>0.993468671829063</v>
+        <v>0.0154317931</v>
       </c>
       <c r="Q17">
-        <v>0.9980778920199203</v>
+        <v>0.9677969330000001</v>
       </c>
       <c r="R17">
-        <v>0.998883952607192</v>
+        <v>0.2853995820666667</v>
       </c>
       <c r="S17">
-        <v>0.9977197341607272</v>
+        <v>0.6465322954</v>
       </c>
       <c r="T17">
-        <v>0.9988839526071919</v>
+        <v>0.2853995820666667</v>
       </c>
       <c r="U17">
-        <v>1.000718429161408</v>
+        <v>0.6912330115500001</v>
       </c>
       <c r="V17">
-        <v>1.002517646161816</v>
+        <v>0.71805344124</v>
       </c>
       <c r="W17">
-        <v>1.000454781335813</v>
+        <v>0.926554590775</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9955364803276165</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="D18">
-        <v>0.9894477719441589</v>
+        <v>1.148494104910959</v>
       </c>
       <c r="E18">
-        <v>1.028107711932186</v>
+        <v>0.06334499132054795</v>
       </c>
       <c r="F18">
-        <v>0.9955364803276165</v>
+        <v>0.06334499132054795</v>
       </c>
       <c r="G18">
-        <v>1.001223911480721</v>
+        <v>1.309944543910684</v>
       </c>
       <c r="H18">
-        <v>1.004592813153402</v>
+        <v>0.5996014491084931</v>
       </c>
       <c r="I18">
-        <v>0.9955364803275984</v>
+        <v>0.9924120086849314</v>
       </c>
       <c r="J18">
-        <v>0.9894477719441589</v>
+        <v>1.115849392958904</v>
       </c>
       <c r="K18">
-        <v>1.005217482787198</v>
+        <v>0.8516913418904108</v>
       </c>
       <c r="L18">
-        <v>0.9988190473987688</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="M18">
-        <v>0.9924240744928911</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="N18">
-        <v>0.9955364803276165</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="O18">
-        <v>1.028107711932186</v>
+        <v>1.148494104910959</v>
       </c>
       <c r="P18">
-        <v>1.008777741938172</v>
+        <v>0.6059195481157535</v>
       </c>
       <c r="Q18">
-        <v>1.014665811706454</v>
+        <v>1.132171748934931</v>
       </c>
       <c r="R18">
-        <v>1.004363988067987</v>
+        <v>0.9062202829003653</v>
       </c>
       <c r="S18">
-        <v>1.006259798452355</v>
+        <v>0.7758961630634703</v>
       </c>
       <c r="T18">
-        <v>1.004363988067987</v>
+        <v>0.9062202829003653</v>
       </c>
       <c r="U18">
-        <v>1.00357896892117</v>
+        <v>0.958627560415</v>
       </c>
       <c r="V18">
-        <v>1.00197047120246</v>
+        <v>1.068266398825918</v>
       </c>
       <c r="W18">
-        <v>1.001921161689618</v>
+        <v>0.948519948156815</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9288150437933617</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="D19">
-        <v>0.9706932743520349</v>
+        <v>2.774020111842105</v>
       </c>
       <c r="E19">
-        <v>1.084011416408662</v>
+        <v>0.001367301762105263</v>
       </c>
       <c r="F19">
-        <v>0.9288150437933617</v>
+        <v>0.001367301762105263</v>
       </c>
       <c r="G19">
-        <v>0.9601114011895673</v>
+        <v>0.5705742894736843</v>
       </c>
       <c r="H19">
-        <v>1.019268265569473</v>
+        <v>0.1021013239473684</v>
       </c>
       <c r="I19">
-        <v>0.9288150437933617</v>
+        <v>1.397825143</v>
       </c>
       <c r="J19">
-        <v>0.9706932743520349</v>
+        <v>0.6969658337894739</v>
       </c>
       <c r="K19">
-        <v>1.041652281704076</v>
+        <v>1.796198174736842</v>
       </c>
       <c r="L19">
-        <v>0.977408672949814</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="M19">
-        <v>0.966233801100672</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="N19">
-        <v>0.9288150437933617</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="O19">
-        <v>1.084011416408662</v>
+        <v>2.774020111842105</v>
       </c>
       <c r="P19">
-        <v>1.027352345380349</v>
+        <v>1.387693706802105</v>
       </c>
       <c r="Q19">
-        <v>1.022061408799115</v>
+        <v>1.73549297281579</v>
       </c>
       <c r="R19">
-        <v>0.9945065781846864</v>
+        <v>1.026242415759298</v>
       </c>
       <c r="S19">
-        <v>1.004938697316755</v>
+        <v>1.157451082464561</v>
       </c>
       <c r="T19">
-        <v>0.9945065781846864</v>
+        <v>1.026242415759298</v>
       </c>
       <c r="U19">
-        <v>0.9859077839359066</v>
+        <v>0.9439232702668421</v>
       </c>
       <c r="V19">
-        <v>0.9744892359073976</v>
+        <v>0.8158065829482105</v>
       </c>
       <c r="W19">
-        <v>0.9935242696334576</v>
+        <v>0.9552990015281578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="D20">
+        <v>0.8652447347105263</v>
+      </c>
+      <c r="E20">
+        <v>1.715041252566842</v>
+      </c>
+      <c r="F20">
+        <v>1.715041252566842</v>
+      </c>
+      <c r="G20">
+        <v>0.2491400360926316</v>
+      </c>
+      <c r="H20">
+        <v>1.018595220346316</v>
+      </c>
+      <c r="I20">
+        <v>1.225597809473684</v>
+      </c>
+      <c r="J20">
+        <v>0.9390651488947371</v>
+      </c>
+      <c r="K20">
+        <v>1.022506102631579</v>
+      </c>
+      <c r="L20">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="M20">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="N20">
+        <v>2.895641588147368</v>
+      </c>
+      <c r="O20">
+        <v>0.8652447347105263</v>
+      </c>
+      <c r="P20">
+        <v>1.290142993638684</v>
+      </c>
+      <c r="Q20">
+        <v>0.9021549418026318</v>
+      </c>
+      <c r="R20">
+        <v>1.825309191808246</v>
+      </c>
+      <c r="S20">
+        <v>1.173117045390702</v>
+      </c>
+      <c r="T20">
+        <v>1.825309191808245</v>
+      </c>
+      <c r="U20">
+        <v>1.603748181079868</v>
+      </c>
+      <c r="V20">
+        <v>1.862126862493368</v>
+      </c>
+      <c r="W20">
+        <v>1.24135398660796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="D21">
+        <v>2.722406018208528</v>
+      </c>
+      <c r="E21">
+        <v>0.005598015411229197</v>
+      </c>
+      <c r="F21">
+        <v>0.005598015411229197</v>
+      </c>
+      <c r="G21">
+        <v>1.333328230713323</v>
+      </c>
+      <c r="H21">
+        <v>0.09815470382483896</v>
+      </c>
+      <c r="I21">
+        <v>0.4410749642003395</v>
+      </c>
+      <c r="J21">
+        <v>0.2904348523509871</v>
+      </c>
+      <c r="K21">
+        <v>2.033625116496749</v>
+      </c>
+      <c r="L21">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="M21">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="N21">
+        <v>0.1930077295682087</v>
+      </c>
+      <c r="O21">
+        <v>2.722406018208528</v>
+      </c>
+      <c r="P21">
+        <v>1.364002016809879</v>
+      </c>
+      <c r="Q21">
+        <v>1.506420435279758</v>
+      </c>
+      <c r="R21">
+        <v>0.973670587729322</v>
+      </c>
+      <c r="S21">
+        <v>1.006146295323582</v>
+      </c>
+      <c r="T21">
+        <v>0.973670587729322</v>
+      </c>
+      <c r="U21">
+        <v>0.8028616538847383</v>
+      </c>
+      <c r="V21">
+        <v>0.6808908690214324</v>
+      </c>
+      <c r="W21">
+        <v>0.8897037038467754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="D22">
+        <v>0.1345123975683582</v>
+      </c>
+      <c r="E22">
+        <v>0.3228136666779424</v>
+      </c>
+      <c r="F22">
+        <v>0.3228136666779424</v>
+      </c>
+      <c r="G22">
+        <v>0.8886739995503065</v>
+      </c>
+      <c r="H22">
+        <v>0.9784247722625458</v>
+      </c>
+      <c r="I22">
+        <v>1.617977040267833</v>
+      </c>
+      <c r="J22">
+        <v>1.452368782561316</v>
+      </c>
+      <c r="K22">
+        <v>0.6050376427084995</v>
+      </c>
+      <c r="L22">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="M22">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="N22">
+        <v>1.505699079239369</v>
+      </c>
+      <c r="O22">
+        <v>0.1345123975683582</v>
+      </c>
+      <c r="P22">
+        <v>0.2286630321231503</v>
+      </c>
+      <c r="Q22">
+        <v>0.7934405900648369</v>
+      </c>
+      <c r="R22">
+        <v>0.6543417144952232</v>
+      </c>
+      <c r="S22">
+        <v>0.6365649489358721</v>
+      </c>
+      <c r="T22">
+        <v>0.6543417144952232</v>
+      </c>
+      <c r="U22">
+        <v>0.8538484815117462</v>
+      </c>
+      <c r="V22">
+        <v>0.9842186010572707</v>
+      </c>
+      <c r="W22">
+        <v>0.9381884226045212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="D23">
+        <v>0.5984666815983429</v>
+      </c>
+      <c r="E23">
+        <v>0.5841414576466507</v>
+      </c>
+      <c r="F23">
+        <v>0.5841414576466507</v>
+      </c>
+      <c r="G23">
+        <v>1.205144409617158</v>
+      </c>
+      <c r="H23">
+        <v>1.205967270557466</v>
+      </c>
+      <c r="I23">
+        <v>1.209575990516276</v>
+      </c>
+      <c r="J23">
+        <v>1.37400519149959</v>
+      </c>
+      <c r="K23">
+        <v>0.7272815092446488</v>
+      </c>
+      <c r="L23">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="M23">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="N23">
+        <v>0.4809138115336772</v>
+      </c>
+      <c r="O23">
+        <v>0.5984666815983429</v>
+      </c>
+      <c r="P23">
+        <v>0.5913040696224968</v>
+      </c>
+      <c r="Q23">
+        <v>0.9862359365489664</v>
+      </c>
+      <c r="R23">
+        <v>0.5545073169262237</v>
+      </c>
+      <c r="S23">
+        <v>0.8522044435815278</v>
+      </c>
+      <c r="T23">
+        <v>0.5545073169262236</v>
+      </c>
+      <c r="U23">
+        <v>0.759381785569565</v>
+      </c>
+      <c r="V23">
+        <v>0.7036881907623875</v>
+      </c>
+      <c r="W23">
+        <v>0.9231870402767264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="D24">
+        <v>1.3826465664652</v>
+      </c>
+      <c r="E24">
+        <v>1.824815341097077</v>
+      </c>
+      <c r="F24">
+        <v>1.824815341097077</v>
+      </c>
+      <c r="G24">
+        <v>0.899365445964453</v>
+      </c>
+      <c r="H24">
+        <v>1.02187966757812</v>
+      </c>
+      <c r="I24">
+        <v>0.6130247411759462</v>
+      </c>
+      <c r="J24">
+        <v>0.603034311261649</v>
+      </c>
+      <c r="K24">
+        <v>1.190636802103889</v>
+      </c>
+      <c r="L24">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="M24">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="N24">
+        <v>1.366192144313924</v>
+      </c>
+      <c r="O24">
+        <v>1.3826465664652</v>
+      </c>
+      <c r="P24">
+        <v>1.603730953781139</v>
+      </c>
+      <c r="Q24">
+        <v>0.9928404388634245</v>
+      </c>
+      <c r="R24">
+        <v>1.5245513506254</v>
+      </c>
+      <c r="S24">
+        <v>1.270165406274642</v>
+      </c>
+      <c r="T24">
+        <v>1.524551350625401</v>
+      </c>
+      <c r="U24">
+        <v>1.294172090784463</v>
+      </c>
+      <c r="V24">
+        <v>1.308576101490355</v>
+      </c>
+      <c r="W24">
+        <v>1.112699377495032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.39852214858445</v>
+      </c>
+      <c r="D25">
+        <v>0.5945685969328868</v>
+      </c>
+      <c r="E25">
+        <v>2.735571842286378</v>
+      </c>
+      <c r="F25">
+        <v>2.735571842286378</v>
+      </c>
+      <c r="G25">
+        <v>0.5522360362971502</v>
+      </c>
+      <c r="H25">
+        <v>1.837706595409883</v>
+      </c>
+      <c r="I25">
+        <v>0.8047117995799091</v>
+      </c>
+      <c r="J25">
+        <v>0.7313843888914174</v>
+      </c>
+      <c r="K25">
+        <v>0.7288498918447323</v>
+      </c>
+      <c r="L25">
+        <v>1.39852214858445</v>
+      </c>
+      <c r="M25">
+        <v>1.39852214858445</v>
+      </c>
+      <c r="N25">
+        <v>1.39852214858445</v>
+      </c>
+      <c r="O25">
+        <v>0.5945685969328868</v>
+      </c>
+      <c r="P25">
+        <v>1.665070219609633</v>
+      </c>
+      <c r="Q25">
+        <v>0.6629764929121521</v>
+      </c>
+      <c r="R25">
+        <v>1.576220862601238</v>
+      </c>
+      <c r="S25">
+        <v>1.353841609370227</v>
+      </c>
+      <c r="T25">
+        <v>1.576220862601238</v>
+      </c>
+      <c r="U25">
+        <v>1.365011744173783</v>
+      </c>
+      <c r="V25">
+        <v>1.371713825055916</v>
+      </c>
+      <c r="W25">
+        <v>1.172943912478351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4966886941789823</v>
+      </c>
+      <c r="D26">
+        <v>0.6602617741405685</v>
+      </c>
+      <c r="E26">
+        <v>0.1357158653006614</v>
+      </c>
+      <c r="F26">
+        <v>0.1357158653006614</v>
+      </c>
+      <c r="G26">
+        <v>1.592056119695151</v>
+      </c>
+      <c r="H26">
+        <v>1.013499467707842</v>
+      </c>
+      <c r="I26">
+        <v>1.042404226628271</v>
+      </c>
+      <c r="J26">
+        <v>1.617526224503292</v>
+      </c>
+      <c r="K26">
+        <v>0.634805493194959</v>
+      </c>
+      <c r="L26">
+        <v>0.4966886941789823</v>
+      </c>
+      <c r="M26">
+        <v>0.4966886941789823</v>
+      </c>
+      <c r="N26">
+        <v>0.4966886941789823</v>
+      </c>
+      <c r="O26">
+        <v>0.6602617741405685</v>
+      </c>
+      <c r="P26">
+        <v>0.397988819720615</v>
+      </c>
+      <c r="Q26">
+        <v>1.13889399932193</v>
+      </c>
+      <c r="R26">
+        <v>0.4308887778734041</v>
+      </c>
+      <c r="S26">
+        <v>0.8045012879815072</v>
+      </c>
+      <c r="T26">
+        <v>0.4308887778734041</v>
+      </c>
+      <c r="U26">
+        <v>0.727548139530876</v>
+      </c>
+      <c r="V26">
+        <v>0.6813762504604973</v>
+      </c>
+      <c r="W26">
+        <v>0.899119733168716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="D27">
+        <v>1.368882070248103</v>
+      </c>
+      <c r="E27">
+        <v>2.095549584465831</v>
+      </c>
+      <c r="F27">
+        <v>2.095549584465831</v>
+      </c>
+      <c r="G27">
+        <v>0.606822767500966</v>
+      </c>
+      <c r="H27">
+        <v>0.7954973508144418</v>
+      </c>
+      <c r="I27">
+        <v>1.168225478853633</v>
+      </c>
+      <c r="J27">
+        <v>0.7558610967350989</v>
+      </c>
+      <c r="K27">
+        <v>1.383816833187987</v>
+      </c>
+      <c r="L27">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="M27">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="N27">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="O27">
+        <v>1.368882070248103</v>
+      </c>
+      <c r="P27">
+        <v>1.732215827356967</v>
+      </c>
+      <c r="Q27">
+        <v>1.062371583491601</v>
+      </c>
+      <c r="R27">
+        <v>1.348915603245709</v>
+      </c>
+      <c r="S27">
+        <v>1.406764250483011</v>
+      </c>
+      <c r="T27">
+        <v>1.348915603245709</v>
+      </c>
+      <c r="U27">
+        <v>1.200651976618056</v>
+      </c>
+      <c r="V27">
+        <v>1.076984612299083</v>
+      </c>
+      <c r="W27">
+        <v>1.094621292103657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="D28">
+        <v>0.9991581281720201</v>
+      </c>
+      <c r="E28">
+        <v>1.266751025452208</v>
+      </c>
+      <c r="F28">
+        <v>1.266751025452208</v>
+      </c>
+      <c r="G28">
+        <v>1.196935268593293</v>
+      </c>
+      <c r="H28">
+        <v>0.7513842173421855</v>
+      </c>
+      <c r="I28">
+        <v>0.9817909451665249</v>
+      </c>
+      <c r="J28">
+        <v>0.8014895442452747</v>
+      </c>
+      <c r="K28">
+        <v>1.02536802786366</v>
+      </c>
+      <c r="L28">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="M28">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="N28">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="O28">
+        <v>0.9991581281720201</v>
+      </c>
+      <c r="P28">
+        <v>1.132954576812114</v>
+      </c>
+      <c r="Q28">
+        <v>0.9003238362086474</v>
+      </c>
+      <c r="R28">
+        <v>1.060995247302393</v>
+      </c>
+      <c r="S28">
+        <v>1.022466232623168</v>
+      </c>
+      <c r="T28">
+        <v>1.060995247302393</v>
+      </c>
+      <c r="U28">
+        <v>0.9961188215381137</v>
+      </c>
+      <c r="V28">
+        <v>0.9803103748870814</v>
+      </c>
+      <c r="W28">
+        <v>0.9924942181397649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8125224520354698</v>
+      </c>
+      <c r="D29">
+        <v>0.5580479128148377</v>
+      </c>
+      <c r="E29">
+        <v>1.694907351363146</v>
+      </c>
+      <c r="F29">
+        <v>1.694907351363146</v>
+      </c>
+      <c r="G29">
+        <v>1.220315840481452</v>
+      </c>
+      <c r="H29">
+        <v>0.8042523095712155</v>
+      </c>
+      <c r="I29">
+        <v>1.105096561196816</v>
+      </c>
+      <c r="J29">
+        <v>0.8481853497311725</v>
+      </c>
+      <c r="K29">
+        <v>0.8082405747913108</v>
+      </c>
+      <c r="L29">
+        <v>0.8125224520354698</v>
+      </c>
+      <c r="M29">
+        <v>0.8125224520354698</v>
+      </c>
+      <c r="N29">
+        <v>0.8125224520354698</v>
+      </c>
+      <c r="O29">
+        <v>0.5580479128148377</v>
+      </c>
+      <c r="P29">
+        <v>1.126477632088992</v>
+      </c>
+      <c r="Q29">
+        <v>0.7031166312730051</v>
+      </c>
+      <c r="R29">
+        <v>1.021825905404485</v>
+      </c>
+      <c r="S29">
+        <v>1.033713537969719</v>
+      </c>
+      <c r="T29">
+        <v>1.021825905404485</v>
+      </c>
+      <c r="U29">
+        <v>0.9784157664861566</v>
+      </c>
+      <c r="V29">
+        <v>0.9452371035960192</v>
+      </c>
+      <c r="W29">
+        <v>0.9814460439981776</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8856867438975744</v>
+        <v>1.04469962601295</v>
       </c>
       <c r="D4">
-        <v>1.468066925044187</v>
+        <v>0.9155068659708696</v>
       </c>
       <c r="E4">
-        <v>0.8092583338964644</v>
+        <v>0.8511668408555053</v>
       </c>
       <c r="F4">
-        <v>0.8092583338964644</v>
+        <v>0.8511668408555053</v>
       </c>
       <c r="G4">
-        <v>1.003977603595202</v>
+        <v>0.9233904661497294</v>
       </c>
       <c r="H4">
-        <v>0.8416158708717054</v>
+        <v>0.9136629262329522</v>
       </c>
       <c r="I4">
-        <v>0.9291914407880396</v>
+        <v>1.200564689223873</v>
       </c>
       <c r="J4">
-        <v>0.8913425766382645</v>
+        <v>1.063831493884743</v>
       </c>
       <c r="K4">
-        <v>1.173276968101789</v>
+        <v>0.9808824174017727</v>
       </c>
       <c r="L4">
-        <v>0.8856867438977535</v>
+        <v>1.044699626013105</v>
       </c>
       <c r="M4">
-        <v>0.8856867438977535</v>
+        <v>1.044699626013105</v>
       </c>
       <c r="N4">
-        <v>0.8856867438977535</v>
+        <v>1.044699626013105</v>
       </c>
       <c r="O4">
-        <v>1.468066925044187</v>
+        <v>0.9155068659708696</v>
       </c>
       <c r="P4">
-        <v>1.138662629470326</v>
+        <v>0.8833368534131875</v>
       </c>
       <c r="Q4">
-        <v>1.179704750841226</v>
+        <v>0.9896691799278061</v>
       </c>
       <c r="R4">
-        <v>1.054337334279468</v>
+        <v>0.9371244442798264</v>
       </c>
       <c r="S4">
-        <v>1.056222611859639</v>
+        <v>0.9435017335703725</v>
       </c>
       <c r="T4">
-        <v>1.054337334279468</v>
+        <v>0.9371244442798264</v>
       </c>
       <c r="U4">
-        <v>1.013588644869167</v>
+        <v>0.9688012066810554</v>
       </c>
       <c r="V4">
-        <v>0.9880082646748847</v>
+        <v>0.9839808905474652</v>
       </c>
       <c r="W4">
-        <v>1.000302057854176</v>
+        <v>0.9867131657165686</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.100403106194986</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="D5">
-        <v>0.8939500269336467</v>
+        <v>0.9549311586467293</v>
       </c>
       <c r="E5">
-        <v>0.821402092617747</v>
+        <v>1.893381439646856</v>
       </c>
       <c r="F5">
-        <v>0.821402092617747</v>
+        <v>1.893381439646856</v>
       </c>
       <c r="G5">
-        <v>0.8987080709672016</v>
+        <v>0.2631854167387073</v>
       </c>
       <c r="H5">
-        <v>0.8884439437599853</v>
+        <v>1.096876578893782</v>
       </c>
       <c r="I5">
-        <v>1.262267633234868</v>
+        <v>1.043346781155085</v>
       </c>
       <c r="J5">
-        <v>1.079727445010804</v>
+        <v>0.8810825262641679</v>
       </c>
       <c r="K5">
-        <v>0.9646945818659948</v>
+        <v>1.08844351561893</v>
       </c>
       <c r="L5">
-        <v>1.10040310619513</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="M5">
-        <v>1.10040310619513</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="N5">
-        <v>1.10040310619513</v>
+        <v>2.830978484609258</v>
       </c>
       <c r="O5">
-        <v>0.8939500269336467</v>
+        <v>0.9549311586467293</v>
       </c>
       <c r="P5">
-        <v>0.8576760597756968</v>
+        <v>1.424156299146793</v>
       </c>
       <c r="Q5">
-        <v>0.9868387359722255</v>
+        <v>0.9180068424554486</v>
       </c>
       <c r="R5">
-        <v>0.9385850752488412</v>
+        <v>1.893097027634281</v>
       </c>
       <c r="S5">
-        <v>0.9316931881873994</v>
+        <v>1.243131708185918</v>
       </c>
       <c r="T5">
-        <v>0.9385850752488412</v>
+        <v>1.893097027634282</v>
       </c>
       <c r="U5">
-        <v>0.9738706676893319</v>
+        <v>1.640093402291753</v>
       </c>
       <c r="V5">
-        <v>0.9991771553904915</v>
+        <v>1.878270418755254</v>
       </c>
       <c r="W5">
-        <v>0.9886996125731722</v>
+        <v>1.25652823769669</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9498192669914461</v>
+        <v>0.8856867438975744</v>
       </c>
       <c r="D6">
-        <v>0.4691052799451085</v>
+        <v>1.468066925044187</v>
       </c>
       <c r="E6">
-        <v>0.4282775458844323</v>
+        <v>0.8092583338964644</v>
       </c>
       <c r="F6">
-        <v>0.4282775458844323</v>
+        <v>0.8092583338964644</v>
       </c>
       <c r="G6">
-        <v>0.5256123476722804</v>
+        <v>1.003977603595202</v>
       </c>
       <c r="H6">
-        <v>0.593445788644796</v>
+        <v>0.8416158708717054</v>
       </c>
       <c r="I6">
-        <v>2.513650373065369</v>
+        <v>0.9291914407880396</v>
       </c>
       <c r="J6">
-        <v>1.482794158629765</v>
+        <v>0.8913425766382645</v>
       </c>
       <c r="K6">
-        <v>0.6958765786509712</v>
+        <v>1.173276968101789</v>
       </c>
       <c r="L6">
-        <v>0.9498192669914461</v>
+        <v>0.8856867438977535</v>
       </c>
       <c r="M6">
-        <v>0.9498192669914461</v>
+        <v>0.8856867438977535</v>
       </c>
       <c r="N6">
-        <v>0.9498192669914461</v>
+        <v>0.8856867438977535</v>
       </c>
       <c r="O6">
-        <v>0.4691052799451085</v>
+        <v>1.468066925044187</v>
       </c>
       <c r="P6">
-        <v>0.4486914129147704</v>
+        <v>1.138662629470326</v>
       </c>
       <c r="Q6">
-        <v>0.9759497192874368</v>
+        <v>1.179704750841226</v>
       </c>
       <c r="R6">
-        <v>0.615734030940329</v>
+        <v>1.054337334279468</v>
       </c>
       <c r="S6">
-        <v>0.7933923281531019</v>
+        <v>1.056222611859639</v>
       </c>
       <c r="T6">
-        <v>0.615734030940329</v>
+        <v>1.054337334279468</v>
       </c>
       <c r="U6">
-        <v>0.832499062862688</v>
+        <v>1.013588644869167</v>
       </c>
       <c r="V6">
-        <v>0.8559631036884398</v>
+        <v>0.9880082646748847</v>
       </c>
       <c r="W6">
-        <v>0.9573226674355211</v>
+        <v>1.000302057854176</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.032265120245493</v>
+        <v>1.100403106194986</v>
       </c>
       <c r="D7">
-        <v>1.002874015056621</v>
+        <v>0.8939500269336467</v>
       </c>
       <c r="E7">
-        <v>0.9653143578316736</v>
+        <v>0.821402092617747</v>
       </c>
       <c r="F7">
-        <v>0.9653143578316736</v>
+        <v>0.821402092617747</v>
       </c>
       <c r="G7">
-        <v>1.009075893870181</v>
+        <v>0.8987080709672016</v>
       </c>
       <c r="H7">
-        <v>0.9848607429437403</v>
+        <v>0.8884439437599853</v>
       </c>
       <c r="I7">
-        <v>0.9994187638357754</v>
+        <v>1.262267633234868</v>
       </c>
       <c r="J7">
-        <v>1.004572322330252</v>
+        <v>1.079727445010804</v>
       </c>
       <c r="K7">
-        <v>0.9937835523511591</v>
+        <v>0.9646945818659948</v>
       </c>
       <c r="L7">
-        <v>1.03226512024572</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="M7">
-        <v>1.03226512024572</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="N7">
-        <v>1.03226512024572</v>
+        <v>1.10040310619513</v>
       </c>
       <c r="O7">
-        <v>1.002874015056621</v>
+        <v>0.8939500269336467</v>
       </c>
       <c r="P7">
-        <v>0.9840941864441474</v>
+        <v>0.8576760597756968</v>
       </c>
       <c r="Q7">
-        <v>1.003723168693436</v>
+        <v>0.9868387359722255</v>
       </c>
       <c r="R7">
-        <v>1.000151164378005</v>
+        <v>0.9385850752488412</v>
       </c>
       <c r="S7">
-        <v>0.9909202317395155</v>
+        <v>0.9316931881873994</v>
       </c>
       <c r="T7">
-        <v>1.000151164378005</v>
+        <v>0.9385850752488412</v>
       </c>
       <c r="U7">
-        <v>1.001256453866067</v>
+        <v>0.9738706676893319</v>
       </c>
       <c r="V7">
-        <v>1.007458187141997</v>
+        <v>0.9991771553904915</v>
       </c>
       <c r="W7">
-        <v>0.9990205960581403</v>
+        <v>0.9886996125731722</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.009714514163193</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="D8">
-        <v>0.9899339252157845</v>
+        <v>0.4691052799451085</v>
       </c>
       <c r="E8">
-        <v>0.997003418442341</v>
+        <v>0.4282775458844323</v>
       </c>
       <c r="F8">
-        <v>0.997003418442341</v>
+        <v>0.4282775458844323</v>
       </c>
       <c r="G8">
-        <v>0.9956099120639595</v>
+        <v>0.5256123476722804</v>
       </c>
       <c r="H8">
-        <v>1.002407582298643</v>
+        <v>0.593445788644796</v>
       </c>
       <c r="I8">
-        <v>1.005825577460021</v>
+        <v>2.513650373065369</v>
       </c>
       <c r="J8">
-        <v>1.006221858824056</v>
+        <v>1.482794158629765</v>
       </c>
       <c r="K8">
-        <v>0.9969214622182465</v>
+        <v>0.6958765786509712</v>
       </c>
       <c r="L8">
-        <v>1.00971451416345</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="M8">
-        <v>1.00971451416345</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="N8">
-        <v>1.00971451416345</v>
+        <v>0.9498192669914461</v>
       </c>
       <c r="O8">
-        <v>0.9899339252157845</v>
+        <v>0.4691052799451085</v>
       </c>
       <c r="P8">
-        <v>0.9934686718290627</v>
+        <v>0.4486914129147704</v>
       </c>
       <c r="Q8">
-        <v>0.99807789201992</v>
+        <v>0.9759497192874368</v>
       </c>
       <c r="R8">
-        <v>0.9988839526071919</v>
+        <v>0.615734030940329</v>
       </c>
       <c r="S8">
-        <v>0.997719734160727</v>
+        <v>0.7933923281531019</v>
       </c>
       <c r="T8">
-        <v>0.998883952607192</v>
+        <v>0.615734030940329</v>
       </c>
       <c r="U8">
-        <v>1.000718429161408</v>
+        <v>0.832499062862688</v>
       </c>
       <c r="V8">
-        <v>1.002517646161816</v>
+        <v>0.8559631036884398</v>
       </c>
       <c r="W8">
-        <v>1.000454781335813</v>
+        <v>0.9573226674355211</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.034071616102713</v>
+        <v>1.032265120245493</v>
       </c>
       <c r="D9">
-        <v>1.011321764240543</v>
+        <v>1.002874015056621</v>
       </c>
       <c r="E9">
-        <v>0.9232086702044641</v>
+        <v>0.9653143578316736</v>
       </c>
       <c r="F9">
-        <v>0.9232086702044641</v>
+        <v>0.9653143578316736</v>
       </c>
       <c r="G9">
-        <v>1.024760156894633</v>
+        <v>1.009075893870181</v>
       </c>
       <c r="H9">
-        <v>0.968816358790466</v>
+        <v>0.9848607429437403</v>
       </c>
       <c r="I9">
-        <v>1.004603112162105</v>
+        <v>0.9994187638357754</v>
       </c>
       <c r="J9">
-        <v>1.01344218566163</v>
+        <v>1.004572322330252</v>
       </c>
       <c r="K9">
-        <v>0.9853561562040171</v>
+        <v>0.9937835523511591</v>
       </c>
       <c r="L9">
-        <v>1.034071616103038</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="M9">
-        <v>1.034071616103038</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="N9">
-        <v>1.034071616103038</v>
+        <v>1.03226512024572</v>
       </c>
       <c r="O9">
-        <v>1.011321764240543</v>
+        <v>1.002874015056621</v>
       </c>
       <c r="P9">
-        <v>0.9672652172225036</v>
+        <v>0.9840941864441474</v>
       </c>
       <c r="Q9">
-        <v>1.012381974951087</v>
+        <v>1.003723168693436</v>
       </c>
       <c r="R9">
-        <v>0.9895340168493484</v>
+        <v>1.000151164378005</v>
       </c>
       <c r="S9">
-        <v>0.9826575400355457</v>
+        <v>0.9909202317395155</v>
       </c>
       <c r="T9">
-        <v>0.9895340168493484</v>
+        <v>1.000151164378005</v>
       </c>
       <c r="U9">
-        <v>0.9955110590524188</v>
+        <v>1.001256453866067</v>
       </c>
       <c r="V9">
-        <v>1.003223170462543</v>
+        <v>1.007458187141997</v>
       </c>
       <c r="W9">
-        <v>0.995697502532612</v>
+        <v>0.9990205960581403</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9415779911260934</v>
+        <v>1.009714514163193</v>
       </c>
       <c r="D10">
-        <v>0.4344113033973787</v>
+        <v>0.9899339252157845</v>
       </c>
       <c r="E10">
-        <v>0.3800424385966872</v>
+        <v>0.997003418442341</v>
       </c>
       <c r="F10">
-        <v>0.3800424385966872</v>
+        <v>0.997003418442341</v>
       </c>
       <c r="G10">
-        <v>0.5256733266137986</v>
+        <v>0.9956099120639595</v>
       </c>
       <c r="H10">
-        <v>0.5891376223632401</v>
+        <v>1.002407582298643</v>
       </c>
       <c r="I10">
-        <v>2.559915479075807</v>
+        <v>1.005825577460021</v>
       </c>
       <c r="J10">
-        <v>1.511622698144154</v>
+        <v>1.006221858824056</v>
       </c>
       <c r="K10">
-        <v>0.6716064185653082</v>
+        <v>0.9969214622182465</v>
       </c>
       <c r="L10">
-        <v>0.9415779911260934</v>
+        <v>1.00971451416345</v>
       </c>
       <c r="M10">
-        <v>0.9415779911260934</v>
+        <v>1.00971451416345</v>
       </c>
       <c r="N10">
-        <v>0.9415779911260934</v>
+        <v>1.00971451416345</v>
       </c>
       <c r="O10">
-        <v>0.4344113033973787</v>
+        <v>0.9899339252157845</v>
       </c>
       <c r="P10">
-        <v>0.4072268709970329</v>
+        <v>0.9934686718290627</v>
       </c>
       <c r="Q10">
-        <v>0.9730170007707664</v>
+        <v>0.99807789201992</v>
       </c>
       <c r="R10">
-        <v>0.5853439110400531</v>
+        <v>0.9988839526071919</v>
       </c>
       <c r="S10">
-        <v>0.7753588133794066</v>
+        <v>0.997719734160727</v>
       </c>
       <c r="T10">
-        <v>0.5853439110400531</v>
+        <v>0.998883952607192</v>
       </c>
       <c r="U10">
-        <v>0.8169136078160784</v>
+        <v>1.000718429161408</v>
       </c>
       <c r="V10">
-        <v>0.8418464844780814</v>
+        <v>1.002517646161816</v>
       </c>
       <c r="W10">
-        <v>0.9517484097353084</v>
+        <v>1.000454781335813</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8440856785227635</v>
+        <v>1.034071616102713</v>
       </c>
       <c r="D11">
-        <v>1.350032148649656</v>
+        <v>1.011321764240543</v>
       </c>
       <c r="E11">
-        <v>1.118867580675543</v>
+        <v>0.9232086702044641</v>
       </c>
       <c r="F11">
-        <v>1.118867580675543</v>
+        <v>0.9232086702044641</v>
       </c>
       <c r="G11">
-        <v>1.045775986589547</v>
+        <v>1.024760156894633</v>
       </c>
       <c r="H11">
-        <v>1.036844145332639</v>
+        <v>0.968816358790466</v>
       </c>
       <c r="I11">
-        <v>0.8531517070707448</v>
+        <v>1.004603112162105</v>
       </c>
       <c r="J11">
-        <v>0.9341128474212939</v>
+        <v>1.01344218566163</v>
       </c>
       <c r="K11">
-        <v>1.045849150130362</v>
+        <v>0.9853561562040171</v>
       </c>
       <c r="L11">
-        <v>0.8440856785230288</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="M11">
-        <v>0.8440856785230288</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="N11">
-        <v>0.8440856785230288</v>
+        <v>1.034071616103038</v>
       </c>
       <c r="O11">
-        <v>1.350032148649656</v>
+        <v>1.011321764240543</v>
       </c>
       <c r="P11">
-        <v>1.234449864662599</v>
+        <v>0.9672652172225036</v>
       </c>
       <c r="Q11">
-        <v>1.142072498035475</v>
+        <v>1.012381974951087</v>
       </c>
       <c r="R11">
-        <v>1.104328469282742</v>
+        <v>0.9895340168493484</v>
       </c>
       <c r="S11">
-        <v>1.134337525582164</v>
+        <v>0.9826575400355457</v>
       </c>
       <c r="T11">
-        <v>1.104328469282742</v>
+        <v>0.9895340168493484</v>
       </c>
       <c r="U11">
-        <v>1.06177456381738</v>
+        <v>0.9955110590524188</v>
       </c>
       <c r="V11">
-        <v>1.01823678675851</v>
+        <v>1.003223170462543</v>
       </c>
       <c r="W11">
-        <v>1.028589905549102</v>
+        <v>0.995697502532612</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.078144799686778</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="D12">
-        <v>0.8091582213806329</v>
+        <v>0.4344113033973787</v>
       </c>
       <c r="E12">
-        <v>0.7830892047569346</v>
+        <v>0.3800424385966872</v>
       </c>
       <c r="F12">
-        <v>0.7830892047569346</v>
+        <v>0.3800424385966872</v>
       </c>
       <c r="G12">
-        <v>0.886728920762105</v>
+        <v>0.5256733266137986</v>
       </c>
       <c r="H12">
-        <v>0.8979420056602101</v>
+        <v>0.5891376223632401</v>
       </c>
       <c r="I12">
-        <v>1.370872819153684</v>
+        <v>2.559915479075807</v>
       </c>
       <c r="J12">
-        <v>1.141218766166312</v>
+        <v>1.511622698144154</v>
       </c>
       <c r="K12">
-        <v>0.9023068011494731</v>
+        <v>0.6716064185653082</v>
       </c>
       <c r="L12">
-        <v>1.078144799686778</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="M12">
-        <v>1.078144799686778</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="N12">
-        <v>1.078144799686778</v>
+        <v>0.9415779911260934</v>
       </c>
       <c r="O12">
-        <v>0.8091582213806329</v>
+        <v>0.4344113033973787</v>
       </c>
       <c r="P12">
-        <v>0.7961237130687837</v>
+        <v>0.4072268709970329</v>
       </c>
       <c r="Q12">
-        <v>0.9751884937734727</v>
+        <v>0.9730170007707664</v>
       </c>
       <c r="R12">
-        <v>0.8901307419414485</v>
+        <v>0.5853439110400531</v>
       </c>
       <c r="S12">
-        <v>0.9111553974346266</v>
+        <v>0.7753588133794066</v>
       </c>
       <c r="T12">
-        <v>0.8901307419414485</v>
+        <v>0.5853439110400531</v>
       </c>
       <c r="U12">
-        <v>0.9529027479976645</v>
+        <v>0.8169136078160784</v>
       </c>
       <c r="V12">
-        <v>0.9779511583354872</v>
+        <v>0.8418464844780814</v>
       </c>
       <c r="W12">
-        <v>0.9836826923395163</v>
+        <v>0.9517484097353084</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8748026516084907</v>
+        <v>0.8440856785227635</v>
       </c>
       <c r="D13">
-        <v>0.9422840820936513</v>
+        <v>1.350032148649656</v>
       </c>
       <c r="E13">
-        <v>0.9562544717069484</v>
+        <v>1.118867580675543</v>
       </c>
       <c r="F13">
-        <v>0.9562544717069484</v>
+        <v>1.118867580675543</v>
       </c>
       <c r="G13">
-        <v>1.087928462833365</v>
+        <v>1.045775986589547</v>
       </c>
       <c r="H13">
-        <v>1.071531669560735</v>
+        <v>1.036844145332639</v>
       </c>
       <c r="I13">
-        <v>0.9971924502519747</v>
+        <v>0.8531517070707448</v>
       </c>
       <c r="J13">
-        <v>1.06147121508587</v>
+        <v>0.9341128474212939</v>
       </c>
       <c r="K13">
-        <v>0.9138465081896685</v>
+        <v>1.045849150130362</v>
       </c>
       <c r="L13">
-        <v>0.8748026516084907</v>
+        <v>0.8440856785230288</v>
       </c>
       <c r="M13">
-        <v>0.8748026516084907</v>
+        <v>0.8440856785230288</v>
       </c>
       <c r="N13">
-        <v>0.8748026516084907</v>
+        <v>0.8440856785230288</v>
       </c>
       <c r="O13">
-        <v>0.9422840820936513</v>
+        <v>1.350032148649656</v>
       </c>
       <c r="P13">
-        <v>0.9492692769002999</v>
+        <v>1.234449864662599</v>
       </c>
       <c r="Q13">
-        <v>1.00187764858976</v>
+        <v>1.142072498035475</v>
       </c>
       <c r="R13">
-        <v>0.9244470684696968</v>
+        <v>1.104328469282742</v>
       </c>
       <c r="S13">
-        <v>0.9866699229621565</v>
+        <v>1.134337525582164</v>
       </c>
       <c r="T13">
-        <v>0.9244470684696968</v>
+        <v>1.104328469282742</v>
       </c>
       <c r="U13">
-        <v>0.95870310512374</v>
+        <v>1.06177456381738</v>
       </c>
       <c r="V13">
-        <v>0.9419230144206902</v>
+        <v>1.01823678675851</v>
       </c>
       <c r="W13">
-        <v>0.9881639389163379</v>
+        <v>1.028589905549102</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8252047699999995</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="D14">
-        <v>0.02686030899999997</v>
+        <v>0.8091582213806329</v>
       </c>
       <c r="E14">
-        <v>0.0040034715</v>
+        <v>0.7830892047569346</v>
       </c>
       <c r="F14">
-        <v>0.0040034715</v>
+        <v>0.7830892047569346</v>
       </c>
       <c r="G14">
-        <v>0.13297696</v>
+        <v>0.886728920762105</v>
       </c>
       <c r="H14">
-        <v>0.2751524299999999</v>
+        <v>0.8979420056602101</v>
       </c>
       <c r="I14">
-        <v>3.830413399999999</v>
+        <v>1.370872819153684</v>
       </c>
       <c r="J14">
-        <v>1.908888700000003</v>
+        <v>1.141218766166312</v>
       </c>
       <c r="K14">
-        <v>0.4089960599999998</v>
+        <v>0.9023068011494731</v>
       </c>
       <c r="L14">
-        <v>0.8252047699999995</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="M14">
-        <v>0.8252047699999995</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="N14">
-        <v>0.8252047699999995</v>
+        <v>1.078144799686778</v>
       </c>
       <c r="O14">
-        <v>0.02686030899999997</v>
+        <v>0.8091582213806329</v>
       </c>
       <c r="P14">
-        <v>0.01543189024999998</v>
+        <v>0.7961237130687837</v>
       </c>
       <c r="Q14">
-        <v>0.9678745045000012</v>
+        <v>0.9751884937734727</v>
       </c>
       <c r="R14">
-        <v>0.2853561834999998</v>
+        <v>0.8901307419414485</v>
       </c>
       <c r="S14">
-        <v>0.6465841601666675</v>
+        <v>0.9111553974346266</v>
       </c>
       <c r="T14">
-        <v>0.2853561834999998</v>
+        <v>0.8901307419414485</v>
       </c>
       <c r="U14">
-        <v>0.6912393126250005</v>
+        <v>0.9529027479976645</v>
       </c>
       <c r="V14">
-        <v>0.7180324041000004</v>
+        <v>0.9779511583354872</v>
       </c>
       <c r="W14">
-        <v>0.9265620125625</v>
+        <v>0.9836826923395163</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>11.477873</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="D15">
-        <v>0.007481255500000001</v>
+        <v>0.9422840820936513</v>
       </c>
       <c r="E15">
-        <v>-0.0032556798</v>
+        <v>0.9562544717069484</v>
       </c>
       <c r="F15">
-        <v>-0.0032556798</v>
+        <v>0.9562544717069484</v>
       </c>
       <c r="G15">
-        <v>0.00081841436</v>
+        <v>1.087928462833365</v>
       </c>
       <c r="H15">
-        <v>-0.002229274</v>
+        <v>1.071531669560735</v>
       </c>
       <c r="I15">
-        <v>0.8252917</v>
+        <v>0.9971924502519747</v>
       </c>
       <c r="J15">
-        <v>0.024380834</v>
+        <v>1.06147121508587</v>
       </c>
       <c r="K15">
-        <v>0.39572697</v>
+        <v>0.9138465081896685</v>
       </c>
       <c r="L15">
-        <v>11.477873</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="M15">
-        <v>11.477873</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="N15">
-        <v>11.477873</v>
+        <v>0.8748026516084907</v>
       </c>
       <c r="O15">
-        <v>0.007481255500000001</v>
+        <v>0.9422840820936513</v>
       </c>
       <c r="P15">
-        <v>0.002112787850000001</v>
+        <v>0.9492692769002999</v>
       </c>
       <c r="Q15">
-        <v>0.01593104475</v>
+        <v>1.00187764858976</v>
       </c>
       <c r="R15">
-        <v>3.827366191899999</v>
+        <v>0.9244470684696968</v>
       </c>
       <c r="S15">
-        <v>0.009535469900000001</v>
+        <v>0.9866699229621565</v>
       </c>
       <c r="T15">
-        <v>3.827366191899999</v>
+        <v>0.9244470684696968</v>
       </c>
       <c r="U15">
-        <v>2.876619852425</v>
+        <v>0.95870310512374</v>
       </c>
       <c r="V15">
-        <v>4.59687048194</v>
+        <v>0.9419230144206902</v>
       </c>
       <c r="W15">
-        <v>1.5907609025075</v>
+        <v>0.9881639389163379</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0074812554</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="D16">
-        <v>7.6546011</v>
+        <v>0.02686030899999997</v>
       </c>
       <c r="E16">
-        <v>0.00064866866</v>
+        <v>0.0040034715</v>
       </c>
       <c r="F16">
-        <v>0.00064866866</v>
+        <v>0.0040034715</v>
       </c>
       <c r="G16">
-        <v>0.72114177</v>
+        <v>0.13297696</v>
       </c>
       <c r="H16">
-        <v>0.0039768969</v>
+        <v>0.2751524299999999</v>
       </c>
       <c r="I16">
-        <v>0.026860481</v>
+        <v>3.830413399999999</v>
       </c>
       <c r="J16">
-        <v>0.01572381</v>
+        <v>1.908888700000003</v>
       </c>
       <c r="K16">
-        <v>2.2598751</v>
+        <v>0.4089960599999998</v>
       </c>
       <c r="L16">
-        <v>0.0074812554</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="M16">
-        <v>0.0074812554</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="N16">
-        <v>0.0074812554</v>
+        <v>0.8252047699999995</v>
       </c>
       <c r="O16">
-        <v>7.6546011</v>
+        <v>0.02686030899999997</v>
       </c>
       <c r="P16">
-        <v>3.82762488433</v>
+        <v>0.01543189024999998</v>
       </c>
       <c r="Q16">
-        <v>3.835162455</v>
+        <v>0.9678745045000012</v>
       </c>
       <c r="R16">
-        <v>2.554243674686667</v>
+        <v>0.2853561834999998</v>
       </c>
       <c r="S16">
-        <v>2.556991192886667</v>
+        <v>0.6465841601666675</v>
       </c>
       <c r="T16">
-        <v>2.554243674686667</v>
+        <v>0.2853561834999998</v>
       </c>
       <c r="U16">
-        <v>1.919613708515</v>
+        <v>0.6912393126250005</v>
       </c>
       <c r="V16">
-        <v>1.537187217892</v>
+        <v>0.7180324041000004</v>
       </c>
       <c r="W16">
-        <v>1.336288635245</v>
+        <v>0.9265620125625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.82533516</v>
+        <v>11.477873</v>
       </c>
       <c r="D17">
-        <v>0.026860566</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E17">
-        <v>0.0040030202</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="F17">
-        <v>0.0040030202</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="G17">
-        <v>0.13296005</v>
+        <v>0.00081841436</v>
       </c>
       <c r="H17">
-        <v>0.2751087</v>
+        <v>-0.002229274</v>
       </c>
       <c r="I17">
-        <v>3.8304141</v>
+        <v>0.8252917</v>
       </c>
       <c r="J17">
-        <v>1.9087333</v>
+        <v>0.024380834</v>
       </c>
       <c r="K17">
-        <v>0.40902183</v>
+        <v>0.39572697</v>
       </c>
       <c r="L17">
-        <v>0.82533516</v>
+        <v>11.477873</v>
       </c>
       <c r="M17">
-        <v>0.82533516</v>
+        <v>11.477873</v>
       </c>
       <c r="N17">
-        <v>0.82533516</v>
+        <v>11.477873</v>
       </c>
       <c r="O17">
-        <v>0.026860566</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="P17">
-        <v>0.0154317931</v>
+        <v>0.002112787850000001</v>
       </c>
       <c r="Q17">
-        <v>0.9677969330000001</v>
+        <v>0.01593104475</v>
       </c>
       <c r="R17">
-        <v>0.2853995820666667</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="S17">
-        <v>0.6465322954</v>
+        <v>0.009535469900000001</v>
       </c>
       <c r="T17">
-        <v>0.2853995820666667</v>
+        <v>3.827366191899999</v>
       </c>
       <c r="U17">
-        <v>0.6912330115500001</v>
+        <v>2.876619852425</v>
       </c>
       <c r="V17">
-        <v>0.71805344124</v>
+        <v>4.59687048194</v>
       </c>
       <c r="W17">
-        <v>0.926554590775</v>
+        <v>1.5907609025075</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.506821752469589</v>
+        <v>0.0074812554</v>
       </c>
       <c r="D18">
-        <v>1.148494104910959</v>
+        <v>7.6546011</v>
       </c>
       <c r="E18">
-        <v>0.06334499132054795</v>
+        <v>0.00064866866</v>
       </c>
       <c r="F18">
-        <v>0.06334499132054795</v>
+        <v>0.00064866866</v>
       </c>
       <c r="G18">
-        <v>1.309944543910684</v>
+        <v>0.72114177</v>
       </c>
       <c r="H18">
-        <v>0.5996014491084931</v>
+        <v>0.0039768969</v>
       </c>
       <c r="I18">
-        <v>0.9924120086849314</v>
+        <v>0.026860481</v>
       </c>
       <c r="J18">
-        <v>1.115849392958904</v>
+        <v>0.01572381</v>
       </c>
       <c r="K18">
-        <v>0.8516913418904108</v>
+        <v>2.2598751</v>
       </c>
       <c r="L18">
-        <v>1.506821752469589</v>
+        <v>0.0074812554</v>
       </c>
       <c r="M18">
-        <v>1.506821752469589</v>
+        <v>0.0074812554</v>
       </c>
       <c r="N18">
-        <v>1.506821752469589</v>
+        <v>0.0074812554</v>
       </c>
       <c r="O18">
-        <v>1.148494104910959</v>
+        <v>7.6546011</v>
       </c>
       <c r="P18">
-        <v>0.6059195481157535</v>
+        <v>3.82762488433</v>
       </c>
       <c r="Q18">
-        <v>1.132171748934931</v>
+        <v>3.835162455</v>
       </c>
       <c r="R18">
-        <v>0.9062202829003653</v>
+        <v>2.554243674686667</v>
       </c>
       <c r="S18">
-        <v>0.7758961630634703</v>
+        <v>2.556991192886667</v>
       </c>
       <c r="T18">
-        <v>0.9062202829003653</v>
+        <v>2.554243674686667</v>
       </c>
       <c r="U18">
-        <v>0.958627560415</v>
+        <v>1.919613708515</v>
       </c>
       <c r="V18">
-        <v>1.068266398825918</v>
+        <v>1.537187217892</v>
       </c>
       <c r="W18">
-        <v>0.948519948156815</v>
+        <v>1.336288635245</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3033398336736842</v>
+        <v>0.82533516</v>
       </c>
       <c r="D19">
-        <v>2.774020111842105</v>
+        <v>0.026860566</v>
       </c>
       <c r="E19">
-        <v>0.001367301762105263</v>
+        <v>0.0040030202</v>
       </c>
       <c r="F19">
-        <v>0.001367301762105263</v>
+        <v>0.0040030202</v>
       </c>
       <c r="G19">
-        <v>0.5705742894736843</v>
+        <v>0.13296005</v>
       </c>
       <c r="H19">
-        <v>0.1021013239473684</v>
+        <v>0.2751087</v>
       </c>
       <c r="I19">
-        <v>1.397825143</v>
+        <v>3.8304141</v>
       </c>
       <c r="J19">
-        <v>0.6969658337894739</v>
+        <v>1.9087333</v>
       </c>
       <c r="K19">
-        <v>1.796198174736842</v>
+        <v>0.40902183</v>
       </c>
       <c r="L19">
-        <v>0.3033398336736842</v>
+        <v>0.82533516</v>
       </c>
       <c r="M19">
-        <v>0.3033398336736842</v>
+        <v>0.82533516</v>
       </c>
       <c r="N19">
-        <v>0.3033398336736842</v>
+        <v>0.82533516</v>
       </c>
       <c r="O19">
-        <v>2.774020111842105</v>
+        <v>0.026860566</v>
       </c>
       <c r="P19">
-        <v>1.387693706802105</v>
+        <v>0.0154317931</v>
       </c>
       <c r="Q19">
-        <v>1.73549297281579</v>
+        <v>0.9677969330000001</v>
       </c>
       <c r="R19">
-        <v>1.026242415759298</v>
+        <v>0.2853995820666667</v>
       </c>
       <c r="S19">
-        <v>1.157451082464561</v>
+        <v>0.6465322954</v>
       </c>
       <c r="T19">
-        <v>1.026242415759298</v>
+        <v>0.2853995820666667</v>
       </c>
       <c r="U19">
-        <v>0.9439232702668421</v>
+        <v>0.6912330115500001</v>
       </c>
       <c r="V19">
-        <v>0.8158065829482105</v>
+        <v>0.71805344124</v>
       </c>
       <c r="W19">
-        <v>0.9552990015281578</v>
+        <v>0.926554590775</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.895641588147368</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="D20">
-        <v>0.8652447347105263</v>
+        <v>1.148494104910959</v>
       </c>
       <c r="E20">
-        <v>1.715041252566842</v>
+        <v>0.06334499132054795</v>
       </c>
       <c r="F20">
-        <v>1.715041252566842</v>
+        <v>0.06334499132054795</v>
       </c>
       <c r="G20">
-        <v>0.2491400360926316</v>
+        <v>1.309944543910684</v>
       </c>
       <c r="H20">
-        <v>1.018595220346316</v>
+        <v>0.5996014491084931</v>
       </c>
       <c r="I20">
-        <v>1.225597809473684</v>
+        <v>0.9924120086849314</v>
       </c>
       <c r="J20">
-        <v>0.9390651488947371</v>
+        <v>1.115849392958904</v>
       </c>
       <c r="K20">
-        <v>1.022506102631579</v>
+        <v>0.8516913418904108</v>
       </c>
       <c r="L20">
-        <v>2.895641588147368</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="M20">
-        <v>2.895641588147368</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="N20">
-        <v>2.895641588147368</v>
+        <v>1.506821752469589</v>
       </c>
       <c r="O20">
-        <v>0.8652447347105263</v>
+        <v>1.148494104910959</v>
       </c>
       <c r="P20">
-        <v>1.290142993638684</v>
+        <v>0.6059195481157535</v>
       </c>
       <c r="Q20">
-        <v>0.9021549418026318</v>
+        <v>1.132171748934931</v>
       </c>
       <c r="R20">
-        <v>1.825309191808246</v>
+        <v>0.9062202829003653</v>
       </c>
       <c r="S20">
-        <v>1.173117045390702</v>
+        <v>0.7758961630634703</v>
       </c>
       <c r="T20">
-        <v>1.825309191808245</v>
+        <v>0.9062202829003653</v>
       </c>
       <c r="U20">
-        <v>1.603748181079868</v>
+        <v>0.958627560415</v>
       </c>
       <c r="V20">
-        <v>1.862126862493368</v>
+        <v>1.068266398825918</v>
       </c>
       <c r="W20">
-        <v>1.24135398660796</v>
+        <v>0.948519948156815</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1930077295682087</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="D21">
-        <v>2.722406018208528</v>
+        <v>2.774020111842105</v>
       </c>
       <c r="E21">
-        <v>0.005598015411229197</v>
+        <v>0.001367301762105263</v>
       </c>
       <c r="F21">
-        <v>0.005598015411229197</v>
+        <v>0.001367301762105263</v>
       </c>
       <c r="G21">
-        <v>1.333328230713323</v>
+        <v>0.5705742894736843</v>
       </c>
       <c r="H21">
-        <v>0.09815470382483896</v>
+        <v>0.1021013239473684</v>
       </c>
       <c r="I21">
-        <v>0.4410749642003395</v>
+        <v>1.397825143</v>
       </c>
       <c r="J21">
-        <v>0.2904348523509871</v>
+        <v>0.6969658337894739</v>
       </c>
       <c r="K21">
-        <v>2.033625116496749</v>
+        <v>1.796198174736842</v>
       </c>
       <c r="L21">
-        <v>0.1930077295682087</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="M21">
-        <v>0.1930077295682087</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="N21">
-        <v>0.1930077295682087</v>
+        <v>0.3033398336736842</v>
       </c>
       <c r="O21">
-        <v>2.722406018208528</v>
+        <v>2.774020111842105</v>
       </c>
       <c r="P21">
-        <v>1.364002016809879</v>
+        <v>1.387693706802105</v>
       </c>
       <c r="Q21">
-        <v>1.506420435279758</v>
+        <v>1.73549297281579</v>
       </c>
       <c r="R21">
-        <v>0.973670587729322</v>
+        <v>1.026242415759298</v>
       </c>
       <c r="S21">
-        <v>1.006146295323582</v>
+        <v>1.157451082464561</v>
       </c>
       <c r="T21">
-        <v>0.973670587729322</v>
+        <v>1.026242415759298</v>
       </c>
       <c r="U21">
-        <v>0.8028616538847383</v>
+        <v>0.9439232702668421</v>
       </c>
       <c r="V21">
-        <v>0.6808908690214324</v>
+        <v>0.8158065829482105</v>
       </c>
       <c r="W21">
-        <v>0.8897037038467754</v>
+        <v>0.9552990015281578</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.505699079239369</v>
+        <v>2.895641588147368</v>
       </c>
       <c r="D22">
-        <v>0.1345123975683582</v>
+        <v>0.8652447347105263</v>
       </c>
       <c r="E22">
-        <v>0.3228136666779424</v>
+        <v>1.715041252566842</v>
       </c>
       <c r="F22">
-        <v>0.3228136666779424</v>
+        <v>1.715041252566842</v>
       </c>
       <c r="G22">
-        <v>0.8886739995503065</v>
+        <v>0.2491400360926316</v>
       </c>
       <c r="H22">
-        <v>0.9784247722625458</v>
+        <v>1.018595220346316</v>
       </c>
       <c r="I22">
-        <v>1.617977040267833</v>
+        <v>1.225597809473684</v>
       </c>
       <c r="J22">
-        <v>1.452368782561316</v>
+        <v>0.9390651488947371</v>
       </c>
       <c r="K22">
-        <v>0.6050376427084995</v>
+        <v>1.022506102631579</v>
       </c>
       <c r="L22">
-        <v>1.505699079239369</v>
+        <v>2.895641588147368</v>
       </c>
       <c r="M22">
-        <v>1.505699079239369</v>
+        <v>2.895641588147368</v>
       </c>
       <c r="N22">
-        <v>1.505699079239369</v>
+        <v>2.895641588147368</v>
       </c>
       <c r="O22">
-        <v>0.1345123975683582</v>
+        <v>0.8652447347105263</v>
       </c>
       <c r="P22">
-        <v>0.2286630321231503</v>
+        <v>1.290142993638684</v>
       </c>
       <c r="Q22">
-        <v>0.7934405900648369</v>
+        <v>0.9021549418026318</v>
       </c>
       <c r="R22">
-        <v>0.6543417144952232</v>
+        <v>1.825309191808246</v>
       </c>
       <c r="S22">
-        <v>0.6365649489358721</v>
+        <v>1.173117045390702</v>
       </c>
       <c r="T22">
-        <v>0.6543417144952232</v>
+        <v>1.825309191808245</v>
       </c>
       <c r="U22">
-        <v>0.8538484815117462</v>
+        <v>1.603748181079868</v>
       </c>
       <c r="V22">
-        <v>0.9842186010572707</v>
+        <v>1.862126862493368</v>
       </c>
       <c r="W22">
-        <v>0.9381884226045212</v>
+        <v>1.24135398660796</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4809138115336772</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="D23">
-        <v>0.5984666815983429</v>
+        <v>2.722406018208528</v>
       </c>
       <c r="E23">
-        <v>0.5841414576466507</v>
+        <v>0.005598015411229197</v>
       </c>
       <c r="F23">
-        <v>0.5841414576466507</v>
+        <v>0.005598015411229197</v>
       </c>
       <c r="G23">
-        <v>1.205144409617158</v>
+        <v>1.333328230713323</v>
       </c>
       <c r="H23">
-        <v>1.205967270557466</v>
+        <v>0.09815470382483896</v>
       </c>
       <c r="I23">
-        <v>1.209575990516276</v>
+        <v>0.4410749642003395</v>
       </c>
       <c r="J23">
-        <v>1.37400519149959</v>
+        <v>0.2904348523509871</v>
       </c>
       <c r="K23">
-        <v>0.7272815092446488</v>
+        <v>2.033625116496749</v>
       </c>
       <c r="L23">
-        <v>0.4809138115336772</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="M23">
-        <v>0.4809138115336772</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="N23">
-        <v>0.4809138115336772</v>
+        <v>0.1930077295682087</v>
       </c>
       <c r="O23">
-        <v>0.5984666815983429</v>
+        <v>2.722406018208528</v>
       </c>
       <c r="P23">
-        <v>0.5913040696224968</v>
+        <v>1.364002016809879</v>
       </c>
       <c r="Q23">
-        <v>0.9862359365489664</v>
+        <v>1.506420435279758</v>
       </c>
       <c r="R23">
-        <v>0.5545073169262237</v>
+        <v>0.973670587729322</v>
       </c>
       <c r="S23">
-        <v>0.8522044435815278</v>
+        <v>1.006146295323582</v>
       </c>
       <c r="T23">
-        <v>0.5545073169262236</v>
+        <v>0.973670587729322</v>
       </c>
       <c r="U23">
-        <v>0.759381785569565</v>
+        <v>0.8028616538847383</v>
       </c>
       <c r="V23">
-        <v>0.7036881907623875</v>
+        <v>0.6808908690214324</v>
       </c>
       <c r="W23">
-        <v>0.9231870402767264</v>
+        <v>0.8897037038467754</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.366192144313924</v>
+        <v>1.505699079239369</v>
       </c>
       <c r="D24">
-        <v>1.3826465664652</v>
+        <v>0.1345123975683582</v>
       </c>
       <c r="E24">
-        <v>1.824815341097077</v>
+        <v>0.3228136666779424</v>
       </c>
       <c r="F24">
-        <v>1.824815341097077</v>
+        <v>0.3228136666779424</v>
       </c>
       <c r="G24">
-        <v>0.899365445964453</v>
+        <v>0.8886739995503065</v>
       </c>
       <c r="H24">
-        <v>1.02187966757812</v>
+        <v>0.9784247722625458</v>
       </c>
       <c r="I24">
-        <v>0.6130247411759462</v>
+        <v>1.617977040267833</v>
       </c>
       <c r="J24">
-        <v>0.603034311261649</v>
+        <v>1.452368782561316</v>
       </c>
       <c r="K24">
-        <v>1.190636802103889</v>
+        <v>0.6050376427084995</v>
       </c>
       <c r="L24">
-        <v>1.366192144313924</v>
+        <v>1.505699079239369</v>
       </c>
       <c r="M24">
-        <v>1.366192144313924</v>
+        <v>1.505699079239369</v>
       </c>
       <c r="N24">
-        <v>1.366192144313924</v>
+        <v>1.505699079239369</v>
       </c>
       <c r="O24">
-        <v>1.3826465664652</v>
+        <v>0.1345123975683582</v>
       </c>
       <c r="P24">
-        <v>1.603730953781139</v>
+        <v>0.2286630321231503</v>
       </c>
       <c r="Q24">
-        <v>0.9928404388634245</v>
+        <v>0.7934405900648369</v>
       </c>
       <c r="R24">
-        <v>1.5245513506254</v>
+        <v>0.6543417144952232</v>
       </c>
       <c r="S24">
-        <v>1.270165406274642</v>
+        <v>0.6365649489358721</v>
       </c>
       <c r="T24">
-        <v>1.524551350625401</v>
+        <v>0.6543417144952232</v>
       </c>
       <c r="U24">
-        <v>1.294172090784463</v>
+        <v>0.8538484815117462</v>
       </c>
       <c r="V24">
-        <v>1.308576101490355</v>
+        <v>0.9842186010572707</v>
       </c>
       <c r="W24">
-        <v>1.112699377495032</v>
+        <v>0.9381884226045212</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.39852214858445</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="D25">
-        <v>0.5945685969328868</v>
+        <v>0.5984666815983429</v>
       </c>
       <c r="E25">
-        <v>2.735571842286378</v>
+        <v>0.5841414576466507</v>
       </c>
       <c r="F25">
-        <v>2.735571842286378</v>
+        <v>0.5841414576466507</v>
       </c>
       <c r="G25">
-        <v>0.5522360362971502</v>
+        <v>1.205144409617158</v>
       </c>
       <c r="H25">
-        <v>1.837706595409883</v>
+        <v>1.205967270557466</v>
       </c>
       <c r="I25">
-        <v>0.8047117995799091</v>
+        <v>1.209575990516276</v>
       </c>
       <c r="J25">
-        <v>0.7313843888914174</v>
+        <v>1.37400519149959</v>
       </c>
       <c r="K25">
-        <v>0.7288498918447323</v>
+        <v>0.7272815092446488</v>
       </c>
       <c r="L25">
-        <v>1.39852214858445</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="M25">
-        <v>1.39852214858445</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="N25">
-        <v>1.39852214858445</v>
+        <v>0.4809138115336772</v>
       </c>
       <c r="O25">
-        <v>0.5945685969328868</v>
+        <v>0.5984666815983429</v>
       </c>
       <c r="P25">
-        <v>1.665070219609633</v>
+        <v>0.5913040696224968</v>
       </c>
       <c r="Q25">
-        <v>0.6629764929121521</v>
+        <v>0.9862359365489664</v>
       </c>
       <c r="R25">
-        <v>1.576220862601238</v>
+        <v>0.5545073169262237</v>
       </c>
       <c r="S25">
-        <v>1.353841609370227</v>
+        <v>0.8522044435815278</v>
       </c>
       <c r="T25">
-        <v>1.576220862601238</v>
+        <v>0.5545073169262236</v>
       </c>
       <c r="U25">
-        <v>1.365011744173783</v>
+        <v>0.759381785569565</v>
       </c>
       <c r="V25">
-        <v>1.371713825055916</v>
+        <v>0.7036881907623875</v>
       </c>
       <c r="W25">
-        <v>1.172943912478351</v>
+        <v>0.9231870402767264</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.4966886941789823</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="D26">
-        <v>0.6602617741405685</v>
+        <v>1.3826465664652</v>
       </c>
       <c r="E26">
-        <v>0.1357158653006614</v>
+        <v>1.824815341097077</v>
       </c>
       <c r="F26">
-        <v>0.1357158653006614</v>
+        <v>1.824815341097077</v>
       </c>
       <c r="G26">
-        <v>1.592056119695151</v>
+        <v>0.899365445964453</v>
       </c>
       <c r="H26">
-        <v>1.013499467707842</v>
+        <v>1.02187966757812</v>
       </c>
       <c r="I26">
-        <v>1.042404226628271</v>
+        <v>0.6130247411759462</v>
       </c>
       <c r="J26">
-        <v>1.617526224503292</v>
+        <v>0.603034311261649</v>
       </c>
       <c r="K26">
-        <v>0.634805493194959</v>
+        <v>1.190636802103889</v>
       </c>
       <c r="L26">
-        <v>0.4966886941789823</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="M26">
-        <v>0.4966886941789823</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="N26">
-        <v>0.4966886941789823</v>
+        <v>1.366192144313924</v>
       </c>
       <c r="O26">
-        <v>0.6602617741405685</v>
+        <v>1.3826465664652</v>
       </c>
       <c r="P26">
-        <v>0.397988819720615</v>
+        <v>1.603730953781139</v>
       </c>
       <c r="Q26">
-        <v>1.13889399932193</v>
+        <v>0.9928404388634245</v>
       </c>
       <c r="R26">
-        <v>0.4308887778734041</v>
+        <v>1.5245513506254</v>
       </c>
       <c r="S26">
-        <v>0.8045012879815072</v>
+        <v>1.270165406274642</v>
       </c>
       <c r="T26">
-        <v>0.4308887778734041</v>
+        <v>1.524551350625401</v>
       </c>
       <c r="U26">
-        <v>0.727548139530876</v>
+        <v>1.294172090784463</v>
       </c>
       <c r="V26">
-        <v>0.6813762504604973</v>
+        <v>1.308576101490355</v>
       </c>
       <c r="W26">
-        <v>0.899119733168716</v>
+        <v>1.112699377495032</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.5823151550231922</v>
+        <v>1.39852214858445</v>
       </c>
       <c r="D27">
-        <v>1.368882070248103</v>
+        <v>0.5945685969328868</v>
       </c>
       <c r="E27">
-        <v>2.095549584465831</v>
+        <v>2.735571842286378</v>
       </c>
       <c r="F27">
-        <v>2.095549584465831</v>
+        <v>2.735571842286378</v>
       </c>
       <c r="G27">
-        <v>0.606822767500966</v>
+        <v>0.5522360362971502</v>
       </c>
       <c r="H27">
-        <v>0.7954973508144418</v>
+        <v>1.837706595409883</v>
       </c>
       <c r="I27">
-        <v>1.168225478853633</v>
+        <v>0.8047117995799091</v>
       </c>
       <c r="J27">
-        <v>0.7558610967350989</v>
+        <v>0.7313843888914174</v>
       </c>
       <c r="K27">
-        <v>1.383816833187987</v>
+        <v>0.7288498918447323</v>
       </c>
       <c r="L27">
-        <v>0.5823151550231922</v>
+        <v>1.39852214858445</v>
       </c>
       <c r="M27">
-        <v>0.5823151550231922</v>
+        <v>1.39852214858445</v>
       </c>
       <c r="N27">
-        <v>0.5823151550231922</v>
+        <v>1.39852214858445</v>
       </c>
       <c r="O27">
-        <v>1.368882070248103</v>
+        <v>0.5945685969328868</v>
       </c>
       <c r="P27">
-        <v>1.732215827356967</v>
+        <v>1.665070219609633</v>
       </c>
       <c r="Q27">
-        <v>1.062371583491601</v>
+        <v>0.6629764929121521</v>
       </c>
       <c r="R27">
-        <v>1.348915603245709</v>
+        <v>1.576220862601238</v>
       </c>
       <c r="S27">
-        <v>1.406764250483011</v>
+        <v>1.353841609370227</v>
       </c>
       <c r="T27">
-        <v>1.348915603245709</v>
+        <v>1.576220862601238</v>
       </c>
       <c r="U27">
-        <v>1.200651976618056</v>
+        <v>1.365011744173783</v>
       </c>
       <c r="V27">
-        <v>1.076984612299083</v>
+        <v>1.371713825055916</v>
       </c>
       <c r="W27">
-        <v>1.094621292103657</v>
+        <v>1.172943912478351</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.917076588282952</v>
+        <v>0.4966886941789823</v>
       </c>
       <c r="D28">
-        <v>0.9991581281720201</v>
+        <v>0.6602617741405685</v>
       </c>
       <c r="E28">
-        <v>1.266751025452208</v>
+        <v>0.1357158653006614</v>
       </c>
       <c r="F28">
-        <v>1.266751025452208</v>
+        <v>0.1357158653006614</v>
       </c>
       <c r="G28">
-        <v>1.196935268593293</v>
+        <v>1.592056119695151</v>
       </c>
       <c r="H28">
-        <v>0.7513842173421855</v>
+        <v>1.013499467707842</v>
       </c>
       <c r="I28">
-        <v>0.9817909451665249</v>
+        <v>1.042404226628271</v>
       </c>
       <c r="J28">
-        <v>0.8014895442452747</v>
+        <v>1.617526224503292</v>
       </c>
       <c r="K28">
-        <v>1.02536802786366</v>
+        <v>0.634805493194959</v>
       </c>
       <c r="L28">
-        <v>0.917076588282952</v>
+        <v>0.4966886941789823</v>
       </c>
       <c r="M28">
-        <v>0.917076588282952</v>
+        <v>0.4966886941789823</v>
       </c>
       <c r="N28">
-        <v>0.917076588282952</v>
+        <v>0.4966886941789823</v>
       </c>
       <c r="O28">
-        <v>0.9991581281720201</v>
+        <v>0.6602617741405685</v>
       </c>
       <c r="P28">
-        <v>1.132954576812114</v>
+        <v>0.397988819720615</v>
       </c>
       <c r="Q28">
-        <v>0.9003238362086474</v>
+        <v>1.13889399932193</v>
       </c>
       <c r="R28">
-        <v>1.060995247302393</v>
+        <v>0.4308887778734041</v>
       </c>
       <c r="S28">
-        <v>1.022466232623168</v>
+        <v>0.8045012879815072</v>
       </c>
       <c r="T28">
-        <v>1.060995247302393</v>
+        <v>0.4308887778734041</v>
       </c>
       <c r="U28">
-        <v>0.9961188215381137</v>
+        <v>0.727548139530876</v>
       </c>
       <c r="V28">
-        <v>0.9803103748870814</v>
+        <v>0.6813762504604973</v>
       </c>
       <c r="W28">
-        <v>0.9924942181397649</v>
+        <v>0.899119733168716</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="D29">
+        <v>1.368882070248103</v>
+      </c>
+      <c r="E29">
+        <v>2.095549584465831</v>
+      </c>
+      <c r="F29">
+        <v>2.095549584465831</v>
+      </c>
+      <c r="G29">
+        <v>0.606822767500966</v>
+      </c>
+      <c r="H29">
+        <v>0.7954973508144418</v>
+      </c>
+      <c r="I29">
+        <v>1.168225478853633</v>
+      </c>
+      <c r="J29">
+        <v>0.7558610967350989</v>
+      </c>
+      <c r="K29">
+        <v>1.383816833187987</v>
+      </c>
+      <c r="L29">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="M29">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="N29">
+        <v>0.5823151550231922</v>
+      </c>
+      <c r="O29">
+        <v>1.368882070248103</v>
+      </c>
+      <c r="P29">
+        <v>1.732215827356967</v>
+      </c>
+      <c r="Q29">
+        <v>1.062371583491601</v>
+      </c>
+      <c r="R29">
+        <v>1.348915603245709</v>
+      </c>
+      <c r="S29">
+        <v>1.406764250483011</v>
+      </c>
+      <c r="T29">
+        <v>1.348915603245709</v>
+      </c>
+      <c r="U29">
+        <v>1.200651976618056</v>
+      </c>
+      <c r="V29">
+        <v>1.076984612299083</v>
+      </c>
+      <c r="W29">
+        <v>1.094621292103657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="D30">
+        <v>0.9991581281720201</v>
+      </c>
+      <c r="E30">
+        <v>1.266751025452208</v>
+      </c>
+      <c r="F30">
+        <v>1.266751025452208</v>
+      </c>
+      <c r="G30">
+        <v>1.196935268593293</v>
+      </c>
+      <c r="H30">
+        <v>0.7513842173421855</v>
+      </c>
+      <c r="I30">
+        <v>0.9817909451665249</v>
+      </c>
+      <c r="J30">
+        <v>0.8014895442452747</v>
+      </c>
+      <c r="K30">
+        <v>1.02536802786366</v>
+      </c>
+      <c r="L30">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="M30">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="N30">
+        <v>0.917076588282952</v>
+      </c>
+      <c r="O30">
+        <v>0.9991581281720201</v>
+      </c>
+      <c r="P30">
+        <v>1.132954576812114</v>
+      </c>
+      <c r="Q30">
+        <v>0.9003238362086474</v>
+      </c>
+      <c r="R30">
+        <v>1.060995247302393</v>
+      </c>
+      <c r="S30">
+        <v>1.022466232623168</v>
+      </c>
+      <c r="T30">
+        <v>1.060995247302393</v>
+      </c>
+      <c r="U30">
+        <v>0.9961188215381137</v>
+      </c>
+      <c r="V30">
+        <v>0.9803103748870814</v>
+      </c>
+      <c r="W30">
+        <v>0.9924942181397649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8125224520354698</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.5580479128148377</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.694907351363146</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.694907351363146</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.220315840481452</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8042523095712155</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.105096561196816</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.8481853497311725</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.8082405747913108</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8125224520354698</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8125224520354698</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.8125224520354698</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.5580479128148377</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.126477632088992</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.7031166312730051</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.021825905404485</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.033713537969719</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.021825905404485</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9784157664861566</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9452371035960192</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9814460439981776</v>
       </c>
     </row>
